--- a/AAII_Financials/Quarterly/NAVI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NAVI_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
   <si>
     <t>NAVI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,199 +665,224 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="18" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>383000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>418000</v>
+      </c>
+      <c r="F8" s="3">
         <v>435000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>416000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>404000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>425000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>412000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>397000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>438000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>474000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>512000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>462000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>440000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>480000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>509000</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>-58000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>-58000</v>
+      </c>
+      <c r="F9" s="3">
         <v>-60000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>-60000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>-62000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>-64000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>-70000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>-71000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>-69000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>-69000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>-75000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>-70000</v>
-      </c>
-      <c r="N9" s="3">
-        <v>-76000</v>
-      </c>
-      <c r="O9" s="3">
-        <v>-74000</v>
       </c>
       <c r="P9" s="3">
         <v>-76000</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3">
+        <v>-74000</v>
+      </c>
+      <c r="R9" s="3">
+        <v>-76000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>495000</v>
+        <v>441000</v>
       </c>
       <c r="E10" s="3">
         <v>476000</v>
       </c>
       <c r="F10" s="3">
+        <v>495000</v>
+      </c>
+      <c r="G10" s="3">
+        <v>476000</v>
+      </c>
+      <c r="H10" s="3">
         <v>466000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>489000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>482000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>468000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>507000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>543000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>587000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>532000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>516000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>554000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>585000</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -874,8 +899,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -918,8 +945,14 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -962,52 +995,64 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="E14" s="3">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="F14" s="3">
         <v>8000</v>
       </c>
       <c r="G14" s="3">
+        <v>12000</v>
+      </c>
+      <c r="H14" s="3">
+        <v>8000</v>
+      </c>
+      <c r="I14" s="3">
         <v>11000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>24000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>8000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>16000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>35000</v>
-      </c>
-      <c r="L14" s="3">
-        <v>6000</v>
-      </c>
-      <c r="M14" s="3">
-        <v>6000</v>
       </c>
       <c r="N14" s="3">
         <v>6000</v>
       </c>
       <c r="O14" s="3">
+        <v>6000</v>
+      </c>
+      <c r="P14" s="3">
+        <v>6000</v>
+      </c>
+      <c r="Q14" s="3">
         <v>14000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1050,8 +1095,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1065,96 +1116,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>514000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>199000</v>
+      </c>
+      <c r="F17" s="3">
         <v>250000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>222000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>240000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>318000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>265000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>284000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>276000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>292000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>243000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>290000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>299000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>238000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>132000</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-131000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>219000</v>
+      </c>
+      <c r="F18" s="3">
         <v>185000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>194000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>164000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>107000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>147000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>113000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>162000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>182000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>269000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>172000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>141000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>242000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>377000</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1171,8 +1236,10 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1215,8 +1282,14 @@
       <c r="P20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1250,17 +1323,23 @@
       <c r="M21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P21" s="3">
         <v>141000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>242000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>377000</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1303,96 +1382,114 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-131000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>219000</v>
+      </c>
+      <c r="F23" s="3">
         <v>185000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>194000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>164000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>107000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>147000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>113000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>162000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>182000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>269000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>172000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>141000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>242000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>377000</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-25000</v>
+      </c>
+      <c r="E24" s="3">
+        <v>47000</v>
+      </c>
+      <c r="F24" s="3">
         <v>40000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>41000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>36000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>35000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>54000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>46000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>59000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>474000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>93000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>60000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>53000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>96000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>147000</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1435,96 +1532,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-106000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>172000</v>
+      </c>
+      <c r="F26" s="3">
         <v>145000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>153000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>128000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>72000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>93000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>67000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>103000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-292000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>176000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>112000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>88000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>146000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>230000</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-106000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>172000</v>
+      </c>
+      <c r="F27" s="3">
         <v>145000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>153000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>128000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>72000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>93000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>67000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>103000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-292000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>176000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>112000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>88000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>146000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>230000</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1567,8 +1682,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1581,38 +1702,44 @@
       <c r="F29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3">
+      <c r="G29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
         <v>21000</v>
       </c>
-      <c r="I29" s="3">
+      <c r="K29" s="3">
         <v>16000</v>
       </c>
-      <c r="J29" s="3">
+      <c r="L29" s="3">
         <v>23000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="M29" s="3">
         <v>208000</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="O29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1655,8 +1782,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1699,8 +1832,14 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1743,52 +1882,64 @@
       <c r="P32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-106000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>172000</v>
+      </c>
+      <c r="F33" s="3">
         <v>145000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>153000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>128000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>72000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>114000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>83000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>126000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-84000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>176000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>112000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>88000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>146000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>230000</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1831,101 +1982,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-106000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>172000</v>
+      </c>
+      <c r="F35" s="3">
         <v>145000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>153000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>128000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>72000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>114000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>83000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>126000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-84000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>176000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>112000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>88000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>146000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>230000</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1942,8 +2111,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1960,52 +2131,60 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1084000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1233000</v>
+      </c>
+      <c r="F41" s="3">
         <v>1583000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>1746000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>1206000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>1286000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>2143000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>1622000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>2398000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>1518000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>1248000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>1153000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>1364000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>1253000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>1823000</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2048,52 +2227,64 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1969000</v>
+      </c>
+      <c r="E43" s="3">
+        <v>2071000</v>
+      </c>
+      <c r="F43" s="3">
         <v>1985000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>2093000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>2032000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>2094000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>2132000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>2238000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>2078000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>2345000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>1939000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>1930000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>1704000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>1758000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>1652000</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2136,8 +2327,14 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2180,8 +2377,14 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2224,140 +2427,164 @@
       <c r="P46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>85681000</v>
+      </c>
+      <c r="E47" s="3">
+        <v>87289000</v>
+      </c>
+      <c r="F47" s="3">
         <v>88468000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>90021000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>92560000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>95064000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>97556000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>100093000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>103054000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>105932000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>108311000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>111582000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>108989000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>112293000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>115487000</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>132000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>135000</v>
+      </c>
+      <c r="F48" s="3">
         <v>134000</v>
-      </c>
-      <c r="E48" s="3">
-        <v>136000</v>
-      </c>
-      <c r="F48" s="3">
-        <v>136000</v>
       </c>
       <c r="G48" s="3">
         <v>136000</v>
       </c>
       <c r="H48" s="3">
+        <v>136000</v>
+      </c>
+      <c r="I48" s="3">
+        <v>136000</v>
+      </c>
+      <c r="J48" s="3">
         <v>107000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>104000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>150000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>108000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>152000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>152000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>157000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>160000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>156000</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>752000</v>
+      </c>
+      <c r="E49" s="3">
+        <v>757000</v>
+      </c>
+      <c r="F49" s="3">
         <v>763000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>769000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>780000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>786000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>792000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>798000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>802000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>810000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>727000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>658000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>664000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>670000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>683000</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2400,8 +2627,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2444,52 +2677,64 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>3141000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>3007000</v>
+      </c>
+      <c r="F52" s="3">
         <v>3134000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>3140000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>3470000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>4446000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>3243000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>3530000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>3880000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>3402000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>3873000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>4084000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>4211000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>4088000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>4103000</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2532,52 +2777,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>93245000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>94903000</v>
+      </c>
+      <c r="F54" s="3">
         <v>96553000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>98320000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>100579000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>104176000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>106493000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>108949000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>113209000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>114991000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>117085000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>120354000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>117890000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>121136000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>125312000</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2594,8 +2851,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2612,8 +2871,10 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2656,52 +2917,64 @@
       <c r="P57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>8452000</v>
+      </c>
+      <c r="E58" s="3">
+        <v>8483000</v>
+      </c>
+      <c r="F58" s="3">
         <v>7004000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>6785000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>7505000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>5422000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>5007000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>4752000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>5131000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>4771000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>3281000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>3918000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>2160000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>2334000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>2637000</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2744,8 +3017,14 @@
       <c r="P59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3">
+        <v>0</v>
+      </c>
+      <c r="R59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2788,52 +3067,64 @@
       <c r="P60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3">
+        <v>0</v>
+      </c>
+      <c r="R60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>81297000</v>
+      </c>
+      <c r="E61" s="3">
+        <v>81715000</v>
+      </c>
+      <c r="F61" s="3">
         <v>84769000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>86776000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>88140000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>93519000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>96089000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>98690000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>102797000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>105012000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>108557000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>110778000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>109586000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>112368000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>116540000</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2876,8 +3167,14 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2920,8 +3217,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2964,8 +3267,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3008,52 +3317,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>91210000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>91567000</v>
+      </c>
+      <c r="F66" s="3">
         <v>93313000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>95019000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>97149000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>100657000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>102769000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>105235000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>109572000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>111537000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>113559000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>116814000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>114242000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>117437000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>121602000</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3070,8 +3391,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3114,8 +3437,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3158,8 +3487,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3202,8 +3537,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3246,52 +3587,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>2905000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>3664000</v>
+      </c>
+      <c r="F72" s="3">
         <v>3527000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>3418000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>3303000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>3218000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>3186000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>3114000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>3073000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>3004000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>3130000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>2997000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>2930000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>2890000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>2858000</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3334,8 +3687,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3378,8 +3737,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3422,52 +3787,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2035000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>3336000</v>
+      </c>
+      <c r="F76" s="3">
         <v>3240000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>3301000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>3430000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>3519000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>3724000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>3714000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>3637000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>3454000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>3526000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>3540000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>3648000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>3699000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>3710000</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3510,101 +3887,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-106000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>172000</v>
+      </c>
+      <c r="F81" s="3">
         <v>145000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>153000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>128000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>72000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>114000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>83000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>126000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-84000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>176000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>112000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>88000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>146000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>230000</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3621,8 +4016,10 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3665,8 +4062,14 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3709,8 +4112,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3753,8 +4162,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3797,8 +4212,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3841,8 +4262,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3885,52 +4312,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>453000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>188000</v>
+      </c>
+      <c r="F89" s="3">
         <v>309000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>334000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>188000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>485000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>173000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>198000</v>
-      </c>
-      <c r="J89" s="3">
-        <v>284000</v>
-      </c>
-      <c r="K89" s="3">
-        <v>244000</v>
       </c>
       <c r="L89" s="3">
         <v>284000</v>
       </c>
       <c r="M89" s="3">
+        <v>244000</v>
+      </c>
+      <c r="N89" s="3">
+        <v>284000</v>
+      </c>
+      <c r="O89" s="3">
         <v>280000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>350000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>243000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>343000</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3947,8 +4386,10 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3991,8 +4432,14 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4035,8 +4482,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4079,52 +4532,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>985000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>1079000</v>
+      </c>
+      <c r="F94" s="3">
         <v>1525000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>2473000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>2408000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>2161000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>2443000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>3035000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>2721000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>2424000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>3194000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-1133000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>3011000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>2913000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>3111000</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4141,31 +4606,33 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-31000</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-35000</v>
+      </c>
+      <c r="F96" s="3">
         <v>-36000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="G96" s="3">
         <v>-37000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="H96" s="3">
         <v>-39000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="I96" s="3">
         <v>-40000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="J96" s="3">
         <v>-41000</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-43000</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-42000</v>
       </c>
       <c r="K96" s="3">
         <v>-43000</v>
@@ -4174,19 +4641,25 @@
         <v>-42000</v>
       </c>
       <c r="M96" s="3">
+        <v>-43000</v>
+      </c>
+      <c r="N96" s="3">
+        <v>-42000</v>
+      </c>
+      <c r="O96" s="3">
         <v>-45000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="P96" s="3">
         <v>-46000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="Q96" s="3">
         <v>-47000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="R96" s="3">
         <v>-49000</v>
       </c>
     </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4229,8 +4702,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4273,8 +4752,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4317,52 +4802,64 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1451000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-1746000</v>
+      </c>
+      <c r="F100" s="3">
         <v>-2000000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-2601000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-3638000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-2632000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-2376000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-4022000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-1854000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-2411000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-3330000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>649000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-3250000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-3726000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-3008000</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4405,48 +4902,60 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-479000</v>
+      </c>
+      <c r="F102" s="3">
         <v>-166000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>206000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-1042000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>14000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>240000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-789000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>1151000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>270000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>91000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-207000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>111000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-570000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>446000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NAVI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NAVI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
   <si>
     <t>NAVI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,224 +665,237 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="18" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="19" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>402000</v>
+      </c>
+      <c r="E8" s="3">
         <v>383000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>418000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>435000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>416000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>404000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>425000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>412000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>397000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>438000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>474000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>512000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>462000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>440000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>480000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>509000</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>-58000</v>
+        <v>-52000</v>
       </c>
       <c r="E9" s="3">
         <v>-58000</v>
       </c>
       <c r="F9" s="3">
-        <v>-60000</v>
+        <v>-58000</v>
       </c>
       <c r="G9" s="3">
         <v>-60000</v>
       </c>
       <c r="H9" s="3">
+        <v>-60000</v>
+      </c>
+      <c r="I9" s="3">
         <v>-62000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>-64000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>-70000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>-71000</v>
-      </c>
-      <c r="L9" s="3">
-        <v>-69000</v>
       </c>
       <c r="M9" s="3">
         <v>-69000</v>
       </c>
       <c r="N9" s="3">
+        <v>-69000</v>
+      </c>
+      <c r="O9" s="3">
         <v>-75000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>-70000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>-76000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>-74000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>-76000</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>454000</v>
+      </c>
+      <c r="E10" s="3">
         <v>441000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>476000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>495000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>476000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>466000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>489000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>482000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>468000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>507000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>543000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>587000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>532000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>516000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>554000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>585000</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -901,8 +914,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -951,8 +965,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1001,43 +1018,46 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>5000</v>
+        <v>47000</v>
       </c>
       <c r="E14" s="3">
+        <v>94000</v>
+      </c>
+      <c r="F14" s="3">
         <v>9000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>8000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>12000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>8000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>11000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>24000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>8000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>16000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>35000</v>
-      </c>
-      <c r="N14" s="3">
-        <v>6000</v>
       </c>
       <c r="O14" s="3">
         <v>6000</v>
@@ -1046,13 +1066,16 @@
         <v>6000</v>
       </c>
       <c r="Q14" s="3">
+        <v>6000</v>
+      </c>
+      <c r="R14" s="3">
         <v>14000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1101,8 +1124,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1118,108 +1144,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>232000</v>
+      </c>
+      <c r="E17" s="3">
         <v>514000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>199000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>250000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>222000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>240000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>318000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>265000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>284000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>276000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>292000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>243000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>290000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>299000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>238000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>132000</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>170000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-131000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>219000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>185000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>194000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>164000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>107000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>147000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>113000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>162000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>182000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>269000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>172000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>141000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>242000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>377000</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1238,8 +1271,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1288,8 +1322,11 @@
       <c r="R20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1329,17 +1366,20 @@
       <c r="O21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q21" s="3">
         <v>141000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>242000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>377000</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1388,108 +1428,117 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>170000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-131000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>219000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>185000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>194000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>164000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>107000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>147000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>113000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>162000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>182000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>269000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>172000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>141000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>242000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>377000</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>45000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-25000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>47000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>40000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>41000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>36000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>35000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>54000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>46000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>59000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>474000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>93000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>60000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>53000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>96000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>147000</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1538,108 +1587,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>125000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-106000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>172000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>145000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>153000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>128000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>72000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>93000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>67000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>103000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-292000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>176000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>112000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>88000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>146000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>230000</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>125000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-106000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>172000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>145000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>153000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>128000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>72000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>93000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>67000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>103000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-292000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>176000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>112000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>88000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>146000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>230000</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1688,8 +1746,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1708,23 +1769,23 @@
       <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
+      <c r="I29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>21000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>16000</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>23000</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>208000</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -1732,14 +1793,17 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1788,8 +1852,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1838,8 +1905,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1888,58 +1958,64 @@
       <c r="R32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>125000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-106000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>172000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>145000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>153000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>128000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>72000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>114000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>83000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>126000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-84000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>176000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>112000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>88000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>146000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>230000</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1988,113 +2064,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>125000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-106000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>172000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>145000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>153000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>128000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>72000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>114000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>83000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>126000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-84000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>176000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>112000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>88000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>146000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>230000</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2113,8 +2198,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2133,58 +2219,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1632000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1084000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1233000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1583000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1746000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1206000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1286000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2143000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1622000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2398000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1518000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1248000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1153000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1364000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1253000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1823000</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2233,58 +2323,64 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2096000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1969000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2071000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1985000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2093000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2032000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2094000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2132000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2238000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2078000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2345000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1939000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1930000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1704000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1758000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1652000</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2333,8 +2429,11 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2383,8 +2482,11 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2433,72 +2535,78 @@
       <c r="R46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>83192000</v>
+      </c>
+      <c r="E47" s="3">
         <v>85681000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>87289000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>88468000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>90021000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>92560000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>95064000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>97556000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>100093000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>103054000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>105932000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>108311000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>111582000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>108989000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>112293000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>115487000</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>129000</v>
+      </c>
+      <c r="E48" s="3">
         <v>132000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>135000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>134000</v>
-      </c>
-      <c r="G48" s="3">
-        <v>136000</v>
       </c>
       <c r="H48" s="3">
         <v>136000</v>
@@ -2507,84 +2615,90 @@
         <v>136000</v>
       </c>
       <c r="J48" s="3">
+        <v>136000</v>
+      </c>
+      <c r="K48" s="3">
         <v>107000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>104000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>150000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>108000</v>
-      </c>
-      <c r="N48" s="3">
-        <v>152000</v>
       </c>
       <c r="O48" s="3">
         <v>152000</v>
       </c>
       <c r="P48" s="3">
+        <v>152000</v>
+      </c>
+      <c r="Q48" s="3">
         <v>157000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>160000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>156000</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>746000</v>
+      </c>
+      <c r="E49" s="3">
         <v>752000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>757000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>763000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>769000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>780000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>786000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>792000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>798000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>802000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>810000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>727000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>658000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>664000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>670000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>683000</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2633,8 +2747,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2683,58 +2800,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2820000</v>
+      </c>
+      <c r="E52" s="3">
         <v>3141000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>3007000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>3134000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>3140000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>3470000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>4446000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>3243000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3530000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3880000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>3402000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>3873000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>4084000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>4211000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>4088000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>4103000</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2783,58 +2906,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>91045000</v>
+      </c>
+      <c r="E54" s="3">
         <v>93245000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>94903000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>96553000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>98320000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>100579000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>104176000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>106493000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>108949000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>113209000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>114991000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>117085000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>120354000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>117890000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>121136000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>125312000</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2853,8 +2982,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2873,8 +3003,9 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2923,58 +3054,64 @@
       <c r="R57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>7310000</v>
+      </c>
+      <c r="E58" s="3">
         <v>8452000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>8483000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>7004000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>6785000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>7505000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>5422000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>5007000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>4752000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>5131000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>4771000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3281000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3918000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2160000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>2334000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>2637000</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3023,8 +3160,11 @@
       <c r="R59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3073,58 +3213,64 @@
       <c r="R60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>80260000</v>
+      </c>
+      <c r="E61" s="3">
         <v>81297000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>81715000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>84769000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>86776000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>88140000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>93519000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>96089000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>98690000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>102797000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>105012000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>108557000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>110778000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>109586000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>112368000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>116540000</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3173,8 +3319,11 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3223,8 +3372,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3273,8 +3425,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3323,58 +3478,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>88930000</v>
+      </c>
+      <c r="E66" s="3">
         <v>91210000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>91567000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>93313000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>95019000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>97149000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>100657000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>102769000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>105235000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>109572000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>111537000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>113559000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>116814000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>114242000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>117437000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>121602000</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3393,8 +3554,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3443,8 +3605,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3493,8 +3658,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3543,8 +3711,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3593,58 +3764,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>2999000</v>
+      </c>
+      <c r="E72" s="3">
         <v>2905000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>3664000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>3527000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>3418000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>3303000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>3218000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>3186000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>3114000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>3073000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>3004000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>3130000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2997000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2930000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2890000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>2858000</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3693,8 +3870,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3743,8 +3923,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3793,58 +3976,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2115000</v>
+      </c>
+      <c r="E76" s="3">
         <v>2035000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3336000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3240000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3301000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>3430000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>3519000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>3724000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3714000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3637000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3454000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3526000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3540000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>3648000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>3699000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>3710000</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3893,113 +4082,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>125000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-106000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>172000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>145000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>153000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>128000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>72000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>114000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>83000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>126000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-84000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>176000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>112000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>88000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>146000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>230000</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4018,8 +4216,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4068,8 +4267,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4118,8 +4320,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4168,8 +4373,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4218,8 +4426,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4268,8 +4479,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4318,58 +4532,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>142000</v>
+      </c>
+      <c r="E89" s="3">
         <v>453000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>188000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>309000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>334000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>188000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>485000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>173000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>198000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>284000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>244000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>284000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>280000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>350000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>243000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>343000</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4388,8 +4608,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4438,8 +4659,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4488,8 +4712,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4538,58 +4765,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>2407000</v>
+      </c>
+      <c r="E94" s="3">
         <v>985000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>1079000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>1525000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>2473000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>2408000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>2161000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>2443000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>3035000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>2721000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>2424000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>3194000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1133000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>3011000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>2913000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>3111000</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4608,8 +4841,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4617,49 +4851,52 @@
         <v>-31000</v>
       </c>
       <c r="E96" s="3">
+        <v>-31000</v>
+      </c>
+      <c r="F96" s="3">
         <v>-35000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-36000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-37000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-39000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-40000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-41000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-43000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-42000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-43000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-42000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-45000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-46000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-47000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-49000</v>
       </c>
     </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4708,8 +4945,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4758,8 +4998,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4808,58 +5051,64 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-2328000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1451000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1746000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-2000000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-2601000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-3638000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-2632000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-2376000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-4022000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1854000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-2411000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-3330000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>649000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-3250000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-3726000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-3008000</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4908,54 +5157,60 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>221000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-13000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-479000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-166000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>206000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1042000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>14000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>240000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-789000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1151000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>270000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>91000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-207000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>111000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-570000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>446000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NAVI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NAVI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
   <si>
     <t>NAVI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,237 +665,250 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="19" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="20" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>461000</v>
+      </c>
+      <c r="E8" s="3">
         <v>402000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>383000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>418000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>435000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>416000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>404000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>425000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>412000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>397000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>438000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>474000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>512000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>462000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>440000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>480000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>509000</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>-54000</v>
+      </c>
+      <c r="E9" s="3">
         <v>-52000</v>
-      </c>
-      <c r="E9" s="3">
-        <v>-58000</v>
       </c>
       <c r="F9" s="3">
         <v>-58000</v>
       </c>
       <c r="G9" s="3">
-        <v>-60000</v>
+        <v>-58000</v>
       </c>
       <c r="H9" s="3">
         <v>-60000</v>
       </c>
       <c r="I9" s="3">
+        <v>-60000</v>
+      </c>
+      <c r="J9" s="3">
         <v>-62000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>-64000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>-70000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>-71000</v>
-      </c>
-      <c r="M9" s="3">
-        <v>-69000</v>
       </c>
       <c r="N9" s="3">
         <v>-69000</v>
       </c>
       <c r="O9" s="3">
+        <v>-69000</v>
+      </c>
+      <c r="P9" s="3">
         <v>-75000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>-70000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>-76000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>-74000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>-76000</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>515000</v>
+      </c>
+      <c r="E10" s="3">
         <v>454000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>441000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>476000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>495000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>476000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>466000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>489000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>482000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>468000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>507000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>543000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>587000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>532000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>516000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>554000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>585000</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -915,8 +928,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -968,8 +982,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1021,46 +1038,49 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>18000</v>
+      </c>
+      <c r="E14" s="3">
         <v>47000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>94000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>9000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>8000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>12000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>8000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>11000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>24000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>8000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>16000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>35000</v>
-      </c>
-      <c r="O14" s="3">
-        <v>6000</v>
       </c>
       <c r="P14" s="3">
         <v>6000</v>
@@ -1069,13 +1089,16 @@
         <v>6000</v>
       </c>
       <c r="R14" s="3">
+        <v>6000</v>
+      </c>
+      <c r="S14" s="3">
         <v>14000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1127,8 +1150,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1145,114 +1171,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>202000</v>
+      </c>
+      <c r="E17" s="3">
         <v>232000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>514000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>199000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>250000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>222000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>240000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>318000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>265000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>284000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>276000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>292000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>243000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>290000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>299000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>238000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>132000</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>259000</v>
+      </c>
+      <c r="E18" s="3">
         <v>170000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-131000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>219000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>185000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>194000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>164000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>107000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>147000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>113000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>162000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>182000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>269000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>172000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>141000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>242000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>377000</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1272,8 +1305,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1325,8 +1359,11 @@
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1369,17 +1406,20 @@
       <c r="P21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R21" s="3">
         <v>141000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>242000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>377000</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1431,114 +1471,123 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>259000</v>
+      </c>
+      <c r="E23" s="3">
         <v>170000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-131000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>219000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>185000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>194000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>164000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>107000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>147000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>113000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>162000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>182000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>269000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>172000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>141000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>242000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>377000</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>52000</v>
+      </c>
+      <c r="E24" s="3">
         <v>45000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-25000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>47000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>40000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>41000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>36000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>35000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>54000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>46000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>59000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>474000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>93000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>60000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>53000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>96000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>147000</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1590,114 +1639,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>207000</v>
+      </c>
+      <c r="E26" s="3">
         <v>125000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-106000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>172000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>145000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>153000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>128000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>72000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>93000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>67000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>103000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-292000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>176000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>112000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>88000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>146000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>230000</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>207000</v>
+      </c>
+      <c r="E27" s="3">
         <v>125000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-106000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>172000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>145000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>153000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>128000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>72000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>93000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>67000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>103000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-292000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>176000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>112000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>88000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>146000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>230000</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1749,8 +1807,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1772,23 +1833,23 @@
       <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
+      <c r="J29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>21000</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>16000</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>23000</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>208000</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
@@ -1796,14 +1857,17 @@
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
+      <c r="R29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1855,8 +1919,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1908,8 +1975,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1961,61 +2031,67 @@
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>207000</v>
+      </c>
+      <c r="E33" s="3">
         <v>125000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-106000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>172000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>145000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>153000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>128000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>72000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>114000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>83000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>126000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-84000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>176000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>112000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>88000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>146000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>230000</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2067,119 +2143,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>207000</v>
+      </c>
+      <c r="E35" s="3">
         <v>125000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-106000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>172000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>145000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>153000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>128000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>72000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>114000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>83000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>126000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-84000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>176000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>112000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>88000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>146000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>230000</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2199,8 +2284,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2220,61 +2306,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1775000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1632000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1084000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1233000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1583000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1746000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1206000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1286000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2143000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1622000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2398000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1518000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1248000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1153000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1364000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1253000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1823000</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2326,61 +2416,67 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2059000</v>
+      </c>
+      <c r="E43" s="3">
         <v>2096000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1969000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2071000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1985000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2093000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2032000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2094000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2132000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2238000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2078000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2345000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1939000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1930000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1704000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1758000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1652000</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2432,8 +2528,11 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2485,8 +2584,11 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2538,78 +2640,84 @@
       <c r="S46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>81620000</v>
+      </c>
+      <c r="E47" s="3">
         <v>83192000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>85681000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>87289000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>88468000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>90021000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>92560000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>95064000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>97556000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>100093000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>103054000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>105932000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>108311000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>111582000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>108989000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>112293000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>115487000</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>127000</v>
+      </c>
+      <c r="E48" s="3">
         <v>129000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>132000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>135000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>134000</v>
-      </c>
-      <c r="H48" s="3">
-        <v>136000</v>
       </c>
       <c r="I48" s="3">
         <v>136000</v>
@@ -2618,87 +2726,93 @@
         <v>136000</v>
       </c>
       <c r="K48" s="3">
+        <v>136000</v>
+      </c>
+      <c r="L48" s="3">
         <v>107000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>104000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>150000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>108000</v>
-      </c>
-      <c r="O48" s="3">
-        <v>152000</v>
       </c>
       <c r="P48" s="3">
         <v>152000</v>
       </c>
       <c r="Q48" s="3">
+        <v>152000</v>
+      </c>
+      <c r="R48" s="3">
         <v>157000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>160000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>156000</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>741000</v>
+      </c>
+      <c r="E49" s="3">
         <v>746000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>752000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>757000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>763000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>769000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>780000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>786000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>792000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>798000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>802000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>810000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>727000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>658000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>664000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>670000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>683000</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2750,8 +2864,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2803,61 +2920,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2905000</v>
+      </c>
+      <c r="E52" s="3">
         <v>2820000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>3141000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>3007000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>3134000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>3140000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>3470000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>4446000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3243000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3530000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>3880000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>3402000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>3873000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>4084000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>4211000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>4088000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>4103000</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2909,61 +3032,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>89664000</v>
+      </c>
+      <c r="E54" s="3">
         <v>91045000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>93245000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>94903000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>96553000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>98320000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>100579000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>104176000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>106493000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>108949000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>113209000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>114991000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>117085000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>120354000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>117890000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>121136000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>125312000</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2983,8 +3112,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3004,8 +3134,9 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3057,61 +3188,67 @@
       <c r="S57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>7078000</v>
+      </c>
+      <c r="E58" s="3">
         <v>7310000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>8452000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>8483000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>7004000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>6785000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>7505000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>5422000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>5007000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>4752000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>5131000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>4771000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3281000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>3918000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>2160000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>2334000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>2637000</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3163,8 +3300,11 @@
       <c r="S59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3216,61 +3356,67 @@
       <c r="S60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>79137000</v>
+      </c>
+      <c r="E61" s="3">
         <v>80260000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>81297000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>81715000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>84769000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>86776000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>88140000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>93519000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>96089000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>98690000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>102797000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>105012000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>108557000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>110778000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>109586000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>112368000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>116540000</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3322,8 +3468,11 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3375,8 +3524,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3428,8 +3580,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3481,61 +3636,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>87410000</v>
+      </c>
+      <c r="E66" s="3">
         <v>88930000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>91210000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>91567000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>93313000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>95019000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>97149000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>100657000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>102769000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>105235000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>109572000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>111537000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>113559000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>116814000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>114242000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>117437000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>121602000</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3555,8 +3716,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3608,8 +3770,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3661,8 +3826,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3714,8 +3882,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3767,61 +3938,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>3175000</v>
+      </c>
+      <c r="E72" s="3">
         <v>2999000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>2905000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>3664000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>3527000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>3418000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>3303000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>3218000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>3186000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>3114000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>3073000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>3004000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>3130000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2997000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2930000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>2890000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>2858000</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3873,8 +4050,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3926,8 +4106,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3979,61 +4162,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2254000</v>
+      </c>
+      <c r="E76" s="3">
         <v>2115000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2035000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3336000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3240000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>3301000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>3430000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>3519000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3724000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3714000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3637000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3454000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3526000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>3540000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>3648000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>3699000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>3710000</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4085,119 +4274,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>207000</v>
+      </c>
+      <c r="E81" s="3">
         <v>125000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-106000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>172000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>145000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>153000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>128000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>72000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>114000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>83000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>126000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-84000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>176000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>112000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>88000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>146000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>230000</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4217,8 +4415,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4270,8 +4469,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4323,8 +4525,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4376,8 +4581,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4429,8 +4637,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4482,8 +4693,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4535,61 +4749,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>221000</v>
+      </c>
+      <c r="E89" s="3">
         <v>142000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>453000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>188000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>309000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>334000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>188000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>485000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>173000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>198000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>284000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>244000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>284000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>280000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>350000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>243000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>343000</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4609,8 +4829,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4662,8 +4883,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4715,8 +4939,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4768,61 +4995,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>1526000</v>
+      </c>
+      <c r="E94" s="3">
         <v>2407000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>985000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>1079000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>1525000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>2473000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>2408000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>2161000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>2443000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>3035000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>2721000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>2424000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>3194000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1133000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>3011000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>2913000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>3111000</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4842,8 +5075,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4854,49 +5088,52 @@
         <v>-31000</v>
       </c>
       <c r="F96" s="3">
+        <v>-31000</v>
+      </c>
+      <c r="G96" s="3">
         <v>-35000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-36000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-37000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-39000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-40000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-41000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-43000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-42000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-43000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-42000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-45000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-46000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-47000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-49000</v>
       </c>
     </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4948,8 +5185,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5001,8 +5241,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5054,61 +5297,67 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1522000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-2328000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1451000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1746000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-2000000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-2601000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-3638000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-2632000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-2376000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-4022000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1854000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-2411000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-3330000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>649000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-3250000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-3726000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-3008000</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5160,57 +5409,63 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>225000</v>
+      </c>
+      <c r="E102" s="3">
         <v>221000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-13000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-479000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-166000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>206000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1042000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>14000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>240000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-789000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1151000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>270000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>91000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-207000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>111000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-570000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>446000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NAVI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NAVI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
   <si>
     <t>NAVI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,194 +665,203 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="20" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="21" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>464000</v>
+      </c>
+      <c r="E8" s="3">
         <v>461000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>402000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>383000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>418000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>435000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>416000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>404000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>425000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>412000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>397000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>438000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>474000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>512000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>462000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>440000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>480000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>509000</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>-51000</v>
+      </c>
+      <c r="E9" s="3">
         <v>-54000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>-52000</v>
-      </c>
-      <c r="F9" s="3">
-        <v>-58000</v>
       </c>
       <c r="G9" s="3">
         <v>-58000</v>
       </c>
       <c r="H9" s="3">
-        <v>-60000</v>
+        <v>-58000</v>
       </c>
       <c r="I9" s="3">
         <v>-60000</v>
       </c>
       <c r="J9" s="3">
+        <v>-60000</v>
+      </c>
+      <c r="K9" s="3">
         <v>-62000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>-64000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>-70000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>-71000</v>
-      </c>
-      <c r="N9" s="3">
-        <v>-69000</v>
       </c>
       <c r="O9" s="3">
         <v>-69000</v>
       </c>
       <c r="P9" s="3">
+        <v>-69000</v>
+      </c>
+      <c r="Q9" s="3">
         <v>-75000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>-70000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>-76000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>-74000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>-76000</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -860,55 +869,58 @@
         <v>515000</v>
       </c>
       <c r="E10" s="3">
+        <v>515000</v>
+      </c>
+      <c r="F10" s="3">
         <v>454000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>441000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>476000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>495000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>476000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>466000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>489000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>482000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>468000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>507000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>543000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>587000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>532000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>516000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>554000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>585000</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -929,8 +941,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -985,8 +998,11 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1041,49 +1057,52 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E14" s="3">
         <v>18000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>47000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>94000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>9000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>8000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>12000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>8000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>11000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>24000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>8000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>16000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>35000</v>
-      </c>
-      <c r="P14" s="3">
-        <v>6000</v>
       </c>
       <c r="Q14" s="3">
         <v>6000</v>
@@ -1092,13 +1111,16 @@
         <v>6000</v>
       </c>
       <c r="S14" s="3">
+        <v>6000</v>
+      </c>
+      <c r="T14" s="3">
         <v>14000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1153,8 +1175,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1172,120 +1197,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>230000</v>
+      </c>
+      <c r="E17" s="3">
         <v>202000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>232000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>514000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>199000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>250000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>222000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>240000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>318000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>265000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>284000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>276000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>292000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>243000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>290000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>299000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>238000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>132000</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>234000</v>
+      </c>
+      <c r="E18" s="3">
         <v>259000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>170000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-131000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>219000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>185000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>194000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>164000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>107000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>147000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>113000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>162000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>182000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>269000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>172000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>141000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>242000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>377000</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1306,8 +1338,9 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1362,8 +1395,11 @@
       <c r="T20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1409,17 +1445,20 @@
       <c r="Q21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S21" s="3">
         <v>141000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>242000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>377000</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1474,120 +1513,129 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>234000</v>
+      </c>
+      <c r="E23" s="3">
         <v>259000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>170000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-131000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>219000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>185000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>194000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>164000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>107000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>147000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>113000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>162000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>182000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>269000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>172000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>141000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>242000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>377000</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>49000</v>
+      </c>
+      <c r="E24" s="3">
         <v>52000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>45000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-25000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>47000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>40000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>41000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>36000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>35000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>54000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>46000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>59000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>474000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>93000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>60000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>53000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>96000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>147000</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1642,120 +1690,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>185000</v>
+      </c>
+      <c r="E26" s="3">
         <v>207000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>125000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-106000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>172000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>145000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>153000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>128000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>72000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>93000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>67000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>103000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-292000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>176000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>112000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>88000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>146000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>230000</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>185000</v>
+      </c>
+      <c r="E27" s="3">
         <v>207000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>125000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-106000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>172000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>145000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>153000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>128000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>72000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>93000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>67000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>103000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-292000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>176000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>112000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>88000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>146000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>230000</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1810,8 +1867,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1836,23 +1896,23 @@
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
+      <c r="K29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>21000</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>16000</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>23000</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>208000</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
@@ -1860,14 +1920,17 @@
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
+      <c r="S29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1922,8 +1985,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1978,8 +2044,11 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2034,64 +2103,70 @@
       <c r="T32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>185000</v>
+      </c>
+      <c r="E33" s="3">
         <v>207000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>125000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-106000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>172000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>145000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>153000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>128000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>72000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>114000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>83000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>126000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-84000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>176000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>112000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>88000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>146000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>230000</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2146,125 +2221,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>185000</v>
+      </c>
+      <c r="E35" s="3">
         <v>207000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>125000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-106000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>172000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>145000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>153000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>128000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>72000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>114000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>83000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>126000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-84000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>176000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>112000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>88000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>146000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>230000</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2285,8 +2369,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2307,64 +2392,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1183000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1775000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1632000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1084000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1233000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1583000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1746000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1206000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1286000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2143000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1622000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2398000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1518000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1248000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1153000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1364000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1253000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1823000</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2419,64 +2508,70 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2051000</v>
+      </c>
+      <c r="E43" s="3">
         <v>2059000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2096000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1969000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2071000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1985000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2093000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2032000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2094000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2132000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2238000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2078000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2345000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1939000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1930000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1704000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1758000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1652000</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2531,8 +2626,11 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2587,8 +2685,11 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2643,84 +2744,90 @@
       <c r="T46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>80102000</v>
+      </c>
+      <c r="E47" s="3">
         <v>81620000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>83192000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>85681000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>87289000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>88468000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>90021000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>92560000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>95064000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>97556000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>100093000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>103054000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>105932000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>108311000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>111582000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>108989000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>112293000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>115487000</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>116000</v>
+      </c>
+      <c r="E48" s="3">
         <v>127000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>129000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>132000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>135000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>134000</v>
-      </c>
-      <c r="I48" s="3">
-        <v>136000</v>
       </c>
       <c r="J48" s="3">
         <v>136000</v>
@@ -2729,90 +2836,96 @@
         <v>136000</v>
       </c>
       <c r="L48" s="3">
+        <v>136000</v>
+      </c>
+      <c r="M48" s="3">
         <v>107000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>104000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>150000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>108000</v>
-      </c>
-      <c r="P48" s="3">
-        <v>152000</v>
       </c>
       <c r="Q48" s="3">
         <v>152000</v>
       </c>
       <c r="R48" s="3">
+        <v>152000</v>
+      </c>
+      <c r="S48" s="3">
         <v>157000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>160000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>156000</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>735000</v>
+      </c>
+      <c r="E49" s="3">
         <v>741000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>746000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>752000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>757000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>763000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>769000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>780000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>786000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>792000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>798000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>802000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>810000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>727000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>658000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>664000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>670000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>683000</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2867,8 +2980,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2923,64 +3039,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2823000</v>
+      </c>
+      <c r="E52" s="3">
         <v>2905000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2820000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>3141000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>3007000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>3134000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>3140000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>3470000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>4446000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3243000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>3530000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>3880000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>3402000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>3873000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>4084000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>4211000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>4088000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>4103000</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3035,64 +3157,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>87412000</v>
+      </c>
+      <c r="E54" s="3">
         <v>89664000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>91045000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>93245000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>94903000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>96553000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>98320000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>100579000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>104176000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>106493000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>108949000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>113209000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>114991000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>117085000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>120354000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>117890000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>121136000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>125312000</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3113,8 +3241,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3135,8 +3264,9 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3191,64 +3321,70 @@
       <c r="T57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>6613000</v>
+      </c>
+      <c r="E58" s="3">
         <v>7078000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>7310000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>8452000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>8483000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>7004000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>6785000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>7505000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>5422000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>5007000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>4752000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>5131000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>4771000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>3281000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>3918000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>2160000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>2334000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>2637000</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3303,8 +3439,11 @@
       <c r="T59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3359,64 +3498,70 @@
       <c r="T60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>77332000</v>
+      </c>
+      <c r="E61" s="3">
         <v>79137000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>80260000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>81297000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>81715000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>84769000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>86776000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>88140000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>93519000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>96089000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>98690000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>102797000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>105012000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>108557000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>110778000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>109586000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>112368000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>116540000</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3471,8 +3616,11 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3527,8 +3675,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3583,8 +3734,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3639,64 +3793,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>84979000</v>
+      </c>
+      <c r="E66" s="3">
         <v>87410000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>88930000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>91210000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>91567000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>93313000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>95019000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>97149000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>100657000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>102769000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>105235000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>109572000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>111537000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>113559000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>116814000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>114242000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>117437000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>121602000</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3717,8 +3877,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3773,8 +3934,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3829,8 +3993,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3885,8 +4052,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3941,64 +4111,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>3331000</v>
+      </c>
+      <c r="E72" s="3">
         <v>3175000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>2999000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>2905000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>3664000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>3527000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>3418000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>3303000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>3218000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>3186000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>3114000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>3073000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>3004000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>3130000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2997000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>2930000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>2890000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>2858000</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4053,8 +4229,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4109,8 +4288,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4165,64 +4347,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2433000</v>
+      </c>
+      <c r="E76" s="3">
         <v>2254000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2115000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2035000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3336000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>3240000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>3301000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>3430000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3519000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3724000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3714000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3637000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3454000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>3526000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>3540000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>3648000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>3699000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>3710000</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4277,125 +4465,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>185000</v>
+      </c>
+      <c r="E81" s="3">
         <v>207000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>125000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-106000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>172000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>145000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>153000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>128000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>72000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>114000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>83000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>126000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-84000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>176000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>112000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>88000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>146000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>230000</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4416,8 +4613,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4472,8 +4670,11 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4528,8 +4729,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4584,8 +4788,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4640,8 +4847,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4696,8 +4906,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4752,64 +4965,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>171000</v>
+      </c>
+      <c r="E89" s="3">
         <v>221000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>142000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>453000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>188000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>309000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>334000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>188000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>485000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>173000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>198000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>284000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>244000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>284000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>280000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>350000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>243000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>343000</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4830,8 +5049,9 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4886,8 +5106,11 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4942,8 +5165,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4998,64 +5224,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>1530000</v>
+      </c>
+      <c r="E94" s="3">
         <v>1526000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>2407000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>985000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>1079000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>1525000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>2473000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>2408000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>2161000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>2443000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>3035000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>2721000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>2424000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>3194000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1133000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>3011000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>2913000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>3111000</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5076,13 +5308,14 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-31000</v>
+        <v>-30000</v>
       </c>
       <c r="E96" s="3">
         <v>-31000</v>
@@ -5091,49 +5324,52 @@
         <v>-31000</v>
       </c>
       <c r="G96" s="3">
+        <v>-31000</v>
+      </c>
+      <c r="H96" s="3">
         <v>-35000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-36000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-37000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-39000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-40000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-41000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-43000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-42000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-43000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-42000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-45000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-46000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-47000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-49000</v>
       </c>
     </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5188,8 +5424,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5244,8 +5483,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5300,64 +5542,70 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-2378000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1522000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-2328000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1451000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1746000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-2000000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-2601000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-3638000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-2632000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-2376000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-4022000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1854000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-2411000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-3330000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>649000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-3250000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-3726000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-3008000</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5412,60 +5660,66 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-677000</v>
+      </c>
+      <c r="E102" s="3">
         <v>225000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>221000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-13000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-479000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-166000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>206000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1042000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>14000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>240000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-789000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1151000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>270000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>91000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-207000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>111000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-570000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>446000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NAVI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NAVI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
   <si>
     <t>NAVI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,262 +665,275 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="21" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="22" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>502000</v>
+      </c>
+      <c r="E8" s="3">
         <v>464000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>461000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>402000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>383000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>418000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>435000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>416000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>404000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>425000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>412000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>397000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>438000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>474000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>512000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>462000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>440000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>480000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>509000</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>-53000</v>
+      </c>
+      <c r="E9" s="3">
         <v>-51000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>-54000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>-52000</v>
-      </c>
-      <c r="G9" s="3">
-        <v>-58000</v>
       </c>
       <c r="H9" s="3">
         <v>-58000</v>
       </c>
       <c r="I9" s="3">
-        <v>-60000</v>
+        <v>-58000</v>
       </c>
       <c r="J9" s="3">
         <v>-60000</v>
       </c>
       <c r="K9" s="3">
+        <v>-60000</v>
+      </c>
+      <c r="L9" s="3">
         <v>-62000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>-64000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>-70000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>-71000</v>
-      </c>
-      <c r="O9" s="3">
-        <v>-69000</v>
       </c>
       <c r="P9" s="3">
         <v>-69000</v>
       </c>
       <c r="Q9" s="3">
+        <v>-69000</v>
+      </c>
+      <c r="R9" s="3">
         <v>-75000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>-70000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>-76000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>-74000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>-76000</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>515000</v>
+        <v>555000</v>
       </c>
       <c r="E10" s="3">
         <v>515000</v>
       </c>
       <c r="F10" s="3">
+        <v>515000</v>
+      </c>
+      <c r="G10" s="3">
         <v>454000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>441000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>476000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>495000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>476000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>466000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>489000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>482000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>468000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>507000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>543000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>587000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>532000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>516000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>554000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>585000</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -942,8 +955,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1001,8 +1015,11 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1060,52 +1077,55 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-76000</v>
+      </c>
+      <c r="E14" s="3">
         <v>8000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>18000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>47000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>94000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>9000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>8000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>12000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>8000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>11000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>24000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>8000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>16000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>35000</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>6000</v>
       </c>
       <c r="R14" s="3">
         <v>6000</v>
@@ -1114,13 +1134,16 @@
         <v>6000</v>
       </c>
       <c r="T14" s="3">
+        <v>6000</v>
+      </c>
+      <c r="U14" s="3">
         <v>14000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1178,8 +1201,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1198,126 +1224,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>18000</v>
+      </c>
+      <c r="E17" s="3">
         <v>230000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>202000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>232000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>514000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>199000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>250000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>222000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>240000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>318000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>265000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>284000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>276000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>292000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>243000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>290000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>299000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>238000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>132000</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>484000</v>
+      </c>
+      <c r="E18" s="3">
         <v>234000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>259000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>170000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-131000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>219000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>185000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>194000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>164000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>107000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>147000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>113000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>162000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>182000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>269000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>172000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>141000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>242000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>377000</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1339,8 +1372,9 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1398,8 +1432,11 @@
       <c r="U20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1448,17 +1485,20 @@
       <c r="R21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S21" s="3">
+      <c r="S21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T21" s="3">
         <v>141000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>242000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>377000</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1516,126 +1556,135 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>484000</v>
+      </c>
+      <c r="E23" s="3">
         <v>234000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>259000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>170000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-131000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>219000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>185000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>194000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>164000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>107000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>147000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>113000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>162000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>182000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>269000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>172000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>141000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>242000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>377000</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>114000</v>
+      </c>
+      <c r="E24" s="3">
         <v>49000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>52000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>45000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-25000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>47000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>40000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>41000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>36000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>35000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>54000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>46000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>59000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>474000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>93000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>60000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>53000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>96000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>147000</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1693,126 +1742,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>370000</v>
+      </c>
+      <c r="E26" s="3">
         <v>185000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>207000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>125000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-106000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>172000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>145000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>153000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>128000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>72000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>93000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>67000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>103000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-292000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>176000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>112000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>88000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>146000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>230000</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>370000</v>
+      </c>
+      <c r="E27" s="3">
         <v>185000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>207000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>125000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-106000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>172000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>145000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>153000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>128000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>72000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>93000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>67000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>103000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-292000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>176000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>112000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>88000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>146000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>230000</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1870,8 +1928,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1899,23 +1960,23 @@
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
+      <c r="L29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>21000</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>16000</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>23000</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>208000</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>8</v>
@@ -1923,14 +1984,17 @@
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T29" s="3">
-        <v>0</v>
+      <c r="T29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1988,8 +2052,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2047,8 +2114,11 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2106,67 +2176,73 @@
       <c r="U32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>370000</v>
+      </c>
+      <c r="E33" s="3">
         <v>185000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>207000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>125000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-106000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>172000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>145000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>153000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>128000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>72000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>114000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>83000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>126000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-84000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>176000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>112000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>88000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>146000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>230000</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2224,131 +2300,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>370000</v>
+      </c>
+      <c r="E35" s="3">
         <v>185000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>207000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>125000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-106000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>172000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>145000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>153000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>128000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>72000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>114000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>83000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>126000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-84000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>176000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>112000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>88000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>146000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>230000</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2370,8 +2455,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2393,67 +2479,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1497000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1183000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1775000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1632000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1084000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1233000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1583000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1746000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1206000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1286000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2143000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1622000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2398000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1518000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1248000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1153000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1364000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1253000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1823000</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2511,67 +2601,73 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1990000</v>
+      </c>
+      <c r="E43" s="3">
         <v>2051000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2059000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2096000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1969000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2071000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1985000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2093000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2032000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2094000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2132000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2238000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2078000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2345000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1939000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1930000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1704000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1758000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1652000</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2629,8 +2725,11 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2688,8 +2787,11 @@
       <c r="U45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2747,90 +2849,96 @@
       <c r="U46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>77243000</v>
+      </c>
+      <c r="E47" s="3">
         <v>80102000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>81620000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>83192000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>85681000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>87289000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>88468000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>90021000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>92560000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>95064000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>97556000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>100093000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>103054000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>105932000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>108311000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>111582000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>108989000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>112293000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>115487000</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>113000</v>
+      </c>
+      <c r="E48" s="3">
         <v>116000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>127000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>129000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>132000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>135000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>134000</v>
-      </c>
-      <c r="J48" s="3">
-        <v>136000</v>
       </c>
       <c r="K48" s="3">
         <v>136000</v>
@@ -2839,93 +2947,99 @@
         <v>136000</v>
       </c>
       <c r="M48" s="3">
+        <v>136000</v>
+      </c>
+      <c r="N48" s="3">
         <v>107000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>104000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>150000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>108000</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>152000</v>
       </c>
       <c r="R48" s="3">
         <v>152000</v>
       </c>
       <c r="S48" s="3">
+        <v>152000</v>
+      </c>
+      <c r="T48" s="3">
         <v>157000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>160000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>156000</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>731000</v>
+      </c>
+      <c r="E49" s="3">
         <v>735000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>741000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>746000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>752000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>757000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>763000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>769000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>780000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>786000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>792000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>798000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>802000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>810000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>727000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>658000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>664000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>670000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>683000</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2983,8 +3097,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3042,67 +3159,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>3072000</v>
+      </c>
+      <c r="E52" s="3">
         <v>2823000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2905000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2820000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>3141000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>3007000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>3134000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>3140000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3470000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>4446000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>3243000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>3530000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>3880000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>3402000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>3873000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>4084000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>4211000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>4088000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>4103000</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3160,67 +3283,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>84957000</v>
+      </c>
+      <c r="E54" s="3">
         <v>87412000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>89664000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>91045000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>93245000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>94903000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>96553000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>98320000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>100579000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>104176000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>106493000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>108949000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>113209000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>114991000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>117085000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>120354000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>117890000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>121136000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>125312000</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3242,8 +3371,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3265,8 +3395,9 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3324,67 +3455,73 @@
       <c r="U57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>5684000</v>
+      </c>
+      <c r="E58" s="3">
         <v>6613000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>7078000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>7310000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>8452000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>8483000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>7004000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>6785000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>7505000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>5422000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>5007000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>4752000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>5131000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>4771000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>3281000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>3918000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>2160000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>2334000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>2637000</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3442,8 +3579,11 @@
       <c r="U59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3501,67 +3641,73 @@
       <c r="U60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>75674000</v>
+      </c>
+      <c r="E61" s="3">
         <v>77332000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>79137000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>80260000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>81297000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>81715000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>84769000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>86776000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>88140000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>93519000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>96089000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>98690000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>102797000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>105012000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>108557000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>110778000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>109586000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>112368000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>116540000</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3619,8 +3765,11 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3678,8 +3827,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3737,8 +3889,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3796,67 +3951,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>82234000</v>
+      </c>
+      <c r="E66" s="3">
         <v>84979000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>87410000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>88930000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>91210000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>91567000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>93313000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>95019000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>97149000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>100657000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>102769000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>105235000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>109572000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>111537000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>113559000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>116814000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>114242000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>117437000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>121602000</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3878,8 +4039,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3937,8 +4099,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3996,8 +4161,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4055,8 +4223,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4114,67 +4285,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>3670000</v>
+      </c>
+      <c r="E72" s="3">
         <v>3331000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>3175000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>2999000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>2905000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>3664000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>3527000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>3418000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>3303000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>3218000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>3186000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>3114000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>3073000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>3004000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>3130000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>2997000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>2930000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>2890000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>2858000</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4232,8 +4409,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4291,8 +4471,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4350,67 +4533,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2723000</v>
+      </c>
+      <c r="E76" s="3">
         <v>2433000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2254000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2115000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2035000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>3336000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>3240000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>3301000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3430000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3519000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3724000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3714000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3637000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>3454000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>3526000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>3540000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>3648000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>3699000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>3710000</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4468,131 +4657,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>370000</v>
+      </c>
+      <c r="E81" s="3">
         <v>185000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>207000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>125000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-106000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>172000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>145000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>153000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>128000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>72000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>114000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>83000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>126000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-84000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>176000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>112000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>88000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>146000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>230000</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4614,8 +4812,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4673,8 +4872,11 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4732,8 +4934,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4791,8 +4996,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4850,8 +5058,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4909,8 +5120,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4968,67 +5182,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>179000</v>
+      </c>
+      <c r="E89" s="3">
         <v>171000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>221000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>142000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>453000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>188000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>309000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>334000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>188000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>485000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>173000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>198000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>284000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>244000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>284000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>280000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>350000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>243000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>343000</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5050,8 +5270,9 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5109,8 +5330,11 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5168,8 +5392,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5227,67 +5454,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>2885000</v>
+      </c>
+      <c r="E94" s="3">
         <v>1530000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>1526000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>2407000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>985000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>1079000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>1525000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>2473000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>2408000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>2161000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>2443000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>3035000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>2721000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>2424000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>3194000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1133000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>3011000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>2913000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>3111000</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5309,16 +5542,17 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-29000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-30000</v>
-      </c>
-      <c r="E96" s="3">
-        <v>-31000</v>
       </c>
       <c r="F96" s="3">
         <v>-31000</v>
@@ -5327,49 +5561,52 @@
         <v>-31000</v>
       </c>
       <c r="H96" s="3">
+        <v>-31000</v>
+      </c>
+      <c r="I96" s="3">
         <v>-35000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-36000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-37000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-39000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-40000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-41000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-43000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-42000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-43000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-42000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-45000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-46000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-47000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-49000</v>
       </c>
     </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5427,8 +5664,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5486,8 +5726,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5545,67 +5788,73 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-2499000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-2378000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1522000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-2328000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1451000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1746000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-2000000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-2601000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-3638000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-2632000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-2376000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-4022000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1854000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-2411000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-3330000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>649000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-3250000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-3726000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-3008000</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5663,63 +5912,69 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>565000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-677000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>225000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>221000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-13000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-479000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-166000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>206000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1042000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>14000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>240000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-789000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1151000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>270000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>91000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-207000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>111000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-570000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>446000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NAVI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NAVI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="92">
   <si>
     <t>NAVI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,275 +665,288 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="22" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="23" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>464000</v>
+      </c>
+      <c r="E8" s="3">
         <v>502000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>464000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>461000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>402000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>383000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>418000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>435000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>416000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>404000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>425000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>412000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>397000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>438000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>474000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>512000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>462000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>440000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>480000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>509000</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>-50000</v>
+      </c>
+      <c r="E9" s="3">
         <v>-53000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>-51000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>-54000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>-52000</v>
-      </c>
-      <c r="H9" s="3">
-        <v>-58000</v>
       </c>
       <c r="I9" s="3">
         <v>-58000</v>
       </c>
       <c r="J9" s="3">
-        <v>-60000</v>
+        <v>-58000</v>
       </c>
       <c r="K9" s="3">
         <v>-60000</v>
       </c>
       <c r="L9" s="3">
+        <v>-60000</v>
+      </c>
+      <c r="M9" s="3">
         <v>-62000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>-64000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>-70000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>-71000</v>
-      </c>
-      <c r="P9" s="3">
-        <v>-69000</v>
       </c>
       <c r="Q9" s="3">
         <v>-69000</v>
       </c>
       <c r="R9" s="3">
+        <v>-69000</v>
+      </c>
+      <c r="S9" s="3">
         <v>-75000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>-70000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>-76000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>-74000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>-76000</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>514000</v>
+      </c>
+      <c r="E10" s="3">
         <v>555000</v>
-      </c>
-      <c r="E10" s="3">
-        <v>515000</v>
       </c>
       <c r="F10" s="3">
         <v>515000</v>
       </c>
       <c r="G10" s="3">
+        <v>515000</v>
+      </c>
+      <c r="H10" s="3">
         <v>454000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>441000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>476000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>495000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>476000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>466000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>489000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>482000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>468000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>507000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>543000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>587000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>532000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>516000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>554000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>585000</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -956,8 +969,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1018,8 +1032,11 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1080,55 +1097,58 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E14" s="3">
         <v>-76000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>8000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>18000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>47000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>94000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>9000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>8000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>12000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>8000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>11000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>24000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>8000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>16000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>35000</v>
-      </c>
-      <c r="R14" s="3">
-        <v>6000</v>
       </c>
       <c r="S14" s="3">
         <v>6000</v>
@@ -1137,13 +1157,16 @@
         <v>6000</v>
       </c>
       <c r="U14" s="3">
+        <v>6000</v>
+      </c>
+      <c r="V14" s="3">
         <v>14000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1204,8 +1227,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1225,132 +1251,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>224000</v>
+      </c>
+      <c r="E17" s="3">
         <v>18000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>230000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>202000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>232000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>514000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>199000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>250000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>222000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>240000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>318000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>265000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>284000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>276000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>292000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>243000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>290000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>299000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>238000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>132000</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>240000</v>
+      </c>
+      <c r="E18" s="3">
         <v>484000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>234000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>259000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>170000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-131000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>219000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>185000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>194000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>164000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>107000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>147000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>113000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>162000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>182000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>269000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>172000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>141000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>242000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>377000</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1373,8 +1406,9 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1435,8 +1469,11 @@
       <c r="V20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1488,17 +1525,20 @@
       <c r="S21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T21" s="3">
+      <c r="T21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U21" s="3">
         <v>141000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>242000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>377000</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1559,132 +1599,141 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>240000</v>
+      </c>
+      <c r="E23" s="3">
         <v>484000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>234000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>259000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>170000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-131000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>219000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>185000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>194000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>164000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>107000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>147000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>113000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>162000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>182000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>269000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>172000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>141000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>242000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>377000</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>55000</v>
+      </c>
+      <c r="E24" s="3">
         <v>114000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>49000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>52000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>45000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-25000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>47000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>40000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>41000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>36000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>35000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>54000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>46000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>59000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>474000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>93000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>60000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>53000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>96000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>147000</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1745,132 +1794,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>185000</v>
+      </c>
+      <c r="E26" s="3">
         <v>370000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>185000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>207000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>125000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-106000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>172000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>145000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>153000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>128000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>72000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>93000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>67000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>103000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-292000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>176000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>112000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>88000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>146000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>230000</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>185000</v>
+      </c>
+      <c r="E27" s="3">
         <v>370000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>185000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>207000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>125000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-106000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>172000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>145000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>153000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>128000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>72000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>93000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>67000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>103000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-292000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>176000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>112000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>88000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>146000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>230000</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1931,8 +1989,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1963,23 +2024,23 @@
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
+      <c r="M29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>21000</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>16000</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>23000</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>208000</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
@@ -1987,14 +2048,17 @@
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U29" s="3">
-        <v>0</v>
+      <c r="U29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2055,8 +2119,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2117,8 +2184,11 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2179,70 +2249,76 @@
       <c r="V32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>185000</v>
+      </c>
+      <c r="E33" s="3">
         <v>370000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>185000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>207000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>125000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-106000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>172000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>145000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>153000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>128000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>72000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>114000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>83000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>126000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-84000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>176000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>112000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>88000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>146000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>230000</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2303,137 +2379,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>185000</v>
+      </c>
+      <c r="E35" s="3">
         <v>370000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>185000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>207000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>125000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-106000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>172000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>145000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>153000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>128000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>72000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>114000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>83000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>126000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-84000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>176000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>112000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>88000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>146000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>230000</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2456,8 +2541,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2480,70 +2566,74 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1453000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1497000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1183000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1775000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1632000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1084000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1233000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1583000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1746000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1206000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1286000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2143000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1622000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2398000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1518000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1248000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1153000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1364000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1253000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1823000</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2604,70 +2694,76 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2018000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1990000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2051000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2059000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2096000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1969000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2071000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1985000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2093000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2032000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2094000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2132000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2238000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2078000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2345000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1939000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1930000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1704000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1758000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1652000</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2728,8 +2824,11 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2790,8 +2889,11 @@
       <c r="V45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2852,70 +2954,76 @@
       <c r="V46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>75946000</v>
+      </c>
+      <c r="E47" s="3">
         <v>77243000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>80102000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>81620000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>83192000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>85681000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>87289000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>88468000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>90021000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>92560000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>95064000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>97556000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>100093000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>103054000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>105932000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>108311000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>111582000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>108989000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>112293000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>115487000</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2923,25 +3031,25 @@
         <v>113000</v>
       </c>
       <c r="E48" s="3">
+        <v>113000</v>
+      </c>
+      <c r="F48" s="3">
         <v>116000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>127000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>129000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>132000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>135000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>134000</v>
-      </c>
-      <c r="K48" s="3">
-        <v>136000</v>
       </c>
       <c r="L48" s="3">
         <v>136000</v>
@@ -2950,96 +3058,102 @@
         <v>136000</v>
       </c>
       <c r="N48" s="3">
+        <v>136000</v>
+      </c>
+      <c r="O48" s="3">
         <v>107000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>104000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>150000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>108000</v>
-      </c>
-      <c r="R48" s="3">
-        <v>152000</v>
       </c>
       <c r="S48" s="3">
         <v>152000</v>
       </c>
       <c r="T48" s="3">
+        <v>152000</v>
+      </c>
+      <c r="U48" s="3">
         <v>157000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>160000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>156000</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>726000</v>
+      </c>
+      <c r="E49" s="3">
         <v>731000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>735000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>741000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>746000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>752000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>757000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>763000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>769000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>780000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>786000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>792000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>798000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>802000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>810000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>727000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>658000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>664000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>670000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>683000</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3100,8 +3214,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3162,70 +3279,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2776000</v>
+      </c>
+      <c r="E52" s="3">
         <v>3072000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2823000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2905000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2820000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>3141000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>3007000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>3134000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3140000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3470000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>4446000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>3243000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>3530000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>3880000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>3402000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>3873000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>4084000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>4211000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>4088000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>4103000</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3286,70 +3409,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>83348000</v>
+      </c>
+      <c r="E54" s="3">
         <v>84957000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>87412000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>89664000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>91045000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>93245000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>94903000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>96553000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>98320000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>100579000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>104176000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>106493000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>108949000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>113209000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>114991000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>117085000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>120354000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>117890000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>121136000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>125312000</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3372,8 +3501,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3396,8 +3526,9 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3458,70 +3589,76 @@
       <c r="V57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>4068000</v>
+      </c>
+      <c r="E58" s="3">
         <v>5684000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>6613000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>7078000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>7310000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>8452000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>8483000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>7004000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>6785000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>7505000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>5422000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>5007000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>4752000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>5131000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>4771000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>3281000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>3918000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>2160000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>2334000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>2637000</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3582,8 +3719,11 @@
       <c r="V59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3644,70 +3784,76 @@
       <c r="V60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>75814000</v>
+      </c>
+      <c r="E61" s="3">
         <v>75674000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>77332000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>79137000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>80260000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>81297000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>81715000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>84769000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>86776000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>88140000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>93519000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>96089000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>98690000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>102797000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>105012000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>108557000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>110778000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>109586000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>112368000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>116540000</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3768,8 +3914,11 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3830,8 +3979,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3892,8 +4044,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3954,70 +4109,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>80647000</v>
+      </c>
+      <c r="E66" s="3">
         <v>82234000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>84979000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>87410000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>88930000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>91210000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>91567000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>93313000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>95019000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>97149000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>100657000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>102769000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>105235000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>109572000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>111537000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>113559000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>116814000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>114242000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>117437000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>121602000</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4040,8 +4201,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4102,8 +4264,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4164,8 +4329,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4226,8 +4394,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4288,70 +4459,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>3828000</v>
+      </c>
+      <c r="E72" s="3">
         <v>3670000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>3331000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>3175000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>2999000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>2905000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>3664000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>3527000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>3418000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>3303000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>3218000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>3186000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>3114000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>3073000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>3004000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>3130000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>2997000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>2930000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>2890000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>2858000</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4412,8 +4589,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4474,8 +4654,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4536,70 +4719,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2701000</v>
+      </c>
+      <c r="E76" s="3">
         <v>2723000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2433000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2254000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2115000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2035000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>3336000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>3240000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3301000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3430000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3519000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3724000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3714000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>3637000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>3454000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>3526000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>3540000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>3648000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>3699000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>3710000</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4660,137 +4849,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>185000</v>
+      </c>
+      <c r="E81" s="3">
         <v>370000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>185000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>207000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>125000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-106000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>172000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>145000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>153000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>128000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>72000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>114000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>83000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>126000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-84000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>176000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>112000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>88000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>146000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>230000</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4813,8 +5011,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4875,8 +5074,11 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4937,8 +5139,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4999,8 +5204,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5061,8 +5269,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5123,8 +5334,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5185,70 +5399,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>154000</v>
+      </c>
+      <c r="E89" s="3">
         <v>179000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>171000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>221000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>142000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>453000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>188000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>309000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>334000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>188000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>485000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>173000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>198000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>284000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>244000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>284000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>280000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>350000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>243000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>343000</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5271,8 +5491,9 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5333,8 +5554,11 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5395,8 +5619,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5457,70 +5684,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>1334000</v>
+      </c>
+      <c r="E94" s="3">
         <v>2885000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>1530000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>1526000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>2407000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>985000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>1079000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>1525000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>2473000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>2408000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>2161000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>2443000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>3035000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>2721000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>2424000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>3194000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1133000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>3011000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>2913000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>3111000</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5543,19 +5776,20 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-27000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-29000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-30000</v>
-      </c>
-      <c r="F96" s="3">
-        <v>-31000</v>
       </c>
       <c r="G96" s="3">
         <v>-31000</v>
@@ -5564,49 +5798,52 @@
         <v>-31000</v>
       </c>
       <c r="I96" s="3">
+        <v>-31000</v>
+      </c>
+      <c r="J96" s="3">
         <v>-35000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-36000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-37000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-39000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-40000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-41000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-43000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-42000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-43000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-42000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-45000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-46000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-47000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-49000</v>
       </c>
     </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5667,8 +5904,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5729,8 +5969,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5791,70 +6034,76 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1828000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-2499000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-2378000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1522000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-2328000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1451000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1746000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-2000000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-2601000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-3638000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-2632000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-2376000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-4022000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1854000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-2411000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-3330000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>649000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-3250000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-3726000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-3008000</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5915,66 +6164,72 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-340000</v>
+      </c>
+      <c r="E102" s="3">
         <v>565000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-677000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>225000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>221000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-13000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-479000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-166000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>206000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1042000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>14000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>240000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-789000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1151000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>270000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>91000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-207000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>111000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-570000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>446000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NAVI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NAVI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="92">
   <si>
     <t>NAVI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,288 +665,301 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="23" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="24" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>469000</v>
+      </c>
+      <c r="E8" s="3">
         <v>464000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>502000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>464000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>461000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>402000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>383000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>418000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>435000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>416000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>404000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>425000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>412000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>397000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>438000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>474000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>512000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>462000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>440000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>480000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>509000</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>-47000</v>
+      </c>
+      <c r="E9" s="3">
         <v>-50000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>-53000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>-51000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>-54000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>-52000</v>
-      </c>
-      <c r="I9" s="3">
-        <v>-58000</v>
       </c>
       <c r="J9" s="3">
         <v>-58000</v>
       </c>
       <c r="K9" s="3">
-        <v>-60000</v>
+        <v>-58000</v>
       </c>
       <c r="L9" s="3">
         <v>-60000</v>
       </c>
       <c r="M9" s="3">
+        <v>-60000</v>
+      </c>
+      <c r="N9" s="3">
         <v>-62000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>-64000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>-70000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>-71000</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>-69000</v>
       </c>
       <c r="R9" s="3">
         <v>-69000</v>
       </c>
       <c r="S9" s="3">
+        <v>-69000</v>
+      </c>
+      <c r="T9" s="3">
         <v>-75000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>-70000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>-76000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>-74000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>-76000</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>516000</v>
+      </c>
+      <c r="E10" s="3">
         <v>514000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>555000</v>
-      </c>
-      <c r="F10" s="3">
-        <v>515000</v>
       </c>
       <c r="G10" s="3">
         <v>515000</v>
       </c>
       <c r="H10" s="3">
+        <v>515000</v>
+      </c>
+      <c r="I10" s="3">
         <v>454000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>441000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>476000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>495000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>476000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>466000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>489000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>482000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>468000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>507000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>543000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>587000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>532000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>516000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>554000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>585000</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -970,8 +983,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1035,8 +1049,11 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1100,58 +1117,61 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="E14" s="3">
-        <v>-76000</v>
+        <v>7000</v>
       </c>
       <c r="F14" s="3">
+        <v>11000</v>
+      </c>
+      <c r="G14" s="3">
         <v>8000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>18000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>47000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>94000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>9000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>8000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>12000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>8000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>11000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>24000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>8000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>16000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>35000</v>
-      </c>
-      <c r="S14" s="3">
-        <v>6000</v>
       </c>
       <c r="T14" s="3">
         <v>6000</v>
@@ -1160,13 +1180,16 @@
         <v>6000</v>
       </c>
       <c r="V14" s="3">
+        <v>6000</v>
+      </c>
+      <c r="W14" s="3">
         <v>14000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1230,8 +1253,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1252,138 +1278,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>249000</v>
+      </c>
+      <c r="E17" s="3">
         <v>224000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>18000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>230000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>202000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>232000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>514000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>199000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>250000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>222000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>240000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>318000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>265000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>284000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>276000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>292000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>243000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>290000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>299000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>238000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>132000</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>220000</v>
+      </c>
+      <c r="E18" s="3">
         <v>240000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>484000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>234000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>259000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>170000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-131000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>219000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>185000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>194000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>164000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>107000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>147000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>113000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>162000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>182000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>269000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>172000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>141000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>242000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>377000</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1407,8 +1440,9 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1472,8 +1506,11 @@
       <c r="W20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1528,17 +1565,20 @@
       <c r="T21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U21" s="3">
+      <c r="U21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V21" s="3">
         <v>141000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>242000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>377000</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1602,138 +1642,147 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>220000</v>
+      </c>
+      <c r="E23" s="3">
         <v>240000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>484000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>234000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>259000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>170000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-131000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>219000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>185000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>194000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>164000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>107000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>147000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>113000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>162000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>182000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>269000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>172000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>141000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>242000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>377000</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>47000</v>
+      </c>
+      <c r="E24" s="3">
         <v>55000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>114000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>49000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>52000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>45000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-25000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>47000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>40000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>41000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>36000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>35000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>54000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>46000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>59000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>474000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>93000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>60000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>53000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>96000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>147000</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1797,138 +1846,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>173000</v>
+      </c>
+      <c r="E26" s="3">
         <v>185000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>370000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>185000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>207000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>125000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-106000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>172000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>145000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>153000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>128000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>72000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>93000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>67000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>103000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-292000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>176000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>112000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>88000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>146000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>230000</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>173000</v>
+      </c>
+      <c r="E27" s="3">
         <v>185000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>370000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>185000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>207000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>125000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-106000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>172000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>145000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>153000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>128000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>72000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>93000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>67000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>103000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-292000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>176000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>112000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>88000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>146000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>230000</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1992,8 +2050,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2027,23 +2088,23 @@
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
+      <c r="N29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
         <v>21000</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>16000</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>23000</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>208000</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>8</v>
@@ -2051,14 +2112,17 @@
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V29" s="3">
-        <v>0</v>
+      <c r="V29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2122,8 +2186,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2187,8 +2254,11 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2252,73 +2322,79 @@
       <c r="W32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>173000</v>
+      </c>
+      <c r="E33" s="3">
         <v>185000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>370000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>185000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>207000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>125000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-106000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>172000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>145000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>153000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>128000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>72000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>114000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>83000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>126000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-84000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>176000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>112000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>88000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>146000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>230000</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2382,143 +2458,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>173000</v>
+      </c>
+      <c r="E35" s="3">
         <v>185000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>370000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>185000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>207000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>125000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-106000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>172000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>145000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>153000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>128000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>72000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>114000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>83000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>126000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-84000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>176000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>112000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>88000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>146000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>230000</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2542,8 +2627,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2567,73 +2653,77 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1050000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1453000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1497000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1183000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1775000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1632000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1084000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1233000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1583000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1746000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1206000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1286000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2143000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1622000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2398000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1518000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1248000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1153000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1364000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1253000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1823000</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2697,73 +2787,79 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2029000</v>
+      </c>
+      <c r="E43" s="3">
         <v>2018000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1990000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2051000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2059000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2096000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1969000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2071000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1985000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2093000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2032000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2094000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2132000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2238000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2078000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2345000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1939000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1930000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1704000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1758000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1652000</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2827,8 +2923,11 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2892,8 +2991,11 @@
       <c r="W45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2957,102 +3059,108 @@
       <c r="W46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>75009000</v>
+      </c>
+      <c r="E47" s="3">
         <v>75946000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>77243000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>80102000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>81620000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>83192000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>85681000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>87289000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>88468000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>90021000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>92560000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>95064000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>97556000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>100093000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>103054000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>105932000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>108311000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>111582000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>108989000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>112293000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>115487000</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>113000</v>
+        <v>114000</v>
       </c>
       <c r="E48" s="3">
         <v>113000</v>
       </c>
       <c r="F48" s="3">
+        <v>113000</v>
+      </c>
+      <c r="G48" s="3">
         <v>116000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>127000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>129000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>132000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>135000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>134000</v>
-      </c>
-      <c r="L48" s="3">
-        <v>136000</v>
       </c>
       <c r="M48" s="3">
         <v>136000</v>
@@ -3061,99 +3169,105 @@
         <v>136000</v>
       </c>
       <c r="O48" s="3">
+        <v>136000</v>
+      </c>
+      <c r="P48" s="3">
         <v>107000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>104000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>150000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>108000</v>
-      </c>
-      <c r="S48" s="3">
-        <v>152000</v>
       </c>
       <c r="T48" s="3">
         <v>152000</v>
       </c>
       <c r="U48" s="3">
+        <v>152000</v>
+      </c>
+      <c r="V48" s="3">
         <v>157000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>160000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>156000</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>721000</v>
+      </c>
+      <c r="E49" s="3">
         <v>726000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>731000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>735000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>741000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>746000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>752000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>757000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>763000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>769000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>780000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>786000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>792000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>798000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>802000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>810000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>727000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>658000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>664000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>670000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>683000</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3217,8 +3331,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3282,73 +3399,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2721000</v>
+      </c>
+      <c r="E52" s="3">
         <v>2776000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>3072000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2823000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2905000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>2820000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>3141000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>3007000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3134000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3140000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>3470000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>4446000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>3243000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>3530000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>3880000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>3402000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>3873000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>4084000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>4211000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>4088000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>4103000</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3412,73 +3535,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>81939000</v>
+      </c>
+      <c r="E54" s="3">
         <v>83348000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>84957000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>87412000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>89664000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>91045000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>93245000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>94903000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>96553000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>98320000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>100579000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>104176000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>106493000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>108949000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>113209000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>114991000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>117085000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>120354000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>117890000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>121136000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>125312000</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3502,8 +3631,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3527,8 +3657,9 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3592,73 +3723,79 @@
       <c r="W57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2781000</v>
+      </c>
+      <c r="E58" s="3">
         <v>4068000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>5684000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>6613000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>7078000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>7310000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>8452000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>8483000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>7004000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>6785000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>7505000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>5422000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>5007000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>4752000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>5131000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>4771000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>3281000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>3918000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>2160000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>2334000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>2637000</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3722,8 +3859,11 @@
       <c r="W59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3787,73 +3927,79 @@
       <c r="W60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>75629000</v>
+      </c>
+      <c r="E61" s="3">
         <v>75814000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>75674000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>77332000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>79137000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>80260000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>81297000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>81715000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>84769000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>86776000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>88140000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>93519000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>96089000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>98690000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>102797000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>105012000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>108557000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>110778000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>109586000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>112368000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>116540000</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3917,8 +4063,11 @@
       <c r="W62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3982,8 +4131,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4047,8 +4199,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4112,73 +4267,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>79216000</v>
+      </c>
+      <c r="E66" s="3">
         <v>80647000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>82234000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>84979000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>87410000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>88930000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>91210000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>91567000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>93313000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>95019000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>97149000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>100657000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>102769000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>105235000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>109572000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>111537000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>113559000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>116814000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>114242000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>117437000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>121602000</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4202,8 +4363,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4267,8 +4429,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4332,8 +4497,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4397,8 +4565,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4462,73 +4633,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>3975000</v>
+      </c>
+      <c r="E72" s="3">
         <v>3828000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>3670000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>3331000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>3175000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>2999000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>2905000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>3664000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>3527000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>3418000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>3303000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>3218000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>3186000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>3114000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>3073000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>3004000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>3130000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>2997000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>2930000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>2890000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>2858000</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4592,8 +4769,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4657,8 +4837,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4722,73 +4905,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2723000</v>
+      </c>
+      <c r="E76" s="3">
         <v>2701000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2723000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2433000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2254000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2115000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2035000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>3336000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3240000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3301000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3430000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3519000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3724000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>3714000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>3637000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>3454000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>3526000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>3540000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>3648000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>3699000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>3710000</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4852,143 +5041,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>173000</v>
+      </c>
+      <c r="E81" s="3">
         <v>185000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>370000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>185000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>207000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>125000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-106000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>172000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>145000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>153000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>128000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>72000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>114000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>83000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>126000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-84000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>176000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>112000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>88000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>146000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>230000</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5012,8 +5210,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5077,8 +5276,11 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5142,8 +5344,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5207,8 +5412,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5272,8 +5480,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5337,8 +5548,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5402,73 +5616,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>201000</v>
+      </c>
+      <c r="E89" s="3">
         <v>154000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>179000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>171000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>221000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>142000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>453000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>188000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>309000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>334000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>188000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>485000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>173000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>198000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>284000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>244000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>284000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>280000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>350000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>243000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>343000</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5492,8 +5712,9 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5557,8 +5778,11 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5622,8 +5846,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5687,73 +5914,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>894000</v>
+      </c>
+      <c r="E94" s="3">
         <v>1334000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>2885000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>1530000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>1526000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>2407000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>985000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>1079000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>1525000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>2473000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>2408000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>2161000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>2443000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>3035000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>2721000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>2424000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>3194000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1133000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>3011000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>2913000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>3111000</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5777,22 +6010,23 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-26000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-27000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-29000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-30000</v>
-      </c>
-      <c r="G96" s="3">
-        <v>-31000</v>
       </c>
       <c r="H96" s="3">
         <v>-31000</v>
@@ -5801,49 +6035,52 @@
         <v>-31000</v>
       </c>
       <c r="J96" s="3">
+        <v>-31000</v>
+      </c>
+      <c r="K96" s="3">
         <v>-35000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-36000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-37000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-39000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-40000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-41000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-43000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-42000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-43000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-42000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-45000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-46000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-47000</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-49000</v>
       </c>
     </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5907,8 +6144,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5972,8 +6212,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6037,73 +6280,79 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1546000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1828000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-2499000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-2378000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1522000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-2328000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1451000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1746000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-2000000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-2601000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-3638000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-2632000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-2376000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-4022000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1854000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-2411000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-3330000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>649000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-3250000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-3726000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-3008000</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6167,69 +6416,75 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-451000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-340000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>565000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-677000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>225000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>221000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-13000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-479000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-166000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>206000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1042000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>14000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>240000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-789000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1151000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>270000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>91000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-207000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>111000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-570000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>446000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NAVI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NAVI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="92">
   <si>
     <t>NAVI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,301 +665,313 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="24" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="25" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>437000</v>
+      </c>
+      <c r="E8" s="3">
         <v>469000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>464000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>502000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>464000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>461000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>402000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>383000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>418000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>435000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>416000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>404000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>425000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>412000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>397000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>438000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>474000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>512000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>462000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>440000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>480000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>509000</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>-19000</v>
+      </c>
+      <c r="E9" s="3">
         <v>-47000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>-50000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>-53000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>-51000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>-54000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>-52000</v>
-      </c>
-      <c r="J9" s="3">
-        <v>-58000</v>
       </c>
       <c r="K9" s="3">
         <v>-58000</v>
       </c>
       <c r="L9" s="3">
-        <v>-60000</v>
+        <v>-58000</v>
       </c>
       <c r="M9" s="3">
         <v>-60000</v>
       </c>
       <c r="N9" s="3">
+        <v>-60000</v>
+      </c>
+      <c r="O9" s="3">
         <v>-62000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>-64000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>-70000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>-71000</v>
-      </c>
-      <c r="R9" s="3">
-        <v>-69000</v>
       </c>
       <c r="S9" s="3">
         <v>-69000</v>
       </c>
       <c r="T9" s="3">
+        <v>-69000</v>
+      </c>
+      <c r="U9" s="3">
         <v>-75000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>-70000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>-76000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>-74000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>-76000</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>456000</v>
+      </c>
+      <c r="E10" s="3">
         <v>516000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>514000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>555000</v>
-      </c>
-      <c r="G10" s="3">
-        <v>515000</v>
       </c>
       <c r="H10" s="3">
         <v>515000</v>
       </c>
       <c r="I10" s="3">
+        <v>515000</v>
+      </c>
+      <c r="J10" s="3">
         <v>454000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>441000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>476000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>495000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>476000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>466000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>489000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>482000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>468000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>507000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>543000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>587000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>532000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>516000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>554000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>585000</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -984,8 +996,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1052,8 +1065,11 @@
       <c r="X12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1120,61 +1136,64 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>4000</v>
+        <v>67000</v>
       </c>
       <c r="E14" s="3">
-        <v>7000</v>
+        <v>24000</v>
       </c>
       <c r="F14" s="3">
+        <v>19000</v>
+      </c>
+      <c r="G14" s="3">
         <v>11000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>8000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>18000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>47000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>94000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>9000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>8000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>12000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>8000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>11000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>24000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>8000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>16000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>35000</v>
-      </c>
-      <c r="T14" s="3">
-        <v>6000</v>
       </c>
       <c r="U14" s="3">
         <v>6000</v>
@@ -1183,13 +1202,16 @@
         <v>6000</v>
       </c>
       <c r="W14" s="3">
+        <v>6000</v>
+      </c>
+      <c r="X14" s="3">
         <v>14000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1256,8 +1278,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1279,144 +1304,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>446000</v>
+      </c>
+      <c r="E17" s="3">
         <v>249000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>224000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>18000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>230000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>202000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>232000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>514000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>199000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>250000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>222000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>240000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>318000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>265000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>284000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>276000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>292000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>243000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>290000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>299000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>238000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>132000</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="E18" s="3">
         <v>220000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>240000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>484000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>234000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>259000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>170000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-131000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>219000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>185000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>194000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>164000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>107000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>147000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>113000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>162000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>182000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>269000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>172000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>141000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>242000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>377000</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1441,8 +1473,9 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1509,8 +1542,11 @@
       <c r="X20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1568,17 +1604,20 @@
       <c r="U21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V21" s="3">
+      <c r="V21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W21" s="3">
         <v>141000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>242000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>377000</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1645,144 +1684,153 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="E23" s="3">
         <v>220000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>240000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>484000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>234000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>259000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>170000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-131000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>219000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>185000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>194000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>164000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>107000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>147000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>113000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>162000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>182000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>269000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>172000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>141000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>242000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>377000</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E24" s="3">
         <v>47000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>55000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>114000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>49000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>52000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>45000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-25000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>47000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>40000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>41000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>36000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>35000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>54000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>46000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>59000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>474000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>93000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>60000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>53000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>96000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>147000</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1849,144 +1897,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="E26" s="3">
         <v>173000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>185000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>370000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>185000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>207000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>125000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-106000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>172000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>145000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>153000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>128000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>72000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>93000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>67000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>103000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-292000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>176000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>112000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>88000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>146000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>230000</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="E27" s="3">
         <v>173000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>185000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>370000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>185000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>207000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>125000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-106000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>172000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>145000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>153000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>128000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>72000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>93000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>67000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>103000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-292000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>176000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>112000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>88000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>146000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>230000</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2053,31 +2110,34 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
@@ -2091,23 +2151,23 @@
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
+      <c r="O29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
         <v>21000</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>16000</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>23000</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>208000</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>8</v>
@@ -2115,14 +2175,17 @@
       <c r="V29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W29" s="3">
-        <v>0</v>
+      <c r="W29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2189,8 +2252,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2257,8 +2323,11 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2325,76 +2394,82 @@
       <c r="X32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="E33" s="3">
         <v>173000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>185000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>370000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>185000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>207000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>125000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-106000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>172000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>145000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>153000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>128000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>72000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>114000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>83000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>126000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-84000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>176000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>112000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>88000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>146000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>230000</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2461,149 +2536,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="E35" s="3">
         <v>173000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>185000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>370000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>185000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>207000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>125000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-106000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>172000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>145000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>153000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>128000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>72000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>114000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>83000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>126000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-84000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>176000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>112000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>88000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>146000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>230000</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2628,8 +2712,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2654,76 +2739,80 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>905000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1050000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1453000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1497000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1183000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1775000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1632000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1084000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1233000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1583000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1746000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1206000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1286000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2143000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1622000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2398000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1518000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1248000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1153000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1364000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1253000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1823000</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2790,76 +2879,82 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2040000</v>
+      </c>
+      <c r="E43" s="3">
         <v>2029000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2018000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1990000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2051000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2059000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2096000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1969000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2071000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1985000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2093000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2032000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2094000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2132000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2238000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2078000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>2345000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1939000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1930000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1704000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1758000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1652000</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2926,8 +3021,11 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2994,8 +3092,11 @@
       <c r="X45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3062,108 +3163,114 @@
       <c r="X46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>73448000</v>
+      </c>
+      <c r="E47" s="3">
         <v>75009000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>75946000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>77243000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>80102000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>81620000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>83192000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>85681000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>87289000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>88468000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>90021000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>92560000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>95064000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>97556000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>100093000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>103054000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>105932000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>108311000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>111582000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>108989000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>112293000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>115487000</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>95000</v>
+      </c>
+      <c r="E48" s="3">
         <v>114000</v>
-      </c>
-      <c r="E48" s="3">
-        <v>113000</v>
       </c>
       <c r="F48" s="3">
         <v>113000</v>
       </c>
       <c r="G48" s="3">
+        <v>113000</v>
+      </c>
+      <c r="H48" s="3">
         <v>116000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>127000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>129000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>132000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>135000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>134000</v>
-      </c>
-      <c r="M48" s="3">
-        <v>136000</v>
       </c>
       <c r="N48" s="3">
         <v>136000</v>
@@ -3172,102 +3279,108 @@
         <v>136000</v>
       </c>
       <c r="P48" s="3">
+        <v>136000</v>
+      </c>
+      <c r="Q48" s="3">
         <v>107000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>104000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>150000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>108000</v>
-      </c>
-      <c r="T48" s="3">
-        <v>152000</v>
       </c>
       <c r="U48" s="3">
         <v>152000</v>
       </c>
       <c r="V48" s="3">
+        <v>152000</v>
+      </c>
+      <c r="W48" s="3">
         <v>157000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>160000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>156000</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>725000</v>
+      </c>
+      <c r="E49" s="3">
         <v>721000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>726000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>731000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>735000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>741000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>746000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>752000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>757000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>763000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>769000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>780000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>786000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>792000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>798000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>802000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>810000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>727000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>658000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>664000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>670000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>683000</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3334,8 +3447,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3402,76 +3518,82 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>3135000</v>
+      </c>
+      <c r="E52" s="3">
         <v>2721000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2776000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>3072000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2823000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>2905000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>2820000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>3141000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3007000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3134000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>3140000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>3470000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>4446000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>3243000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>3530000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>3880000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>3402000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>3873000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>4084000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>4211000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>4088000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>4103000</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3538,76 +3660,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>80605000</v>
+      </c>
+      <c r="E54" s="3">
         <v>81939000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>83348000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>84957000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>87412000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>89664000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>91045000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>93245000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>94903000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>96553000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>98320000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>100579000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>104176000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>106493000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>108949000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>113209000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>114991000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>117085000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>120354000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>117890000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>121136000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>125312000</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3632,8 +3760,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3658,8 +3787,9 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3726,76 +3856,82 @@
       <c r="X57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2490000</v>
+      </c>
+      <c r="E58" s="3">
         <v>2781000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>4068000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>5684000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>6613000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>7078000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>7310000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>8452000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>8483000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>7004000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>6785000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>7505000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>5422000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>5007000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>4752000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>5131000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>4771000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>3281000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>3918000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>2160000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>2334000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>2637000</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3862,8 +3998,11 @@
       <c r="X59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3930,76 +4069,82 @@
       <c r="X60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>74488000</v>
+      </c>
+      <c r="E61" s="3">
         <v>75629000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>75814000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>75674000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>77332000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>79137000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>80260000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>81297000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>81715000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>84769000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>86776000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>88140000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>93519000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>96089000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>98690000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>102797000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>105012000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>108557000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>110778000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>109586000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>112368000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>116540000</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4066,8 +4211,11 @@
       <c r="X62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4134,8 +4282,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4202,8 +4353,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4270,76 +4424,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>78008000</v>
+      </c>
+      <c r="E66" s="3">
         <v>79216000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>80647000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>82234000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>84979000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>87410000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>88930000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>91210000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>91567000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>93313000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>95019000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>97149000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>100657000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>102769000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>105235000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>109572000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>111537000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>113559000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>116814000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>114242000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>117437000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>121602000</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4364,8 +4524,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4432,8 +4593,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4500,8 +4664,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4568,8 +4735,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4636,76 +4806,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>3939000</v>
+      </c>
+      <c r="E72" s="3">
         <v>3975000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>3828000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>3670000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>3331000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>3175000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>2999000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>2905000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>3664000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>3527000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>3418000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>3303000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>3218000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>3186000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>3114000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>3073000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>3004000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>3130000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>2997000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>2930000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>2890000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>2858000</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4772,8 +4948,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4840,8 +5019,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4908,76 +5090,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2597000</v>
+      </c>
+      <c r="E76" s="3">
         <v>2723000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2701000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2723000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2433000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2254000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2115000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2035000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3336000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3240000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3301000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3430000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3519000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>3724000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>3714000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>3637000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>3454000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>3526000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>3540000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>3648000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>3699000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>3710000</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5044,149 +5232,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="E81" s="3">
         <v>173000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>185000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>370000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>185000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>207000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>125000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-106000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>172000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>145000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>153000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>128000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>72000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>114000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>83000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>126000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-84000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>176000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>112000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>88000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>146000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>230000</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5211,8 +5408,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5279,8 +5477,11 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5347,8 +5548,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5415,8 +5619,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5483,8 +5690,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5551,8 +5761,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5619,76 +5832,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>168000</v>
+      </c>
+      <c r="E89" s="3">
         <v>201000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>154000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>179000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>171000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>221000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>142000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>453000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>188000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>309000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>334000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>188000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>485000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>173000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>198000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>284000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>244000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>284000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>280000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>350000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>243000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>343000</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5713,8 +5932,9 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5781,8 +6001,11 @@
       <c r="X91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5849,8 +6072,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5917,76 +6143,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>1560000</v>
+      </c>
+      <c r="E94" s="3">
         <v>894000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>1334000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>2885000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>1530000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>1526000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>2407000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>985000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>1079000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>1525000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>2473000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>2408000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>2161000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>2443000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>3035000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>2721000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>2424000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>3194000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-1133000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>3011000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>2913000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>3111000</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6011,25 +6243,26 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-25000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-26000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-27000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-29000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-30000</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-31000</v>
       </c>
       <c r="I96" s="3">
         <v>-31000</v>
@@ -6038,49 +6271,52 @@
         <v>-31000</v>
       </c>
       <c r="K96" s="3">
+        <v>-31000</v>
+      </c>
+      <c r="L96" s="3">
         <v>-35000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-36000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-37000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-39000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-40000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-41000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-43000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-42000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-43000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-42000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-45000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-46000</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-47000</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-49000</v>
       </c>
     </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6147,8 +6383,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6215,8 +6454,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6283,76 +6525,82 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1461000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1546000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1828000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-2499000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-2378000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1522000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-2328000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1451000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1746000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-2000000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-2601000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-3638000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-2632000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-2376000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-4022000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1854000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-2411000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-3330000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>649000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-3250000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-3726000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-3008000</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6419,72 +6667,78 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>267000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-451000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-340000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>565000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-677000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>225000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>221000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-13000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-479000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-166000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>206000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1042000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>14000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>240000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-789000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1151000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>270000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>91000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-207000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>111000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-570000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>446000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NAVI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NAVI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="92">
   <si>
     <t>NAVI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,313 +665,326 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="25" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="26" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>434000</v>
+      </c>
+      <c r="E8" s="3">
         <v>437000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>469000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>464000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>502000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>464000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>461000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>402000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>383000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>418000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>435000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>416000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>404000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>425000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>412000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>397000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>438000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>474000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>512000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>462000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>440000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>480000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>509000</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>-18000</v>
+      </c>
+      <c r="E9" s="3">
         <v>-19000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>-47000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>-50000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>-53000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>-51000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>-54000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>-52000</v>
-      </c>
-      <c r="K9" s="3">
-        <v>-58000</v>
       </c>
       <c r="L9" s="3">
         <v>-58000</v>
       </c>
       <c r="M9" s="3">
-        <v>-60000</v>
+        <v>-58000</v>
       </c>
       <c r="N9" s="3">
         <v>-60000</v>
       </c>
       <c r="O9" s="3">
+        <v>-60000</v>
+      </c>
+      <c r="P9" s="3">
         <v>-62000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>-64000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>-70000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>-71000</v>
-      </c>
-      <c r="S9" s="3">
-        <v>-69000</v>
       </c>
       <c r="T9" s="3">
         <v>-69000</v>
       </c>
       <c r="U9" s="3">
+        <v>-69000</v>
+      </c>
+      <c r="V9" s="3">
         <v>-75000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>-70000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>-76000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>-74000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>-76000</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>452000</v>
+      </c>
+      <c r="E10" s="3">
         <v>456000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>516000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>514000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>555000</v>
-      </c>
-      <c r="H10" s="3">
-        <v>515000</v>
       </c>
       <c r="I10" s="3">
         <v>515000</v>
       </c>
       <c r="J10" s="3">
+        <v>515000</v>
+      </c>
+      <c r="K10" s="3">
         <v>454000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>441000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>476000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>495000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>476000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>466000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>489000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>482000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>468000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>507000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>543000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>587000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>532000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>516000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>554000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>585000</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -997,8 +1010,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1068,8 +1082,11 @@
       <c r="Y12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1139,64 +1156,67 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E14" s="3">
         <v>67000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>24000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>19000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>11000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>8000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>18000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>47000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>94000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>9000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>8000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>12000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>8000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>11000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>24000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>8000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>16000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>35000</v>
-      </c>
-      <c r="U14" s="3">
-        <v>6000</v>
       </c>
       <c r="V14" s="3">
         <v>6000</v>
@@ -1205,13 +1225,16 @@
         <v>6000</v>
       </c>
       <c r="X14" s="3">
+        <v>6000</v>
+      </c>
+      <c r="Y14" s="3">
         <v>14000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1281,8 +1304,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1305,150 +1331,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>102000</v>
+      </c>
+      <c r="E17" s="3">
         <v>446000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>249000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>224000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>18000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>230000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>202000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>232000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>514000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>199000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>250000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>222000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>240000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>318000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>265000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>284000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>276000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>292000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>243000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>290000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>299000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>238000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>132000</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>332000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-9000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>220000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>240000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>484000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>234000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>259000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>170000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-131000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>219000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>185000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>194000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>164000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>107000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>147000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>113000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>162000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>182000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>269000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>172000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>141000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>242000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>377000</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1474,8 +1507,9 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1545,8 +1579,11 @@
       <c r="Y20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1607,17 +1644,20 @@
       <c r="V21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W21" s="3">
+      <c r="W21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X21" s="3">
         <v>141000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>242000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>377000</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1687,150 +1727,159 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>332000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-9000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>220000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>240000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>484000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>234000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>259000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>170000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-131000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>219000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>185000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>194000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>164000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>107000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>147000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>113000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>162000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>182000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>269000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>172000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>141000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>242000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>377000</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>77000</v>
+      </c>
+      <c r="E24" s="3">
         <v>2000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>47000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>55000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>114000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>49000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>52000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>45000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-25000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>47000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>40000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>41000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>36000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>35000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>54000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>46000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>59000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>474000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>93000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>60000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>53000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>96000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>147000</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1900,150 +1949,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>255000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-11000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>173000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>185000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>370000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>185000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>207000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>125000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-106000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>172000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>145000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>153000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>128000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>72000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>93000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>67000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>103000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-292000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>176000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>112000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>88000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>146000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>230000</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>255000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-11000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>173000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>185000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>370000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>185000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>207000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>125000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-106000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>172000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>145000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>153000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>128000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>72000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>93000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>67000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>103000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-292000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>176000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>112000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>88000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>146000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>230000</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2113,8 +2171,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2139,8 +2200,8 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
@@ -2154,23 +2215,23 @@
       <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
+      <c r="P29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
         <v>21000</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>16000</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>23000</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>208000</v>
-      </c>
-      <c r="U29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="V29" s="3" t="s">
         <v>8</v>
@@ -2178,14 +2239,17 @@
       <c r="W29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X29" s="3">
-        <v>0</v>
+      <c r="X29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2255,8 +2319,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2326,8 +2393,11 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2397,79 +2467,85 @@
       <c r="Y32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>255000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-11000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>173000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>185000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>370000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>185000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>207000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>125000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-106000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>172000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>145000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>153000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>128000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>72000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>114000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>83000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>126000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-84000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>176000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>112000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>88000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>146000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>230000</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2539,155 +2615,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>255000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-11000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>173000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>185000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>370000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>185000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>207000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>125000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-106000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>172000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>145000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>153000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>128000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>72000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>114000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>83000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>126000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-84000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>176000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>112000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>88000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>146000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>230000</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2713,8 +2798,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2740,79 +2826,83 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>708000</v>
+      </c>
+      <c r="E41" s="3">
         <v>905000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1050000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1453000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1497000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1183000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1775000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1632000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1084000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1233000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1583000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1746000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1206000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1286000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2143000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1622000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2398000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1518000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1248000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1153000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1364000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1253000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>1823000</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2882,79 +2972,85 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1943000</v>
+      </c>
+      <c r="E43" s="3">
         <v>2040000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2029000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2018000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1990000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2051000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2059000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2096000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1969000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2071000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1985000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2093000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2032000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2094000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2132000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2238000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>2078000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>2345000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1939000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1930000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1704000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1758000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>1652000</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3024,8 +3120,11 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3095,8 +3194,11 @@
       <c r="Y45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3166,114 +3268,120 @@
       <c r="Y46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>71566000</v>
+      </c>
+      <c r="E47" s="3">
         <v>73448000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>75009000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>75946000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>77243000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>80102000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>81620000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>83192000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>85681000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>87289000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>88468000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>90021000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>92560000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>95064000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>97556000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>100093000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>103054000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>105932000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>108311000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>111582000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>108989000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>112293000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>115487000</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>91000</v>
+      </c>
+      <c r="E48" s="3">
         <v>95000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>114000</v>
-      </c>
-      <c r="F48" s="3">
-        <v>113000</v>
       </c>
       <c r="G48" s="3">
         <v>113000</v>
       </c>
       <c r="H48" s="3">
+        <v>113000</v>
+      </c>
+      <c r="I48" s="3">
         <v>116000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>127000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>129000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>132000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>135000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>134000</v>
-      </c>
-      <c r="N48" s="3">
-        <v>136000</v>
       </c>
       <c r="O48" s="3">
         <v>136000</v>
@@ -3282,105 +3390,111 @@
         <v>136000</v>
       </c>
       <c r="Q48" s="3">
+        <v>136000</v>
+      </c>
+      <c r="R48" s="3">
         <v>107000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>104000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>150000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>108000</v>
-      </c>
-      <c r="U48" s="3">
-        <v>152000</v>
       </c>
       <c r="V48" s="3">
         <v>152000</v>
       </c>
       <c r="W48" s="3">
+        <v>152000</v>
+      </c>
+      <c r="X48" s="3">
         <v>157000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>160000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>156000</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>722000</v>
+      </c>
+      <c r="E49" s="3">
         <v>725000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>721000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>726000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>731000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>735000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>741000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>746000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>752000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>757000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>763000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>769000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>780000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>786000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>792000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>798000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>802000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>810000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>727000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>658000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>664000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>670000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>683000</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3450,8 +3564,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3521,79 +3638,85 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2962000</v>
+      </c>
+      <c r="E52" s="3">
         <v>3135000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2721000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2776000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>3072000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>2823000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>2905000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>2820000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3141000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3007000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>3134000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>3140000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>3470000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>4446000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>3243000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>3530000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>3880000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>3402000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>3873000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>4084000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>4211000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>4088000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>4103000</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3663,79 +3786,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>78158000</v>
+      </c>
+      <c r="E54" s="3">
         <v>80605000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>81939000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>83348000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>84957000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>87412000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>89664000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>91045000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>93245000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>94903000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>96553000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>98320000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>100579000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>104176000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>106493000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>108949000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>113209000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>114991000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>117085000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>120354000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>117890000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>121136000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>125312000</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3761,8 +3890,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3788,8 +3918,9 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3859,79 +3990,85 @@
       <c r="Y57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>3802000</v>
+      </c>
+      <c r="E58" s="3">
         <v>2490000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>2781000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>4068000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>5684000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>6613000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>7078000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>7310000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>8452000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>8483000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>7004000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>6785000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>7505000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>5422000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>5007000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>4752000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>5131000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>4771000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>3281000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>3918000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>2160000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>2334000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>2637000</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4001,8 +4138,11 @@
       <c r="Y59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4072,79 +4212,85 @@
       <c r="Y60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>70825000</v>
+      </c>
+      <c r="E61" s="3">
         <v>74488000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>75629000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>75814000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>75674000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>77332000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>79137000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>80260000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>81297000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>81715000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>84769000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>86776000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>88140000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>93519000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>96089000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>98690000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>102797000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>105012000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>108557000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>110778000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>109586000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>112368000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>116540000</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4214,8 +4360,11 @@
       <c r="Y62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4285,8 +4434,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4356,8 +4508,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4427,79 +4582,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>75334000</v>
+      </c>
+      <c r="E66" s="3">
         <v>78008000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>79216000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>80647000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>82234000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>84979000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>87410000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>88930000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>91210000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>91567000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>93313000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>95019000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>97149000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>100657000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>102769000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>105235000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>109572000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>111537000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>113559000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>116814000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>114242000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>117437000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>121602000</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4525,8 +4686,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4596,8 +4758,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4667,8 +4832,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4738,8 +4906,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4809,79 +4980,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>4167000</v>
+      </c>
+      <c r="E72" s="3">
         <v>3939000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>3975000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>3828000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>3670000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>3331000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>3175000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>2999000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2905000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>3664000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>3527000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>3418000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>3303000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>3218000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>3186000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>3114000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>3073000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>3004000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>3130000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>2997000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>2930000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>2890000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>2858000</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4951,8 +5128,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5022,8 +5202,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5093,79 +5276,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2824000</v>
+      </c>
+      <c r="E76" s="3">
         <v>2597000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2723000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2701000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2723000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2433000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2254000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2115000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2035000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3336000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3240000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3301000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3430000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>3519000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>3724000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>3714000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>3637000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>3454000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>3526000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>3540000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>3648000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>3699000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>3710000</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5235,155 +5424,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>255000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-11000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>173000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>185000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>370000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>185000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>207000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>125000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-106000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>172000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>145000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>153000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>128000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>72000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>114000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>83000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>126000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-84000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>176000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>112000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>88000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>146000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>230000</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5409,8 +5607,9 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5480,8 +5679,11 @@
       <c r="Y83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5551,8 +5753,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5622,8 +5827,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5693,8 +5901,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5764,8 +5975,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5835,79 +6049,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-109000</v>
+      </c>
+      <c r="E89" s="3">
         <v>168000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>201000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>154000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>179000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>171000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>221000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>142000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>453000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>188000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>309000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>334000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>188000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>485000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>173000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>198000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>284000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>244000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>284000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>280000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>350000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>243000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>343000</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5933,8 +6153,9 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6004,8 +6225,11 @@
       <c r="Y91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6075,8 +6299,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6146,79 +6373,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>1751000</v>
+      </c>
+      <c r="E94" s="3">
         <v>1560000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>894000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>1334000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>2885000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>1530000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>1526000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>2407000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>985000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>1079000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>1525000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>2473000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>2408000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>2161000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>2443000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>3035000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>2721000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>2424000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>3194000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-1133000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>3011000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>2913000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>3111000</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6244,28 +6477,29 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-24000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-25000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-26000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-27000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-29000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-30000</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-31000</v>
       </c>
       <c r="J96" s="3">
         <v>-31000</v>
@@ -6274,49 +6508,52 @@
         <v>-31000</v>
       </c>
       <c r="L96" s="3">
+        <v>-31000</v>
+      </c>
+      <c r="M96" s="3">
         <v>-35000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-36000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-37000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-39000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-40000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-41000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-43000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-42000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-43000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-42000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-45000</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-46000</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-47000</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-49000</v>
       </c>
     </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6386,8 +6623,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6457,8 +6697,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6528,79 +6771,85 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-2006000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1461000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1546000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1828000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-2499000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-2378000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1522000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-2328000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1451000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1746000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-2000000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-2601000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-3638000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-2632000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-2376000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-4022000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1854000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-2411000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-3330000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>649000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-3250000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-3726000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-3008000</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6670,75 +6919,81 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-364000</v>
+      </c>
+      <c r="E102" s="3">
         <v>267000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-451000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-340000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>565000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-677000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>225000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>221000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-13000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-479000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-166000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>206000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1042000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>14000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>240000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-789000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>1151000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>270000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>91000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-207000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>111000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-570000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>446000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NAVI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NAVI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="92">
   <si>
     <t>NAVI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,326 +665,339 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="26" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="27" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>409000</v>
+      </c>
+      <c r="E8" s="3">
         <v>434000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>437000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>469000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>464000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>502000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>464000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>461000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>402000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>383000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>418000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>435000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>416000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>404000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>425000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>412000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>397000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>438000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>474000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>512000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>462000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>440000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>480000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>509000</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>-17000</v>
+      </c>
+      <c r="E9" s="3">
         <v>-18000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>-19000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>-47000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>-50000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>-53000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>-51000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>-54000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>-52000</v>
-      </c>
-      <c r="L9" s="3">
-        <v>-58000</v>
       </c>
       <c r="M9" s="3">
         <v>-58000</v>
       </c>
       <c r="N9" s="3">
-        <v>-60000</v>
+        <v>-58000</v>
       </c>
       <c r="O9" s="3">
         <v>-60000</v>
       </c>
       <c r="P9" s="3">
+        <v>-60000</v>
+      </c>
+      <c r="Q9" s="3">
         <v>-62000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>-64000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>-70000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>-71000</v>
-      </c>
-      <c r="T9" s="3">
-        <v>-69000</v>
       </c>
       <c r="U9" s="3">
         <v>-69000</v>
       </c>
       <c r="V9" s="3">
+        <v>-69000</v>
+      </c>
+      <c r="W9" s="3">
         <v>-75000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>-70000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>-76000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>-74000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>-76000</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>426000</v>
+      </c>
+      <c r="E10" s="3">
         <v>452000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>456000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>516000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>514000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>555000</v>
-      </c>
-      <c r="I10" s="3">
-        <v>515000</v>
       </c>
       <c r="J10" s="3">
         <v>515000</v>
       </c>
       <c r="K10" s="3">
+        <v>515000</v>
+      </c>
+      <c r="L10" s="3">
         <v>454000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>441000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>476000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>495000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>476000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>466000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>489000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>482000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>468000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>507000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>543000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>587000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>532000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>516000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>554000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>585000</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1011,8 +1024,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1085,8 +1099,11 @@
       <c r="Z12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1159,67 +1176,70 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E14" s="3">
         <v>7000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>67000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>24000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>19000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>11000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>8000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>18000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>47000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>94000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>9000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>8000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>12000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>8000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>11000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>24000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>8000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>16000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>35000</v>
-      </c>
-      <c r="V14" s="3">
-        <v>6000</v>
       </c>
       <c r="W14" s="3">
         <v>6000</v>
@@ -1228,13 +1248,16 @@
         <v>6000</v>
       </c>
       <c r="Y14" s="3">
+        <v>6000</v>
+      </c>
+      <c r="Z14" s="3">
         <v>14000</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1307,8 +1330,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1332,156 +1358,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>165000</v>
+      </c>
+      <c r="E17" s="3">
         <v>102000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>446000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>249000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>224000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>18000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>230000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>202000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>232000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>514000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>199000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>250000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>222000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>240000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>318000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>265000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>284000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>276000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>292000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>243000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>290000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>299000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>238000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>132000</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>244000</v>
+      </c>
+      <c r="E18" s="3">
         <v>332000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-9000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>220000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>240000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>484000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>234000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>259000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>170000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-131000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>219000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>185000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>194000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>164000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>107000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>147000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>113000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>162000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>182000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>269000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>172000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>141000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>242000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>377000</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1508,8 +1541,9 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1582,8 +1616,11 @@
       <c r="Z20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1647,17 +1684,20 @@
       <c r="W21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X21" s="3">
+      <c r="X21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y21" s="3">
         <v>141000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>242000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>377000</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1730,156 +1770,165 @@
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>244000</v>
+      </c>
+      <c r="E23" s="3">
         <v>332000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-9000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>220000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>240000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>484000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>234000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>259000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>170000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-131000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>219000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>185000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>194000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>164000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>107000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>147000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>113000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>162000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>182000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>269000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>172000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>141000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>242000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>377000</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>64000</v>
+      </c>
+      <c r="E24" s="3">
         <v>77000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>2000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>47000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>55000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>114000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>49000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>52000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>45000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-25000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>47000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>40000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>41000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>36000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>35000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>54000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>46000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>59000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>474000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>93000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>60000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>53000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>96000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>147000</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1952,156 +2001,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>180000</v>
+      </c>
+      <c r="E26" s="3">
         <v>255000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-11000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>173000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>185000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>370000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>185000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>207000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>125000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-106000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>172000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>145000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>153000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>128000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>72000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>93000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>67000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>103000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-292000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>176000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>112000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>88000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>146000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>230000</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>180000</v>
+      </c>
+      <c r="E27" s="3">
         <v>255000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-11000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>173000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>185000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>370000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>185000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>207000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>125000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-106000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>172000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>145000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>153000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>128000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>72000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>93000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>67000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>103000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-292000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>176000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>112000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>88000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>146000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>230000</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2174,8 +2232,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2203,8 +2264,8 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
@@ -2218,23 +2279,23 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
         <v>21000</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>16000</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>23000</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>208000</v>
-      </c>
-      <c r="V29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>8</v>
@@ -2242,14 +2303,17 @@
       <c r="X29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y29" s="3">
-        <v>0</v>
+      <c r="Y29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2322,8 +2386,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2396,8 +2463,11 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2470,82 +2540,88 @@
       <c r="Z32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>180000</v>
+      </c>
+      <c r="E33" s="3">
         <v>255000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-11000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>173000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>185000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>370000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>185000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>207000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>125000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-106000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>172000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>145000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>153000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>128000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>72000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>114000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>83000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>126000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-84000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>176000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>112000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>88000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>146000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>230000</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2618,161 +2694,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>180000</v>
+      </c>
+      <c r="E35" s="3">
         <v>255000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-11000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>173000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>185000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>370000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>185000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>207000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>125000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-106000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>172000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>145000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>153000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>128000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>72000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>114000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>83000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>126000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-84000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>176000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>112000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>88000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>146000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>230000</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2799,8 +2884,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2827,82 +2913,86 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>976000</v>
+      </c>
+      <c r="E41" s="3">
         <v>708000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>905000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1050000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1453000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1497000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1183000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1775000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1632000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1084000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1233000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1583000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1746000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1206000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1286000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2143000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1622000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2398000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1518000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1248000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1153000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1364000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>1253000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>1823000</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2975,82 +3065,88 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1974000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1943000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2040000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2029000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2018000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1990000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2051000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2059000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2096000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1969000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2071000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1985000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2093000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2032000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2094000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2132000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>2238000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>2078000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>2345000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1939000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1930000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1704000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>1758000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>1652000</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3123,8 +3219,11 @@
       <c r="Z44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3197,8 +3296,11 @@
       <c r="Z45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3271,82 +3373,88 @@
       <c r="Z46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>69279000</v>
+      </c>
+      <c r="E47" s="3">
         <v>71566000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>73448000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>75009000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>75946000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>77243000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>80102000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>81620000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>83192000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>85681000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>87289000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>88468000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>90021000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>92560000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>95064000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>97556000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>100093000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>103054000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>105932000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>108311000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>111582000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>108989000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>112293000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>115487000</v>
       </c>
     </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3354,37 +3462,37 @@
         <v>91000</v>
       </c>
       <c r="E48" s="3">
+        <v>91000</v>
+      </c>
+      <c r="F48" s="3">
         <v>95000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>114000</v>
-      </c>
-      <c r="G48" s="3">
-        <v>113000</v>
       </c>
       <c r="H48" s="3">
         <v>113000</v>
       </c>
       <c r="I48" s="3">
+        <v>113000</v>
+      </c>
+      <c r="J48" s="3">
         <v>116000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>127000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>129000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>132000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>135000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>134000</v>
-      </c>
-      <c r="O48" s="3">
-        <v>136000</v>
       </c>
       <c r="P48" s="3">
         <v>136000</v>
@@ -3393,108 +3501,114 @@
         <v>136000</v>
       </c>
       <c r="R48" s="3">
+        <v>136000</v>
+      </c>
+      <c r="S48" s="3">
         <v>107000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>104000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>150000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>108000</v>
-      </c>
-      <c r="V48" s="3">
-        <v>152000</v>
       </c>
       <c r="W48" s="3">
         <v>152000</v>
       </c>
       <c r="X48" s="3">
+        <v>152000</v>
+      </c>
+      <c r="Y48" s="3">
         <v>157000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>160000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>156000</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>718000</v>
+      </c>
+      <c r="E49" s="3">
         <v>722000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>725000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>721000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>726000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>731000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>735000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>741000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>746000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>752000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>757000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>763000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>769000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>780000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>786000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>792000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>798000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>802000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>810000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>727000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>658000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>664000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>670000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>683000</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3567,8 +3681,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3641,82 +3758,88 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2912000</v>
+      </c>
+      <c r="E52" s="3">
         <v>2962000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>3135000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2721000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2776000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>3072000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>2823000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>2905000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2820000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3141000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>3007000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>3134000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>3140000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>3470000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>4446000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>3243000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>3530000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>3880000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>3402000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>3873000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>4084000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>4211000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>4088000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>4103000</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3789,82 +3912,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>76065000</v>
+      </c>
+      <c r="E54" s="3">
         <v>78158000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>80605000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>81939000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>83348000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>84957000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>87412000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>89664000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>91045000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>93245000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>94903000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>96553000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>98320000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>100579000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>104176000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>106493000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>108949000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>113209000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>114991000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>117085000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>120354000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>117890000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>121136000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>125312000</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3891,8 +4020,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3919,8 +4049,9 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3993,82 +4124,88 @@
       <c r="Z57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>4609000</v>
+      </c>
+      <c r="E58" s="3">
         <v>3802000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>2490000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>2781000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>4068000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>5684000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>6613000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>7078000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>7310000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>8452000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>8483000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>7004000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>6785000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>7505000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>5422000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>5007000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>4752000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>5131000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>4771000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>3281000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>3918000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>2160000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>2334000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>2637000</v>
       </c>
     </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4141,8 +4278,11 @@
       <c r="Z59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4215,82 +4355,88 @@
       <c r="Z60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>67738000</v>
+      </c>
+      <c r="E61" s="3">
         <v>70825000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>74488000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>75629000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>75814000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>75674000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>77332000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>79137000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>80260000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>81297000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>81715000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>84769000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>86776000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>88140000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>93519000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>96089000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>98690000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>102797000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>105012000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>108557000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>110778000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>109586000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>112368000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>116540000</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4363,8 +4509,11 @@
       <c r="Z62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4437,8 +4586,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4511,8 +4663,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4585,82 +4740,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>73138000</v>
+      </c>
+      <c r="E66" s="3">
         <v>75334000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>78008000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>79216000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>80647000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>82234000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>84979000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>87410000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>88930000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>91210000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>91567000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>93313000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>95019000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>97149000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>100657000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>102769000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>105235000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>109572000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>111537000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>113559000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>116814000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>114242000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>117437000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>121602000</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4687,8 +4848,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4761,8 +4923,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4835,8 +5000,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4909,8 +5077,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4983,82 +5154,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>4323000</v>
+      </c>
+      <c r="E72" s="3">
         <v>4167000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>3939000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>3975000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>3828000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>3670000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>3331000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>3175000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2999000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2905000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>3664000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>3527000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>3418000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>3303000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>3218000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>3186000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>3114000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>3073000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>3004000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>3130000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>2997000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>2930000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>2890000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>2858000</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5131,8 +5308,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5205,8 +5385,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5279,82 +5462,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2927000</v>
+      </c>
+      <c r="E76" s="3">
         <v>2824000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2597000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2723000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2701000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2723000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2433000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2254000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2115000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2035000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3336000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3240000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3301000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>3430000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>3519000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>3724000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>3714000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>3637000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>3454000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>3526000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>3540000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>3648000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>3699000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>3710000</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5427,161 +5616,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>180000</v>
+      </c>
+      <c r="E81" s="3">
         <v>255000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-11000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>173000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>185000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>370000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>185000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>207000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>125000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-106000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>172000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>145000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>153000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>128000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>72000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>114000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>83000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>126000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-84000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>176000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>112000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>88000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>146000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>230000</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5608,8 +5806,9 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5682,8 +5881,11 @@
       <c r="Z83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5756,8 +5958,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5830,8 +6035,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5904,8 +6112,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5978,8 +6189,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6052,82 +6266,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>139000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-109000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>168000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>201000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>154000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>179000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>171000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>221000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>142000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>453000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>188000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>309000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>334000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>188000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>485000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>173000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>198000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>284000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>244000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>284000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>280000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>350000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>243000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>343000</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6154,8 +6374,9 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6228,8 +6449,11 @@
       <c r="Z91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6302,8 +6526,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6376,82 +6603,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>2205000</v>
+      </c>
+      <c r="E94" s="3">
         <v>1751000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>1560000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>894000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>1334000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>2885000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>1530000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>1526000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>2407000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>985000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>1079000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>1525000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>2473000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>2408000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>2161000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>2443000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>3035000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>2721000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>2424000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>3194000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-1133000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>3011000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>2913000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>3111000</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6478,31 +6711,32 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-23000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-24000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-25000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-26000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-27000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-29000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-30000</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-31000</v>
       </c>
       <c r="K96" s="3">
         <v>-31000</v>
@@ -6511,49 +6745,52 @@
         <v>-31000</v>
       </c>
       <c r="M96" s="3">
+        <v>-31000</v>
+      </c>
+      <c r="N96" s="3">
         <v>-35000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-36000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-37000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-39000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-40000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-41000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-43000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-42000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-43000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-42000</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-45000</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-46000</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-47000</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-49000</v>
       </c>
     </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6626,8 +6863,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6700,8 +6940,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6774,82 +7017,88 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-2122000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-2006000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1461000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1546000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1828000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-2499000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-2378000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1522000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-2328000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1451000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1746000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-2000000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-2601000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-3638000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-2632000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-2376000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-4022000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-1854000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-2411000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-3330000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>649000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-3250000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-3726000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-3008000</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6922,78 +7171,84 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>222000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-364000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>267000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-451000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-340000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>565000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-677000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>225000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>221000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-13000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-479000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-166000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>206000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1042000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>14000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>240000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-789000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>1151000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>270000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>91000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-207000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>111000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-570000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>446000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NAVI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NAVI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="92">
   <si>
     <t>NAVI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,339 +665,352 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="27" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="28" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>320000</v>
+      </c>
+      <c r="E8" s="3">
         <v>409000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>434000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>437000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>469000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>464000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>502000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>464000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>461000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>402000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>383000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>418000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>435000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>416000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>404000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>425000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>412000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>397000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>438000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>474000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>512000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>462000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>440000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>480000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>509000</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>-24000</v>
+      </c>
+      <c r="E9" s="3">
         <v>-17000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>-18000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>-19000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>-47000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>-50000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>-53000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>-51000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>-54000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>-52000</v>
-      </c>
-      <c r="M9" s="3">
-        <v>-58000</v>
       </c>
       <c r="N9" s="3">
         <v>-58000</v>
       </c>
       <c r="O9" s="3">
-        <v>-60000</v>
+        <v>-58000</v>
       </c>
       <c r="P9" s="3">
         <v>-60000</v>
       </c>
       <c r="Q9" s="3">
+        <v>-60000</v>
+      </c>
+      <c r="R9" s="3">
         <v>-62000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>-64000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>-70000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>-71000</v>
-      </c>
-      <c r="U9" s="3">
-        <v>-69000</v>
       </c>
       <c r="V9" s="3">
         <v>-69000</v>
       </c>
       <c r="W9" s="3">
+        <v>-69000</v>
+      </c>
+      <c r="X9" s="3">
         <v>-75000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>-70000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>-76000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>-74000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>-76000</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>344000</v>
+      </c>
+      <c r="E10" s="3">
         <v>426000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>452000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>456000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>516000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>514000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>555000</v>
-      </c>
-      <c r="J10" s="3">
-        <v>515000</v>
       </c>
       <c r="K10" s="3">
         <v>515000</v>
       </c>
       <c r="L10" s="3">
+        <v>515000</v>
+      </c>
+      <c r="M10" s="3">
         <v>454000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>441000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>476000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>495000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>476000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>466000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>489000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>482000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>468000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>507000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>543000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>587000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>532000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>516000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>554000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>585000</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1025,8 +1038,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1102,8 +1116,11 @@
       <c r="AA12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1179,70 +1196,73 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>31000</v>
+      </c>
+      <c r="E14" s="3">
         <v>3000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>7000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>67000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>24000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>19000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>11000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>8000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>18000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>47000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>94000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>9000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>8000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>12000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>8000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>11000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>24000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>8000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>16000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>35000</v>
-      </c>
-      <c r="W14" s="3">
-        <v>6000</v>
       </c>
       <c r="X14" s="3">
         <v>6000</v>
@@ -1251,13 +1271,16 @@
         <v>6000</v>
       </c>
       <c r="Z14" s="3">
+        <v>6000</v>
+      </c>
+      <c r="AA14" s="3">
         <v>14000</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1333,8 +1356,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1359,162 +1385,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>183000</v>
+      </c>
+      <c r="E17" s="3">
         <v>165000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>102000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>446000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>249000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>224000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>18000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>230000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>202000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>232000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>514000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>199000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>250000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>222000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>240000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>318000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>265000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>284000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>276000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>292000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>243000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>290000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>299000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>238000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>132000</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>137000</v>
+      </c>
+      <c r="E18" s="3">
         <v>244000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>332000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-9000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>220000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>240000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>484000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>234000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>259000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>170000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-131000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>219000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>185000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>194000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>164000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>107000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>147000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>113000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>162000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>182000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>269000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>172000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>141000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>242000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>377000</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1542,8 +1575,9 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1619,8 +1653,11 @@
       <c r="AA20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1687,17 +1724,20 @@
       <c r="X21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Y21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z21" s="3">
         <v>141000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>242000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>377000</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1773,162 +1813,171 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>137000</v>
+      </c>
+      <c r="E23" s="3">
         <v>244000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>332000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-9000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>220000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>240000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>484000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>234000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>259000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>170000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-131000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>219000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>185000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>194000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>164000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>107000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>147000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>113000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>162000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>182000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>269000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>172000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>141000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>242000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>377000</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>32000</v>
+      </c>
+      <c r="E24" s="3">
         <v>64000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>77000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>2000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>47000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>55000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>114000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>49000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>52000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>45000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-25000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>47000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>40000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>41000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>36000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>35000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>54000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>46000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>59000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>474000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>93000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>60000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>53000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>96000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>147000</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2004,162 +2053,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>105000</v>
+      </c>
+      <c r="E26" s="3">
         <v>180000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>255000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-11000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>173000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>185000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>370000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>185000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>207000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>125000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-106000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>172000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>145000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>153000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>128000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>72000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>93000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>67000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>103000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-292000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>176000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>112000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>88000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>146000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>230000</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>105000</v>
+      </c>
+      <c r="E27" s="3">
         <v>180000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>255000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-11000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>173000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>185000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>370000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>185000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>207000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>125000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-106000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>172000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>145000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>153000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>128000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>72000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>93000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>67000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>103000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-292000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>176000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>112000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>88000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>146000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>230000</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2235,8 +2293,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2267,8 +2328,8 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
@@ -2282,23 +2343,23 @@
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
+      <c r="R29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
         <v>21000</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>16000</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>23000</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>208000</v>
-      </c>
-      <c r="W29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="X29" s="3" t="s">
         <v>8</v>
@@ -2306,14 +2367,17 @@
       <c r="Y29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z29" s="3">
-        <v>0</v>
+      <c r="Z29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2389,8 +2453,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2466,8 +2533,11 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2543,85 +2613,91 @@
       <c r="AA32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>105000</v>
+      </c>
+      <c r="E33" s="3">
         <v>180000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>255000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-11000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>173000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>185000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>370000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>185000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>207000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>125000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-106000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>172000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>145000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>153000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>128000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>72000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>114000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>83000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>126000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-84000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>176000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>112000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>88000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>146000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>230000</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2697,167 +2773,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>105000</v>
+      </c>
+      <c r="E35" s="3">
         <v>180000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>255000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-11000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>173000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>185000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>370000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>185000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>207000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>125000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-106000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>172000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>145000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>153000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>128000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>72000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>114000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>83000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>126000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-84000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>176000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>112000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>88000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>146000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>230000</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2885,8 +2970,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2914,85 +3000,89 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1364000</v>
+      </c>
+      <c r="E41" s="3">
         <v>976000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>708000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>905000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1050000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1453000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1497000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1183000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1775000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1632000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1084000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1233000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1583000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1746000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1206000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1286000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2143000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1622000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>2398000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1518000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1248000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1153000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>1364000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>1253000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>1823000</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3068,85 +3158,91 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2024000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1974000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1943000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2040000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2029000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2018000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1990000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2051000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2059000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2096000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1969000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2071000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1985000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2093000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2032000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2094000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>2132000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>2238000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>2078000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>2345000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1939000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1930000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>1704000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>1758000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>1652000</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3222,8 +3318,11 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3299,8 +3398,11 @@
       <c r="AA45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3376,126 +3478,132 @@
       <c r="AA46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>66363000</v>
+      </c>
+      <c r="E47" s="3">
         <v>69279000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>71566000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>73448000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>75009000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>75946000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>77243000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>80102000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>81620000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>83192000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>85681000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>87289000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>88468000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>90021000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>92560000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>95064000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>97556000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>100093000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>103054000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>105932000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>108311000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>111582000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>108989000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>112293000</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>115487000</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>91000</v>
+        <v>77000</v>
       </c>
       <c r="E48" s="3">
         <v>91000</v>
       </c>
       <c r="F48" s="3">
+        <v>91000</v>
+      </c>
+      <c r="G48" s="3">
         <v>95000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>114000</v>
-      </c>
-      <c r="H48" s="3">
-        <v>113000</v>
       </c>
       <c r="I48" s="3">
         <v>113000</v>
       </c>
       <c r="J48" s="3">
+        <v>113000</v>
+      </c>
+      <c r="K48" s="3">
         <v>116000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>127000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>129000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>132000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>135000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>134000</v>
-      </c>
-      <c r="P48" s="3">
-        <v>136000</v>
       </c>
       <c r="Q48" s="3">
         <v>136000</v>
@@ -3504,111 +3612,117 @@
         <v>136000</v>
       </c>
       <c r="S48" s="3">
+        <v>136000</v>
+      </c>
+      <c r="T48" s="3">
         <v>107000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>104000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>150000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>108000</v>
-      </c>
-      <c r="W48" s="3">
-        <v>152000</v>
       </c>
       <c r="X48" s="3">
         <v>152000</v>
       </c>
       <c r="Y48" s="3">
+        <v>152000</v>
+      </c>
+      <c r="Z48" s="3">
         <v>157000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>160000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>156000</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>708000</v>
+      </c>
+      <c r="E49" s="3">
         <v>718000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>722000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>725000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>721000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>726000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>731000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>735000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>741000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>746000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>752000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>757000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>763000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>769000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>780000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>786000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>792000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>798000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>802000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>810000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>727000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>658000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>664000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>670000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>683000</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3684,8 +3798,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3761,85 +3878,91 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2998000</v>
+      </c>
+      <c r="E52" s="3">
         <v>2912000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2962000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>3135000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2721000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>2776000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>3072000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>2823000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2905000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2820000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>3141000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>3007000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>3134000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>3140000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>3470000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>4446000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>3243000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>3530000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>3880000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>3402000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>3873000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>4084000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>4211000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>4088000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>4103000</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3915,85 +4038,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>73625000</v>
+      </c>
+      <c r="E54" s="3">
         <v>76065000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>78158000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>80605000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>81939000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>83348000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>84957000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>87412000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>89664000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>91045000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>93245000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>94903000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>96553000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>98320000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>100579000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>104176000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>106493000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>108949000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>113209000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>114991000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>117085000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>120354000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>117890000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>121136000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>125312000</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4021,8 +4150,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4050,8 +4180,9 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4127,85 +4258,91 @@
       <c r="AA57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>5677000</v>
+      </c>
+      <c r="E58" s="3">
         <v>4609000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>3802000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>2490000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>2781000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>4068000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>5684000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>6613000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>7078000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>7310000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>8452000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>8483000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>7004000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>6785000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>7505000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>5422000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>5007000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>4752000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>5131000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>4771000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>3281000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>3918000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>2160000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>2334000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>2637000</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4281,8 +4418,11 @@
       <c r="AA59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4358,85 +4498,91 @@
       <c r="AA60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>63998000</v>
+      </c>
+      <c r="E61" s="3">
         <v>67738000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>70825000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>74488000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>75629000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>75814000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>75674000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>77332000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>79137000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>80260000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>81297000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>81715000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>84769000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>86776000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>88140000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>93519000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>96089000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>98690000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>102797000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>105012000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>108557000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>110778000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>109586000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>112368000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>116540000</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4512,8 +4658,11 @@
       <c r="AA62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4589,8 +4738,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4666,8 +4818,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4743,85 +4898,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>70652000</v>
+      </c>
+      <c r="E66" s="3">
         <v>73138000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>75334000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>78008000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>79216000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>80647000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>82234000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>84979000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>87410000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>88930000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>91210000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>91567000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>93313000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>95019000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>97149000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>100657000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>102769000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>105235000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>109572000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>111537000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>113559000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>116814000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>114242000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>117437000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>121602000</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4849,8 +5010,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4926,8 +5088,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5003,8 +5168,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5080,8 +5248,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5157,85 +5328,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>4406000</v>
+      </c>
+      <c r="E72" s="3">
         <v>4323000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>4167000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>3939000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>3975000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>3828000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>3670000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>3331000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>3175000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2999000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2905000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>3664000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>3527000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>3418000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>3303000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>3218000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>3186000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>3114000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>3073000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>3004000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>3130000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>2997000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>2930000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>2890000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>2858000</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5311,8 +5488,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5388,8 +5568,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5465,85 +5648,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2973000</v>
+      </c>
+      <c r="E76" s="3">
         <v>2927000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2824000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2597000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2723000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2701000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2723000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2433000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2254000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2115000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2035000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3336000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3240000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>3301000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>3430000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>3519000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>3724000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>3714000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>3637000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>3454000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>3526000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>3540000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>3648000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>3699000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>3710000</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5619,167 +5808,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>105000</v>
+      </c>
+      <c r="E81" s="3">
         <v>180000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>255000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-11000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>173000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>185000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>370000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>185000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>207000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>125000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-106000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>172000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>145000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>153000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>128000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>72000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>114000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>83000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>126000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-84000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>176000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>112000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>88000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>146000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>230000</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5807,8 +6005,9 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5884,8 +6083,11 @@
       <c r="AA83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5961,8 +6163,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6038,8 +6243,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6115,8 +6323,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6192,8 +6403,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6269,85 +6483,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>68000</v>
+      </c>
+      <c r="E89" s="3">
         <v>139000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-109000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>168000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>201000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>154000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>179000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>171000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>221000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>142000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>453000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>188000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>309000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>334000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>188000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>485000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>173000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>198000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>284000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>244000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>284000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>280000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>350000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>243000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>343000</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6375,8 +6595,9 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6452,8 +6673,11 @@
       <c r="AA91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6529,8 +6753,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6606,85 +6833,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>2856000</v>
+      </c>
+      <c r="E94" s="3">
         <v>2205000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>1751000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>1560000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>894000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>1334000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>2885000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>1530000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>1526000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>2407000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>985000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>1079000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>1525000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>2473000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>2408000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>2161000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>2443000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>3035000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>2721000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>2424000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>3194000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-1133000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>3011000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>2913000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>3111000</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6712,34 +6945,35 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-22000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-23000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-24000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-25000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-26000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-27000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-29000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-30000</v>
-      </c>
-      <c r="K96" s="3">
-        <v>-31000</v>
       </c>
       <c r="L96" s="3">
         <v>-31000</v>
@@ -6748,49 +6982,52 @@
         <v>-31000</v>
       </c>
       <c r="N96" s="3">
+        <v>-31000</v>
+      </c>
+      <c r="O96" s="3">
         <v>-35000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-36000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-37000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-39000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-40000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-41000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-43000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-42000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-43000</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-42000</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-45000</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-46000</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-47000</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-49000</v>
       </c>
     </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6866,8 +7103,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6943,8 +7183,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7020,85 +7263,91 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-2448000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-2122000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-2006000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1461000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1546000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1828000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-2499000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-2378000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1522000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-2328000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1451000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1746000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-2000000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-2601000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-3638000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-2632000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-2376000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-4022000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-1854000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-2411000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-3330000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>649000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-3250000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-3726000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-3008000</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7174,81 +7423,87 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>476000</v>
+      </c>
+      <c r="E102" s="3">
         <v>222000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-364000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>267000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-451000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-340000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>565000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-677000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>225000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>221000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-13000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-479000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-166000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>206000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1042000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>14000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>240000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-789000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>1151000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>270000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>91000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-207000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>111000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-570000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>446000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NAVI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NAVI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="92">
   <si>
     <t>NAVI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,352 +665,364 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="28" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="29" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>295000</v>
+      </c>
+      <c r="E8" s="3">
         <v>320000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>409000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>434000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>437000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>469000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>464000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>502000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>464000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>461000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>402000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>383000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>418000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>435000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>416000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>404000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>425000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>412000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>397000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>438000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>474000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>512000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>462000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>440000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>480000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>509000</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>-17000</v>
+      </c>
+      <c r="E9" s="3">
         <v>-24000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>-17000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>-18000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>-19000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>-47000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>-50000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>-53000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>-51000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>-54000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>-52000</v>
-      </c>
-      <c r="N9" s="3">
-        <v>-58000</v>
       </c>
       <c r="O9" s="3">
         <v>-58000</v>
       </c>
       <c r="P9" s="3">
-        <v>-60000</v>
+        <v>-58000</v>
       </c>
       <c r="Q9" s="3">
         <v>-60000</v>
       </c>
       <c r="R9" s="3">
+        <v>-60000</v>
+      </c>
+      <c r="S9" s="3">
         <v>-62000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>-64000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>-70000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>-71000</v>
-      </c>
-      <c r="V9" s="3">
-        <v>-69000</v>
       </c>
       <c r="W9" s="3">
         <v>-69000</v>
       </c>
       <c r="X9" s="3">
+        <v>-69000</v>
+      </c>
+      <c r="Y9" s="3">
         <v>-75000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>-70000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>-76000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>-74000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>-76000</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>312000</v>
+      </c>
+      <c r="E10" s="3">
         <v>344000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>426000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>452000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>456000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>516000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>514000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>555000</v>
-      </c>
-      <c r="K10" s="3">
-        <v>515000</v>
       </c>
       <c r="L10" s="3">
         <v>515000</v>
       </c>
       <c r="M10" s="3">
+        <v>515000</v>
+      </c>
+      <c r="N10" s="3">
         <v>454000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>441000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>476000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>495000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>476000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>466000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>489000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>482000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>468000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>507000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>543000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>587000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>532000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>516000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>554000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>585000</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1039,8 +1051,9 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1119,8 +1132,11 @@
       <c r="AB12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1199,73 +1215,76 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E14" s="3">
         <v>31000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>3000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>7000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>67000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>24000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>19000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>11000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>8000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>18000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>47000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>94000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>9000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>8000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>12000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>8000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>11000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>24000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>8000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>16000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>35000</v>
-      </c>
-      <c r="X14" s="3">
-        <v>6000</v>
       </c>
       <c r="Y14" s="3">
         <v>6000</v>
@@ -1274,13 +1293,16 @@
         <v>6000</v>
       </c>
       <c r="AA14" s="3">
+        <v>6000</v>
+      </c>
+      <c r="AB14" s="3">
         <v>14000</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1359,8 +1381,11 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1386,168 +1411,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>181000</v>
+      </c>
+      <c r="E17" s="3">
         <v>183000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>165000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>102000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>446000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>249000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>224000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>18000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>230000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>202000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>232000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>514000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>199000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>250000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>222000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>240000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>318000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>265000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>284000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>276000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>292000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>243000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>290000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>299000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>238000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>132000</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>114000</v>
+      </c>
+      <c r="E18" s="3">
         <v>137000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>244000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>332000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-9000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>220000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>240000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>484000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>234000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>259000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>170000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-131000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>219000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>185000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>194000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>164000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>107000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>147000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>113000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>162000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>182000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>269000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>172000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>141000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>242000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>377000</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1576,8 +1608,9 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1656,8 +1689,11 @@
       <c r="AB20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1727,17 +1763,20 @@
       <c r="Y21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="Z21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA21" s="3">
         <v>141000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>242000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>377000</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1816,168 +1855,177 @@
       <c r="AB22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>114000</v>
+      </c>
+      <c r="E23" s="3">
         <v>137000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>244000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>332000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-9000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>220000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>240000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>484000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>234000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>259000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>170000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-131000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>219000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>185000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>194000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>164000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>107000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>147000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>113000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>162000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>182000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>269000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>172000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>141000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>242000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>377000</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E24" s="3">
         <v>32000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>64000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>77000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>2000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>47000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>55000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>114000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>49000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>52000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>45000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-25000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>47000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>40000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>41000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>36000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>35000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>54000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>46000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>59000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>474000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>93000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>60000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>53000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>96000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>147000</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2056,8 +2104,11 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -2065,79 +2116,82 @@
         <v>105000</v>
       </c>
       <c r="E26" s="3">
+        <v>105000</v>
+      </c>
+      <c r="F26" s="3">
         <v>180000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>255000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-11000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>173000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>185000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>370000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>185000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>207000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>125000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-106000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>172000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>145000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>153000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>128000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>72000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>93000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>67000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>103000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-292000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>176000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>112000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>88000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>146000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>230000</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -2145,79 +2199,82 @@
         <v>105000</v>
       </c>
       <c r="E27" s="3">
+        <v>105000</v>
+      </c>
+      <c r="F27" s="3">
         <v>180000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>255000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-11000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>173000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>185000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>370000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>185000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>207000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>125000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-106000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>172000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>145000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>153000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>128000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>72000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>93000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>67000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>103000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-292000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>176000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>112000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>88000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>146000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>230000</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2296,8 +2353,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2331,8 +2391,8 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -2346,23 +2406,23 @@
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
+      <c r="S29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
         <v>21000</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>16000</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>23000</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>208000</v>
-      </c>
-      <c r="X29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Y29" s="3" t="s">
         <v>8</v>
@@ -2370,14 +2430,17 @@
       <c r="Z29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AA29" s="3">
-        <v>0</v>
+      <c r="AA29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2456,8 +2519,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2536,8 +2602,11 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2616,8 +2685,11 @@
       <c r="AB32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2625,79 +2697,82 @@
         <v>105000</v>
       </c>
       <c r="E33" s="3">
+        <v>105000</v>
+      </c>
+      <c r="F33" s="3">
         <v>180000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>255000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-11000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>173000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>185000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>370000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>185000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>207000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>125000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-106000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>172000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>145000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>153000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>128000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>72000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>114000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>83000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>126000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-84000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>176000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>112000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>88000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>146000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>230000</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2776,8 +2851,11 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2785,164 +2863,170 @@
         <v>105000</v>
       </c>
       <c r="E35" s="3">
+        <v>105000</v>
+      </c>
+      <c r="F35" s="3">
         <v>180000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>255000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-11000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>173000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>185000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>370000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>185000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>207000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>125000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-106000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>172000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>145000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>153000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>128000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>72000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>114000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>83000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>126000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-84000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>176000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>112000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>88000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>146000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>230000</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2971,8 +3055,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3001,88 +3086,92 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1535000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1364000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>976000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>708000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>905000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1050000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1453000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1497000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1183000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1775000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1632000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1084000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1233000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1583000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1746000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1206000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1286000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2143000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1622000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>2398000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1518000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1248000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>1153000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>1364000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>1253000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>1823000</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3161,88 +3250,94 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2114000</v>
+      </c>
+      <c r="E43" s="3">
         <v>2024000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1974000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1943000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2040000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2029000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2018000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1990000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2051000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2059000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2096000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1969000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2071000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1985000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2093000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2032000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>2094000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>2132000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>2238000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>2078000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>2345000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1939000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>1930000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>1704000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>1758000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>1652000</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3321,8 +3416,11 @@
       <c r="AB44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3401,8 +3499,11 @@
       <c r="AB45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3481,132 +3582,138 @@
       <c r="AB46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>62549000</v>
+      </c>
+      <c r="E47" s="3">
         <v>66363000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>69279000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>71566000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>73448000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>75009000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>75946000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>77243000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>80102000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>81620000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>83192000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>85681000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>87289000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>88468000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>90021000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>92560000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>95064000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>97556000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>100093000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>103054000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>105932000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>108311000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>111582000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>108989000</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>112293000</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>115487000</v>
       </c>
     </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>74000</v>
+      </c>
+      <c r="E48" s="3">
         <v>77000</v>
-      </c>
-      <c r="E48" s="3">
-        <v>91000</v>
       </c>
       <c r="F48" s="3">
         <v>91000</v>
       </c>
       <c r="G48" s="3">
+        <v>91000</v>
+      </c>
+      <c r="H48" s="3">
         <v>95000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>114000</v>
-      </c>
-      <c r="I48" s="3">
-        <v>113000</v>
       </c>
       <c r="J48" s="3">
         <v>113000</v>
       </c>
       <c r="K48" s="3">
+        <v>113000</v>
+      </c>
+      <c r="L48" s="3">
         <v>116000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>127000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>129000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>132000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>135000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>134000</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>136000</v>
       </c>
       <c r="R48" s="3">
         <v>136000</v>
@@ -3615,114 +3722,120 @@
         <v>136000</v>
       </c>
       <c r="T48" s="3">
+        <v>136000</v>
+      </c>
+      <c r="U48" s="3">
         <v>107000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>104000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>150000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>108000</v>
-      </c>
-      <c r="X48" s="3">
-        <v>152000</v>
       </c>
       <c r="Y48" s="3">
         <v>152000</v>
       </c>
       <c r="Z48" s="3">
+        <v>152000</v>
+      </c>
+      <c r="AA48" s="3">
         <v>157000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>160000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>156000</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>705000</v>
+      </c>
+      <c r="E49" s="3">
         <v>708000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>718000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>722000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>725000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>721000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>726000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>731000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>735000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>741000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>746000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>752000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>757000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>763000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>769000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>780000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>786000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>792000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>798000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>802000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>810000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>727000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>658000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>664000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>670000</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>683000</v>
       </c>
     </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3801,8 +3914,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3881,88 +3997,94 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>3724000</v>
+      </c>
+      <c r="E52" s="3">
         <v>2998000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2912000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2962000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>3135000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>2721000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>2776000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>3072000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2823000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2905000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2820000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>3141000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>3007000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>3134000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>3140000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>3470000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>4446000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>3243000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>3530000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>3880000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>3402000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>3873000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>4084000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>4211000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>4088000</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>4103000</v>
       </c>
     </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4041,88 +4163,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>70795000</v>
+      </c>
+      <c r="E54" s="3">
         <v>73625000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>76065000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>78158000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>80605000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>81939000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>83348000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>84957000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>87412000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>89664000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>91045000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>93245000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>94903000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>96553000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>98320000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>100579000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>104176000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>106493000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>108949000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>113209000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>114991000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>117085000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>120354000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>117890000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>121136000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>125312000</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4151,8 +4279,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4181,8 +4310,9 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4261,88 +4391,94 @@
       <c r="AB57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>5870000</v>
+      </c>
+      <c r="E58" s="3">
         <v>5677000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>4609000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>3802000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>2490000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>2781000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>4068000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>5684000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>6613000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>7078000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>7310000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>8452000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>8483000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>7004000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>6785000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>7505000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>5422000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>5007000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>4752000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>5131000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>4771000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>3281000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>3918000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>2160000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>2334000</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>2637000</v>
       </c>
     </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4421,8 +4557,11 @@
       <c r="AB59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4501,88 +4640,94 @@
       <c r="AB60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>61026000</v>
+      </c>
+      <c r="E61" s="3">
         <v>63998000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>67738000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>70825000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>74488000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>75629000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>75814000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>75674000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>77332000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>79137000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>80260000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>81297000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>81715000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>84769000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>86776000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>88140000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>93519000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>96089000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>98690000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>102797000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>105012000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>108557000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>110778000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>109586000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>112368000</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>116540000</v>
       </c>
     </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4661,8 +4806,11 @@
       <c r="AB62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4741,8 +4889,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4821,8 +4972,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4901,88 +5055,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>67818000</v>
+      </c>
+      <c r="E66" s="3">
         <v>70652000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>73138000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>75334000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>78008000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>79216000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>80647000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>82234000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>84979000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>87410000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>88930000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>91210000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>91567000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>93313000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>95019000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>97149000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>100657000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>102769000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>105235000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>109572000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>111537000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>113559000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>116814000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>114242000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>117437000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>121602000</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5011,8 +5171,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5091,8 +5252,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5171,8 +5335,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5251,8 +5418,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5331,88 +5501,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>4490000</v>
+      </c>
+      <c r="E72" s="3">
         <v>4406000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>4323000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>4167000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>3939000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>3975000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>3828000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>3670000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>3331000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>3175000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2999000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2905000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>3664000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>3527000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>3418000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>3303000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>3218000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>3186000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>3114000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>3073000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>3004000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>3130000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>2997000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>2930000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>2890000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>2858000</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5491,8 +5667,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5571,8 +5750,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5651,88 +5833,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2977000</v>
+      </c>
+      <c r="E76" s="3">
         <v>2973000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2927000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2824000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2597000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2723000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2701000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2723000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2433000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2254000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2115000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2035000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3336000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>3240000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>3301000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>3430000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>3519000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>3724000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>3714000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>3637000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>3454000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>3526000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>3540000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>3648000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>3699000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>3710000</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5811,93 +5999,99 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -5905,79 +6099,82 @@
         <v>105000</v>
       </c>
       <c r="E81" s="3">
+        <v>105000</v>
+      </c>
+      <c r="F81" s="3">
         <v>180000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>255000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-11000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>173000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>185000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>370000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>185000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>207000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>125000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-106000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>172000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>145000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>153000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>128000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>72000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>114000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>83000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>126000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-84000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>176000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>112000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>88000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>146000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>230000</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6006,8 +6203,9 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6086,8 +6284,11 @@
       <c r="AB83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6166,8 +6367,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6246,8 +6450,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6326,8 +6533,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6406,8 +6616,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6486,88 +6699,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>207000</v>
+      </c>
+      <c r="E89" s="3">
         <v>68000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>139000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-109000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>168000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>201000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>154000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>179000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>171000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>221000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>142000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>453000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>188000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>309000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>334000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>188000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>485000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>173000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>198000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>284000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>244000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>284000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>280000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>350000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>243000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>343000</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6596,8 +6815,9 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6676,8 +6896,11 @@
       <c r="AB91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6756,8 +6979,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6836,88 +7062,94 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>3773000</v>
+      </c>
+      <c r="E94" s="3">
         <v>2856000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>2205000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>1751000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>1560000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>894000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>1334000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>2885000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>1530000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>1526000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>2407000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>985000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>1079000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>1525000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>2473000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>2408000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>2161000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>2443000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>3035000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>2721000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>2424000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>3194000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-1133000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>3011000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>2913000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>3111000</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6946,8 +7178,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6955,28 +7188,28 @@
         <v>-22000</v>
       </c>
       <c r="E96" s="3">
+        <v>-22000</v>
+      </c>
+      <c r="F96" s="3">
         <v>-23000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-24000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-25000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-26000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-27000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-29000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-30000</v>
-      </c>
-      <c r="L96" s="3">
-        <v>-31000</v>
       </c>
       <c r="M96" s="3">
         <v>-31000</v>
@@ -6985,49 +7218,52 @@
         <v>-31000</v>
       </c>
       <c r="O96" s="3">
+        <v>-31000</v>
+      </c>
+      <c r="P96" s="3">
         <v>-35000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-36000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-37000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-39000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-40000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-41000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-43000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-42000</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-43000</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-42000</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-45000</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-46000</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-47000</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AC96" s="3">
         <v>-49000</v>
       </c>
     </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7106,8 +7342,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7186,8 +7425,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7266,88 +7508,94 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-3085000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-2448000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-2122000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-2006000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1461000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1546000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1828000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-2499000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-2378000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1522000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-2328000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1451000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1746000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-2000000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-2601000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-3638000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-2632000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-2376000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-4022000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-1854000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-2411000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-3330000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>649000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-3250000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-3726000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-3008000</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7426,84 +7674,90 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>895000</v>
+      </c>
+      <c r="E102" s="3">
         <v>476000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>222000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-364000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>267000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-451000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-340000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>565000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-677000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>225000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>221000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-13000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-479000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-166000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>206000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1042000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>14000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>240000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-789000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>1151000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>270000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>91000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-207000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>111000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-570000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>446000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NAVI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NAVI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="92">
   <si>
     <t>NAVI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,198 +665,205 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="29" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="30" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>306000</v>
+      </c>
+      <c r="E8" s="3">
         <v>295000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>320000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>409000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>434000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>437000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>469000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>464000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>502000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>464000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>461000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>402000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>383000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>418000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>435000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>416000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>404000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>425000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>412000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>397000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>438000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>474000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>512000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>462000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>440000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>480000</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>509000</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -864,165 +871,171 @@
         <v>-17000</v>
       </c>
       <c r="E9" s="3">
+        <v>-17000</v>
+      </c>
+      <c r="F9" s="3">
         <v>-24000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>-17000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>-18000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>-19000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>-47000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>-50000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>-53000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>-51000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>-54000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>-52000</v>
-      </c>
-      <c r="O9" s="3">
-        <v>-58000</v>
       </c>
       <c r="P9" s="3">
         <v>-58000</v>
       </c>
       <c r="Q9" s="3">
-        <v>-60000</v>
+        <v>-58000</v>
       </c>
       <c r="R9" s="3">
         <v>-60000</v>
       </c>
       <c r="S9" s="3">
+        <v>-60000</v>
+      </c>
+      <c r="T9" s="3">
         <v>-62000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>-64000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>-70000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>-71000</v>
-      </c>
-      <c r="W9" s="3">
-        <v>-69000</v>
       </c>
       <c r="X9" s="3">
         <v>-69000</v>
       </c>
       <c r="Y9" s="3">
+        <v>-69000</v>
+      </c>
+      <c r="Z9" s="3">
         <v>-75000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>-70000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>-76000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>-74000</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>-76000</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>323000</v>
+      </c>
+      <c r="E10" s="3">
         <v>312000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>344000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>426000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>452000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>456000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>516000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>514000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>555000</v>
-      </c>
-      <c r="L10" s="3">
-        <v>515000</v>
       </c>
       <c r="M10" s="3">
         <v>515000</v>
       </c>
       <c r="N10" s="3">
+        <v>515000</v>
+      </c>
+      <c r="O10" s="3">
         <v>454000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>441000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>476000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>495000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>476000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>466000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>489000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>482000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>468000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>507000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>543000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>587000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>532000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>516000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>554000</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>585000</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1052,8 +1065,9 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1135,8 +1149,11 @@
       <c r="AC12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1218,76 +1235,79 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E14" s="3">
         <v>13000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>31000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>3000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>7000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>67000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>24000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>19000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>11000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>8000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>18000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>47000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>94000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>9000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>8000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>12000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>8000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>11000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>24000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>8000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>16000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>35000</v>
-      </c>
-      <c r="Y14" s="3">
-        <v>6000</v>
       </c>
       <c r="Z14" s="3">
         <v>6000</v>
@@ -1296,13 +1316,16 @@
         <v>6000</v>
       </c>
       <c r="AB14" s="3">
+        <v>6000</v>
+      </c>
+      <c r="AC14" s="3">
         <v>14000</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1384,8 +1407,11 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1412,174 +1438,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>162000</v>
+      </c>
+      <c r="E17" s="3">
         <v>181000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>183000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>165000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>102000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>446000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>249000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>224000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>18000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>230000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>202000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>232000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>514000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>199000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>250000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>222000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>240000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>318000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>265000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>284000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>276000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>292000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>243000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>290000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>299000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>238000</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>132000</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>144000</v>
+      </c>
+      <c r="E18" s="3">
         <v>114000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>137000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>244000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>332000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-9000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>220000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>240000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>484000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>234000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>259000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>170000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-131000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>219000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>185000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>194000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>164000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>107000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>147000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>113000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>162000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>182000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>269000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>172000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>141000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>242000</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>377000</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1609,8 +1642,9 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1692,8 +1726,11 @@
       <c r="AC20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1766,17 +1803,20 @@
       <c r="Z21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AA21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB21" s="3">
         <v>141000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>242000</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>377000</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1858,174 +1898,183 @@
       <c r="AC22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>144000</v>
+      </c>
+      <c r="E23" s="3">
         <v>114000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>137000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>244000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>332000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-9000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>220000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>240000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>484000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>234000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>259000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>170000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-131000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>219000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>185000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>194000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>164000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>107000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>147000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>113000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>162000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>182000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>269000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>172000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>141000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>242000</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>377000</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>33000</v>
+      </c>
+      <c r="E24" s="3">
         <v>9000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>32000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>64000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>77000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>2000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>47000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>55000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>114000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>49000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>52000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>45000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-25000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>47000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>40000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>41000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>36000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>35000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>54000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>46000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>59000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>474000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>93000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>60000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>53000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>96000</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>147000</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2107,174 +2156,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>105000</v>
+        <v>111000</v>
       </c>
       <c r="E26" s="3">
         <v>105000</v>
       </c>
       <c r="F26" s="3">
+        <v>105000</v>
+      </c>
+      <c r="G26" s="3">
         <v>180000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>255000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-11000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>173000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>185000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>370000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>185000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>207000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>125000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-106000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>172000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>145000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>153000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>128000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>72000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>93000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>67000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>103000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-292000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>176000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>112000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>88000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>146000</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>230000</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>105000</v>
+        <v>111000</v>
       </c>
       <c r="E27" s="3">
         <v>105000</v>
       </c>
       <c r="F27" s="3">
+        <v>105000</v>
+      </c>
+      <c r="G27" s="3">
         <v>180000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>255000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-11000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>173000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>185000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>370000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>185000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>207000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>125000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-106000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>172000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>145000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>153000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>128000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>72000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>93000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>67000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>103000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-292000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>176000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>112000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>88000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>146000</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>230000</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2356,8 +2414,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2394,8 +2455,8 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
@@ -2409,23 +2470,23 @@
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T29" s="3">
-        <v>0</v>
+      <c r="T29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
         <v>21000</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>16000</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>23000</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>208000</v>
-      </c>
-      <c r="Y29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Z29" s="3" t="s">
         <v>8</v>
@@ -2433,14 +2494,17 @@
       <c r="AA29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AB29" s="3">
-        <v>0</v>
+      <c r="AB29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AC29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2522,8 +2586,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2605,8 +2672,11 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2688,91 +2758,97 @@
       <c r="AC32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>105000</v>
+        <v>111000</v>
       </c>
       <c r="E33" s="3">
         <v>105000</v>
       </c>
       <c r="F33" s="3">
+        <v>105000</v>
+      </c>
+      <c r="G33" s="3">
         <v>180000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>255000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-11000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>173000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>185000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>370000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>185000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>207000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>125000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-106000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>172000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>145000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>153000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>128000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>72000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>114000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>83000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>126000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-84000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>176000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>112000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>88000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>146000</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>230000</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2854,179 +2930,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>105000</v>
+        <v>111000</v>
       </c>
       <c r="E35" s="3">
         <v>105000</v>
       </c>
       <c r="F35" s="3">
+        <v>105000</v>
+      </c>
+      <c r="G35" s="3">
         <v>180000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>255000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-11000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>173000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>185000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>370000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>185000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>207000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>125000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-106000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>172000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>145000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>153000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>128000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>72000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>114000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>83000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>126000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-84000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>176000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>112000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>88000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>146000</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>230000</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3056,8 +3141,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3087,91 +3173,95 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>570000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1535000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1364000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>976000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>708000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>905000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1050000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1453000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1497000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1183000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1775000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1632000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1084000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1233000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1583000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1746000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1206000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1286000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>2143000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1622000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>2398000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1518000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>1248000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>1153000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>1364000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>1253000</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>1823000</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3253,91 +3343,97 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2121000</v>
+      </c>
+      <c r="E43" s="3">
         <v>2114000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2024000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1974000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1943000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2040000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2029000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2018000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1990000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2051000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2059000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2096000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1969000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2071000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1985000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2093000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>2032000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>2094000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>2132000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>2238000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>2078000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>2345000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>1939000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>1930000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>1704000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>1758000</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>1652000</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3419,8 +3515,11 @@
       <c r="AC44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3502,8 +3601,11 @@
       <c r="AC45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3585,138 +3687,144 @@
       <c r="AC46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>60687000</v>
+      </c>
+      <c r="E47" s="3">
         <v>62549000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>66363000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>69279000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>71566000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>73448000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>75009000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>75946000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>77243000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>80102000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>81620000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>83192000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>85681000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>87289000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>88468000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>90021000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>92560000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>95064000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>97556000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>100093000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>103054000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>105932000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>108311000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>111582000</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>108989000</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>112293000</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>115487000</v>
       </c>
     </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>69000</v>
+      </c>
+      <c r="E48" s="3">
         <v>74000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>77000</v>
-      </c>
-      <c r="F48" s="3">
-        <v>91000</v>
       </c>
       <c r="G48" s="3">
         <v>91000</v>
       </c>
       <c r="H48" s="3">
+        <v>91000</v>
+      </c>
+      <c r="I48" s="3">
         <v>95000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>114000</v>
-      </c>
-      <c r="J48" s="3">
-        <v>113000</v>
       </c>
       <c r="K48" s="3">
         <v>113000</v>
       </c>
       <c r="L48" s="3">
+        <v>113000</v>
+      </c>
+      <c r="M48" s="3">
         <v>116000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>127000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>129000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>132000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>135000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>134000</v>
-      </c>
-      <c r="R48" s="3">
-        <v>136000</v>
       </c>
       <c r="S48" s="3">
         <v>136000</v>
@@ -3725,117 +3833,123 @@
         <v>136000</v>
       </c>
       <c r="U48" s="3">
+        <v>136000</v>
+      </c>
+      <c r="V48" s="3">
         <v>107000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>104000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>150000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>108000</v>
-      </c>
-      <c r="Y48" s="3">
-        <v>152000</v>
       </c>
       <c r="Z48" s="3">
         <v>152000</v>
       </c>
       <c r="AA48" s="3">
+        <v>152000</v>
+      </c>
+      <c r="AB48" s="3">
         <v>157000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>160000</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>156000</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>703000</v>
+      </c>
+      <c r="E49" s="3">
         <v>705000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>708000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>718000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>722000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>725000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>721000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>726000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>731000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>735000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>741000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>746000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>752000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>757000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>763000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>769000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>780000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>786000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>792000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>798000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>802000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>810000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>727000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>658000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>664000</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>670000</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>683000</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3917,8 +4031,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4000,91 +4117,97 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2662000</v>
+      </c>
+      <c r="E52" s="3">
         <v>3724000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2998000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2912000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2962000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>3135000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>2721000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>2776000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3072000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2823000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2905000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2820000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>3141000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>3007000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>3134000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>3140000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>3470000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>4446000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>3243000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>3530000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>3880000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>3402000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>3873000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>4084000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>4211000</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>4088000</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>4103000</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4166,91 +4289,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>66913000</v>
+      </c>
+      <c r="E54" s="3">
         <v>70795000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>73625000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>76065000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>78158000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>80605000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>81939000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>83348000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>84957000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>87412000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>89664000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>91045000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>93245000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>94903000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>96553000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>98320000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>100579000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>104176000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>106493000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>108949000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>113209000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>114991000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>117085000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>120354000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>117890000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>121136000</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>125312000</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4280,8 +4409,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4311,8 +4441,9 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4394,91 +4525,97 @@
       <c r="AC57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>5753000</v>
+      </c>
+      <c r="E58" s="3">
         <v>5870000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>5677000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>4609000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>3802000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>2490000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>2781000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>4068000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>5684000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>6613000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>7078000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>7310000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>8452000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>8483000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>7004000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>6785000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>7505000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>5422000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>5007000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>4752000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>5131000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>4771000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>3281000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>3918000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>2160000</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>2334000</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>2637000</v>
       </c>
     </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4560,8 +4697,11 @@
       <c r="AC59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4643,91 +4783,97 @@
       <c r="AC60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>57388000</v>
+      </c>
+      <c r="E61" s="3">
         <v>61026000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>63998000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>67738000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>70825000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>74488000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>75629000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>75814000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>75674000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>77332000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>79137000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>80260000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>81297000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>81715000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>84769000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>86776000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>88140000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>93519000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>96089000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>98690000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>102797000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>105012000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>108557000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>110778000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>109586000</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>112368000</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>116540000</v>
       </c>
     </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4809,8 +4955,11 @@
       <c r="AC62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4892,8 +5041,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4975,8 +5127,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5058,91 +5213,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>63955000</v>
+      </c>
+      <c r="E66" s="3">
         <v>67818000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>70652000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>73138000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>75334000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>78008000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>79216000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>80647000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>82234000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>84979000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>87410000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>88930000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>91210000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>91567000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>93313000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>95019000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>97149000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>100657000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>102769000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>105235000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>109572000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>111537000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>113559000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>116814000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>114242000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>117437000</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>121602000</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5172,8 +5333,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5255,8 +5417,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5338,8 +5503,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5421,8 +5589,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5504,91 +5675,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>4579000</v>
+      </c>
+      <c r="E72" s="3">
         <v>4490000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>4406000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>4323000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>4167000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>3939000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>3975000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>3828000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>3670000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>3331000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>3175000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2999000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2905000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>3664000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>3527000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>3418000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>3303000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>3218000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>3186000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>3114000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>3073000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>3004000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>3130000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>2997000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>2930000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>2890000</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>2858000</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5670,8 +5847,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5753,8 +5933,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5836,91 +6019,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2958000</v>
+      </c>
+      <c r="E76" s="3">
         <v>2977000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2973000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2927000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2824000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2597000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2723000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2701000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2723000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2433000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2254000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2115000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2035000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>3336000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>3240000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>3301000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>3430000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>3519000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>3724000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>3714000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>3637000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>3454000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>3526000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>3540000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>3648000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>3699000</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>3710000</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6002,179 +6191,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>105000</v>
+        <v>111000</v>
       </c>
       <c r="E81" s="3">
         <v>105000</v>
       </c>
       <c r="F81" s="3">
+        <v>105000</v>
+      </c>
+      <c r="G81" s="3">
         <v>180000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>255000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-11000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>173000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>185000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>370000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>185000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>207000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>125000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-106000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>172000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>145000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>153000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>128000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>72000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>114000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>83000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>126000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-84000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>176000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>112000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>88000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>146000</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>230000</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6204,8 +6402,9 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6287,8 +6486,11 @@
       <c r="AC83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6370,8 +6572,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6453,8 +6658,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6536,8 +6744,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6619,8 +6830,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6702,91 +6916,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>145000</v>
+      </c>
+      <c r="E89" s="3">
         <v>207000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>68000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>139000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-109000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>168000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>201000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>154000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>179000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>171000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>221000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>142000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>453000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>188000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>309000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>334000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>188000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>485000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>173000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>198000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>284000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>244000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>284000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>280000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>350000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>243000</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>343000</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6816,8 +7036,9 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6899,8 +7120,11 @@
       <c r="AC91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6982,8 +7206,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7065,91 +7292,97 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>1848000</v>
+      </c>
+      <c r="E94" s="3">
         <v>3773000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>2856000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>2205000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>1751000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>1560000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>894000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>1334000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>2885000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>1530000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>1526000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>2407000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>985000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>1079000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>1525000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>2473000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>2408000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>2161000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>2443000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>3035000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>2721000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>2424000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>3194000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-1133000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>3011000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>2913000</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>3111000</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7179,40 +7412,41 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-22000</v>
+        <v>-21000</v>
       </c>
       <c r="E96" s="3">
         <v>-22000</v>
       </c>
       <c r="F96" s="3">
+        <v>-22000</v>
+      </c>
+      <c r="G96" s="3">
         <v>-23000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-24000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-25000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-26000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-27000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-29000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-30000</v>
-      </c>
-      <c r="M96" s="3">
-        <v>-31000</v>
       </c>
       <c r="N96" s="3">
         <v>-31000</v>
@@ -7221,49 +7455,52 @@
         <v>-31000</v>
       </c>
       <c r="P96" s="3">
+        <v>-31000</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-35000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-36000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-37000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-39000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-40000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-41000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-43000</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-42000</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-43000</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-42000</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-45000</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-46000</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AC96" s="3">
         <v>-47000</v>
       </c>
-      <c r="AC96" s="3">
+      <c r="AD96" s="3">
         <v>-49000</v>
       </c>
     </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7345,8 +7582,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7428,8 +7668,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7511,91 +7754,97 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-4022000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-3085000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-2448000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-2122000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-2006000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1461000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1546000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1828000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-2499000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-2378000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1522000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-2328000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1451000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1746000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-2000000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-2601000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-3638000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-2632000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-2376000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-4022000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-1854000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-2411000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-3330000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>649000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-3250000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-3726000</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-3008000</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7677,87 +7926,93 @@
       <c r="AC101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2029000</v>
+      </c>
+      <c r="E102" s="3">
         <v>895000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>476000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>222000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-364000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>267000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-451000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-340000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>565000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-677000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>225000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>221000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-13000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-479000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-166000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>206000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-1042000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>14000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>240000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-789000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>1151000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>270000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>91000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-207000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>111000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-570000</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>446000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NAVI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NAVI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="92">
   <si>
     <t>NAVI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,377 +665,390 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="30" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="31" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>261000</v>
+      </c>
+      <c r="E8" s="3">
         <v>306000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>295000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>320000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>409000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>434000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>437000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>469000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>464000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>502000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>464000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>461000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>402000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>383000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>418000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>435000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>416000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>404000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>425000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>412000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>397000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>438000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>474000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>512000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>462000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>440000</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>480000</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>509000</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>-17000</v>
+        <v>-16000</v>
       </c>
       <c r="E9" s="3">
         <v>-17000</v>
       </c>
       <c r="F9" s="3">
+        <v>-17000</v>
+      </c>
+      <c r="G9" s="3">
         <v>-24000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>-17000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>-18000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>-19000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>-47000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>-50000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>-53000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>-51000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>-54000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>-52000</v>
-      </c>
-      <c r="P9" s="3">
-        <v>-58000</v>
       </c>
       <c r="Q9" s="3">
         <v>-58000</v>
       </c>
       <c r="R9" s="3">
-        <v>-60000</v>
+        <v>-58000</v>
       </c>
       <c r="S9" s="3">
         <v>-60000</v>
       </c>
       <c r="T9" s="3">
+        <v>-60000</v>
+      </c>
+      <c r="U9" s="3">
         <v>-62000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>-64000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>-70000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>-71000</v>
-      </c>
-      <c r="X9" s="3">
-        <v>-69000</v>
       </c>
       <c r="Y9" s="3">
         <v>-69000</v>
       </c>
       <c r="Z9" s="3">
+        <v>-69000</v>
+      </c>
+      <c r="AA9" s="3">
         <v>-75000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>-70000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>-76000</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>-74000</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>-76000</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>277000</v>
+      </c>
+      <c r="E10" s="3">
         <v>323000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>312000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>344000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>426000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>452000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>456000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>516000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>514000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>555000</v>
-      </c>
-      <c r="M10" s="3">
-        <v>515000</v>
       </c>
       <c r="N10" s="3">
         <v>515000</v>
       </c>
       <c r="O10" s="3">
+        <v>515000</v>
+      </c>
+      <c r="P10" s="3">
         <v>454000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>441000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>476000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>495000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>476000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>466000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>489000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>482000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>468000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>507000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>543000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>587000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>532000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>516000</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>554000</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>585000</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1066,8 +1079,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1152,8 +1166,11 @@
       <c r="AD12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1238,79 +1255,82 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>18000</v>
+      </c>
+      <c r="E14" s="3">
         <v>7000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>13000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>31000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>3000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>7000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>67000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>24000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>19000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>11000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>8000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>18000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>47000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>94000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>9000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>8000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>12000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>8000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>11000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>24000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>8000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>16000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>35000</v>
-      </c>
-      <c r="Z14" s="3">
-        <v>6000</v>
       </c>
       <c r="AA14" s="3">
         <v>6000</v>
@@ -1319,13 +1339,16 @@
         <v>6000</v>
       </c>
       <c r="AC14" s="3">
+        <v>6000</v>
+      </c>
+      <c r="AD14" s="3">
         <v>14000</v>
       </c>
-      <c r="AD14" s="3">
+      <c r="AE14" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1410,8 +1433,11 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1439,180 +1465,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>165000</v>
+      </c>
+      <c r="E17" s="3">
         <v>162000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>181000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>183000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>165000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>102000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>446000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>249000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>224000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>18000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>230000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>202000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>232000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>514000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>199000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>250000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>222000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>240000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>318000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>265000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>284000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>276000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>292000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>243000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>290000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>299000</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>238000</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>132000</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>96000</v>
+      </c>
+      <c r="E18" s="3">
         <v>144000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>114000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>137000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>244000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>332000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-9000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>220000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>240000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>484000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>234000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>259000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>170000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-131000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>219000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>185000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>194000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>164000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>107000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>147000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>113000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>162000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>182000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>269000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>172000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>141000</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>242000</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>377000</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1643,8 +1676,9 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1729,8 +1763,11 @@
       <c r="AD20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1806,17 +1843,20 @@
       <c r="AA21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AB21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC21" s="3">
         <v>141000</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>242000</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>377000</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1901,180 +1941,189 @@
       <c r="AD22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>96000</v>
+      </c>
+      <c r="E23" s="3">
         <v>144000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>114000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>137000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>244000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>332000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-9000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>220000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>240000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>484000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>234000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>259000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>170000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-131000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>219000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>185000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>194000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>164000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>107000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>147000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>113000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>162000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>182000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>269000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>172000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>141000</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>242000</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>377000</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E24" s="3">
         <v>33000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>9000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>32000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>64000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>77000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>2000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>47000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>55000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>114000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>49000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>52000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>45000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-25000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>47000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>40000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>41000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>36000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>35000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>54000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>46000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>59000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>474000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>93000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>60000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>53000</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>96000</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>147000</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2159,180 +2208,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>66000</v>
+      </c>
+      <c r="E26" s="3">
         <v>111000</v>
-      </c>
-      <c r="E26" s="3">
-        <v>105000</v>
       </c>
       <c r="F26" s="3">
         <v>105000</v>
       </c>
       <c r="G26" s="3">
+        <v>105000</v>
+      </c>
+      <c r="H26" s="3">
         <v>180000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>255000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-11000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>173000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>185000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>370000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>185000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>207000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>125000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-106000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>172000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>145000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>153000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>128000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>72000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>93000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>67000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>103000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-292000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>176000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>112000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>88000</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>146000</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>230000</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>66000</v>
+      </c>
+      <c r="E27" s="3">
         <v>111000</v>
-      </c>
-      <c r="E27" s="3">
-        <v>105000</v>
       </c>
       <c r="F27" s="3">
         <v>105000</v>
       </c>
       <c r="G27" s="3">
+        <v>105000</v>
+      </c>
+      <c r="H27" s="3">
         <v>180000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>255000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-11000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>173000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>185000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>370000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>185000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>207000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>125000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-106000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>172000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>145000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>153000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>128000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>72000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>93000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>67000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>103000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-292000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>176000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>112000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>88000</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>146000</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>230000</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2417,8 +2475,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2458,8 +2519,8 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
@@ -2473,23 +2534,23 @@
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U29" s="3">
-        <v>0</v>
+      <c r="U29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
         <v>21000</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>16000</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>23000</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>208000</v>
-      </c>
-      <c r="Z29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AA29" s="3" t="s">
         <v>8</v>
@@ -2497,14 +2558,17 @@
       <c r="AB29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AC29" s="3">
-        <v>0</v>
+      <c r="AC29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AD29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2589,8 +2653,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2675,8 +2742,11 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2761,94 +2831,100 @@
       <c r="AD32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>66000</v>
+      </c>
+      <c r="E33" s="3">
         <v>111000</v>
-      </c>
-      <c r="E33" s="3">
-        <v>105000</v>
       </c>
       <c r="F33" s="3">
         <v>105000</v>
       </c>
       <c r="G33" s="3">
+        <v>105000</v>
+      </c>
+      <c r="H33" s="3">
         <v>180000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>255000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-11000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>173000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>185000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>370000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>185000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>207000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>125000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-106000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>172000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>145000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>153000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>128000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>72000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>114000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>83000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>126000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-84000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>176000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>112000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>88000</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>146000</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>230000</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2933,185 +3009,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>66000</v>
+      </c>
+      <c r="E35" s="3">
         <v>111000</v>
-      </c>
-      <c r="E35" s="3">
-        <v>105000</v>
       </c>
       <c r="F35" s="3">
         <v>105000</v>
       </c>
       <c r="G35" s="3">
+        <v>105000</v>
+      </c>
+      <c r="H35" s="3">
         <v>180000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>255000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-11000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>173000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>185000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>370000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>185000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>207000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>125000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-106000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>172000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>145000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>153000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>128000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>72000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>114000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>83000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>126000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-84000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>176000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>112000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>88000</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>146000</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>230000</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3142,8 +3227,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3174,94 +3260,98 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1317000</v>
+      </c>
+      <c r="E41" s="3">
         <v>570000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1535000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1364000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>976000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>708000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>905000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1050000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1453000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1497000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1183000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1775000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1632000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1084000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1233000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1583000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1746000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1206000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1286000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>2143000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1622000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>2398000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>1518000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>1248000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>1153000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>1364000</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>1253000</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>1823000</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3346,94 +3436,100 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2194000</v>
+      </c>
+      <c r="E43" s="3">
         <v>2121000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2114000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2024000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1974000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1943000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2040000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2029000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2018000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1990000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2051000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2059000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2096000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1969000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2071000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1985000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>2093000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>2032000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>2094000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>2132000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>2238000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>2078000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>2345000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>1939000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>1930000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>1704000</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>1758000</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>1652000</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3518,8 +3614,11 @@
       <c r="AD44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3604,8 +3703,11 @@
       <c r="AD45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3690,144 +3792,150 @@
       <c r="AD46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>58825000</v>
+      </c>
+      <c r="E47" s="3">
         <v>60687000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>62549000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>66363000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>69279000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>71566000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>73448000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>75009000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>75946000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>77243000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>80102000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>81620000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>83192000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>85681000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>87289000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>88468000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>90021000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>92560000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>95064000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>97556000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>100093000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>103054000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>105932000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>108311000</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>111582000</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>108989000</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>112293000</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>115487000</v>
       </c>
     </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>68000</v>
+      </c>
+      <c r="E48" s="3">
         <v>69000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>74000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>77000</v>
-      </c>
-      <c r="G48" s="3">
-        <v>91000</v>
       </c>
       <c r="H48" s="3">
         <v>91000</v>
       </c>
       <c r="I48" s="3">
+        <v>91000</v>
+      </c>
+      <c r="J48" s="3">
         <v>95000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>114000</v>
-      </c>
-      <c r="K48" s="3">
-        <v>113000</v>
       </c>
       <c r="L48" s="3">
         <v>113000</v>
       </c>
       <c r="M48" s="3">
+        <v>113000</v>
+      </c>
+      <c r="N48" s="3">
         <v>116000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>127000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>129000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>132000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>135000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>134000</v>
-      </c>
-      <c r="S48" s="3">
-        <v>136000</v>
       </c>
       <c r="T48" s="3">
         <v>136000</v>
@@ -3836,120 +3944,126 @@
         <v>136000</v>
       </c>
       <c r="V48" s="3">
+        <v>136000</v>
+      </c>
+      <c r="W48" s="3">
         <v>107000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>104000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>150000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>108000</v>
-      </c>
-      <c r="Z48" s="3">
-        <v>152000</v>
       </c>
       <c r="AA48" s="3">
         <v>152000</v>
       </c>
       <c r="AB48" s="3">
+        <v>152000</v>
+      </c>
+      <c r="AC48" s="3">
         <v>157000</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>160000</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>156000</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>700000</v>
+      </c>
+      <c r="E49" s="3">
         <v>703000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>705000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>708000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>718000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>722000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>725000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>721000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>726000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>731000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>735000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>741000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>746000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>752000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>757000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>763000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>769000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>780000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>786000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>792000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>798000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>802000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>810000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>727000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>658000</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>664000</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>670000</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>683000</v>
       </c>
     </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4034,8 +4148,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4120,94 +4237,100 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2407000</v>
+      </c>
+      <c r="E52" s="3">
         <v>2662000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>3724000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2998000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2912000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>2962000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>3135000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>2721000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2776000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3072000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2823000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2905000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>2820000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>3141000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>3007000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>3134000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>3140000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>3470000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>4446000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>3243000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>3530000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>3880000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>3402000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>3873000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>4084000</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>4211000</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>4088000</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>4103000</v>
       </c>
     </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4292,94 +4415,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>65598000</v>
+      </c>
+      <c r="E54" s="3">
         <v>66913000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>70795000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>73625000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>76065000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>78158000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>80605000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>81939000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>83348000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>84957000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>87412000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>89664000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>91045000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>93245000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>94903000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>96553000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>98320000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>100579000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>104176000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>106493000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>108949000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>113209000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>114991000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>117085000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>120354000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>117890000</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>121136000</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>125312000</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4410,8 +4539,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4442,8 +4572,9 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4528,94 +4659,100 @@
       <c r="AD57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>4838000</v>
+      </c>
+      <c r="E58" s="3">
         <v>5753000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>5870000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>5677000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>4609000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>3802000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>2490000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>2781000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>4068000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>5684000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>6613000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>7078000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>7310000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>8452000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>8483000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>7004000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>6785000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>7505000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>5422000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>5007000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>4752000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>5131000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>4771000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>3281000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>3918000</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>2160000</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>2334000</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>2637000</v>
       </c>
     </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4700,8 +4837,11 @@
       <c r="AD59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4786,94 +4926,100 @@
       <c r="AD60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>56936000</v>
+      </c>
+      <c r="E61" s="3">
         <v>57388000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>61026000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>63998000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>67738000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>70825000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>74488000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>75629000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>75814000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>75674000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>77332000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>79137000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>80260000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>81297000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>81715000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>84769000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>86776000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>88140000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>93519000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>96089000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>98690000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>102797000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>105012000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>108557000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>110778000</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>109586000</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>112368000</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>116540000</v>
       </c>
     </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4958,8 +5104,11 @@
       <c r="AD62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5044,8 +5193,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5130,8 +5282,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5216,94 +5371,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>62668000</v>
+      </c>
+      <c r="E66" s="3">
         <v>63955000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>67818000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>70652000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>73138000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>75334000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>78008000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>79216000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>80647000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>82234000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>84979000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>87410000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>88930000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>91210000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>91567000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>93313000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>95019000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>97149000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>100657000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>102769000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>105235000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>109572000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>111537000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>113559000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>116814000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>114242000</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>117437000</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>121602000</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5334,8 +5495,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5420,8 +5582,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5506,8 +5671,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5592,8 +5760,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5678,94 +5849,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>4625000</v>
+      </c>
+      <c r="E72" s="3">
         <v>4579000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>4490000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>4406000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>4323000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>4167000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>3939000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>3975000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>3828000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>3670000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>3331000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>3175000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2999000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2905000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>3664000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>3527000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>3418000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>3303000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>3218000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>3186000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>3114000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>3073000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>3004000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>3130000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>2997000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>2930000</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>2890000</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>2858000</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5850,8 +6027,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5936,8 +6116,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6022,94 +6205,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2930000</v>
+      </c>
+      <c r="E76" s="3">
         <v>2958000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2977000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2973000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2927000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2824000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2597000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2723000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2701000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2723000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2433000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2254000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2115000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2035000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>3336000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>3240000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>3301000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>3430000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>3519000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>3724000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>3714000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>3637000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>3454000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>3526000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>3540000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>3648000</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>3699000</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>3710000</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6194,185 +6383,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>66000</v>
+      </c>
+      <c r="E81" s="3">
         <v>111000</v>
-      </c>
-      <c r="E81" s="3">
-        <v>105000</v>
       </c>
       <c r="F81" s="3">
         <v>105000</v>
       </c>
       <c r="G81" s="3">
+        <v>105000</v>
+      </c>
+      <c r="H81" s="3">
         <v>180000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>255000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-11000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>173000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>185000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>370000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>185000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>207000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>125000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-106000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>172000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>145000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>153000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>128000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>72000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>114000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>83000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>126000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-84000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>176000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>112000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>88000</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>146000</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>230000</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6403,8 +6601,9 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6489,8 +6688,11 @@
       <c r="AD83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6575,8 +6777,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6661,8 +6866,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6747,8 +6955,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6833,8 +7044,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6919,94 +7133,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>99000</v>
+      </c>
+      <c r="E89" s="3">
         <v>145000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>207000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>68000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>139000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-109000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>168000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>201000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>154000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>179000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>171000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>221000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>142000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>453000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>188000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>309000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>334000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>188000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>485000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>173000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>198000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>284000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>244000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>284000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>280000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>350000</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>243000</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>343000</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7037,8 +7257,9 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -7123,8 +7344,11 @@
       <c r="AD91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7209,8 +7433,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7295,94 +7522,100 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>1826000</v>
+      </c>
+      <c r="E94" s="3">
         <v>1848000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>3773000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>2856000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>2205000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>1751000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>1560000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>894000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>1334000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>2885000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>1530000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>1526000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>2407000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>985000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>1079000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>1525000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>2473000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>2408000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>2161000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>2443000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>3035000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>2721000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>2424000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>3194000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-1133000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>3011000</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>2913000</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>3111000</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7413,43 +7646,44 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-19000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-21000</v>
-      </c>
-      <c r="E96" s="3">
-        <v>-22000</v>
       </c>
       <c r="F96" s="3">
         <v>-22000</v>
       </c>
       <c r="G96" s="3">
+        <v>-22000</v>
+      </c>
+      <c r="H96" s="3">
         <v>-23000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-24000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-25000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-26000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-27000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-29000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-30000</v>
-      </c>
-      <c r="N96" s="3">
-        <v>-31000</v>
       </c>
       <c r="O96" s="3">
         <v>-31000</v>
@@ -7458,49 +7692,52 @@
         <v>-31000</v>
       </c>
       <c r="Q96" s="3">
+        <v>-31000</v>
+      </c>
+      <c r="R96" s="3">
         <v>-35000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-36000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-37000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-39000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-40000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-41000</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-43000</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-42000</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-43000</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-42000</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-45000</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AC96" s="3">
         <v>-46000</v>
       </c>
-      <c r="AC96" s="3">
+      <c r="AD96" s="3">
         <v>-47000</v>
       </c>
-      <c r="AD96" s="3">
+      <c r="AE96" s="3">
         <v>-49000</v>
       </c>
     </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7585,8 +7822,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7671,8 +7911,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7757,94 +8000,100 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1435000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-4022000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-3085000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-2448000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-2122000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-2006000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1461000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1546000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1828000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-2499000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-2378000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1522000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-2328000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1451000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1746000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-2000000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-2601000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-3638000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-2632000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-2376000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-4022000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-1854000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-2411000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-3330000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>649000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-3250000</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-3726000</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-3008000</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7929,90 +8178,96 @@
       <c r="AD101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>490000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-2029000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>895000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>476000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>222000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-364000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>267000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-451000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-340000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>565000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-677000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>225000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>221000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-13000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-479000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-166000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>206000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-1042000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>14000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>240000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-789000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>1151000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>270000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>91000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-207000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>111000</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-570000</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>446000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NAVI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NAVI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="92">
   <si>
     <t>NAVI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,390 +665,403 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="31" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="32" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>376000</v>
+      </c>
+      <c r="E8" s="3">
         <v>261000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>306000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>295000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>320000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>409000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>434000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>437000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>469000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>464000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>502000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>464000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>461000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>402000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>383000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>418000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>435000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>416000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>404000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>425000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>412000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>397000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>438000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>474000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>512000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>462000</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>440000</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>480000</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>509000</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="E9" s="3">
         <v>-16000</v>
-      </c>
-      <c r="E9" s="3">
-        <v>-17000</v>
       </c>
       <c r="F9" s="3">
         <v>-17000</v>
       </c>
       <c r="G9" s="3">
+        <v>-17000</v>
+      </c>
+      <c r="H9" s="3">
         <v>-24000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>-17000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>-18000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>-19000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>-47000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>-50000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>-53000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>-51000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>-54000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>-52000</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>-58000</v>
       </c>
       <c r="R9" s="3">
         <v>-58000</v>
       </c>
       <c r="S9" s="3">
-        <v>-60000</v>
+        <v>-58000</v>
       </c>
       <c r="T9" s="3">
         <v>-60000</v>
       </c>
       <c r="U9" s="3">
+        <v>-60000</v>
+      </c>
+      <c r="V9" s="3">
         <v>-62000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>-64000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>-70000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>-71000</v>
-      </c>
-      <c r="Y9" s="3">
-        <v>-69000</v>
       </c>
       <c r="Z9" s="3">
         <v>-69000</v>
       </c>
       <c r="AA9" s="3">
+        <v>-69000</v>
+      </c>
+      <c r="AB9" s="3">
         <v>-75000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>-70000</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>-76000</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>-74000</v>
       </c>
-      <c r="AE9" s="3">
+      <c r="AF9" s="3">
         <v>-76000</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>391000</v>
+      </c>
+      <c r="E10" s="3">
         <v>277000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>323000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>312000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>344000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>426000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>452000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>456000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>516000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>514000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>555000</v>
-      </c>
-      <c r="N10" s="3">
-        <v>515000</v>
       </c>
       <c r="O10" s="3">
         <v>515000</v>
       </c>
       <c r="P10" s="3">
+        <v>515000</v>
+      </c>
+      <c r="Q10" s="3">
         <v>454000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>441000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>476000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>495000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>476000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>466000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>489000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>482000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>468000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>507000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>543000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>587000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>532000</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>516000</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>554000</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AF10" s="3">
         <v>585000</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1080,8 +1093,9 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1169,8 +1183,11 @@
       <c r="AE12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1258,82 +1275,85 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E14" s="3">
         <v>18000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>7000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>13000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>31000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>3000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>7000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>67000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>24000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>19000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>11000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>8000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>18000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>47000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>94000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>9000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>8000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>12000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>8000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>11000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>24000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>8000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>16000</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>35000</v>
-      </c>
-      <c r="AA14" s="3">
-        <v>6000</v>
       </c>
       <c r="AB14" s="3">
         <v>6000</v>
@@ -1342,13 +1362,16 @@
         <v>6000</v>
       </c>
       <c r="AD14" s="3">
+        <v>6000</v>
+      </c>
+      <c r="AE14" s="3">
         <v>14000</v>
       </c>
-      <c r="AE14" s="3">
+      <c r="AF14" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1436,8 +1459,11 @@
       <c r="AE15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1466,186 +1492,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>266000</v>
+      </c>
+      <c r="E17" s="3">
         <v>165000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>162000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>181000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>183000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>165000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>102000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>446000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>249000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>224000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>18000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>230000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>202000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>232000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>514000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>199000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>250000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>222000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>240000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>318000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>265000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>284000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>276000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>292000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>243000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>290000</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>299000</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>238000</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>132000</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>110000</v>
+      </c>
+      <c r="E18" s="3">
         <v>96000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>144000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>114000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>137000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>244000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>332000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-9000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>220000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>240000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>484000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>234000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>259000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>170000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-131000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>219000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>185000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>194000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>164000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>107000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>147000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>113000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>162000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>182000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>269000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>172000</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>141000</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>242000</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>377000</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1677,8 +1710,9 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1766,8 +1800,11 @@
       <c r="AE20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1846,17 +1883,20 @@
       <c r="AB21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AC21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD21" s="3">
         <v>141000</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>242000</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>377000</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1944,186 +1984,195 @@
       <c r="AE22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>110000</v>
+      </c>
+      <c r="E23" s="3">
         <v>96000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>144000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>114000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>137000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>244000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>332000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-9000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>220000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>240000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>484000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>234000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>259000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>170000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-131000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>219000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>185000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>194000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>164000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>107000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>147000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>113000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>162000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>182000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>269000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>172000</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>141000</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>242000</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>377000</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>31000</v>
+      </c>
+      <c r="E24" s="3">
         <v>30000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>33000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>9000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>32000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>64000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>77000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>2000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>47000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>55000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>114000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>49000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>52000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>45000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-25000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>47000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>40000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>41000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>36000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>35000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>54000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>46000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>59000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>474000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>93000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>60000</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>53000</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>96000</v>
       </c>
-      <c r="AE24" s="3">
+      <c r="AF24" s="3">
         <v>147000</v>
       </c>
     </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2211,186 +2260,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>79000</v>
+      </c>
+      <c r="E26" s="3">
         <v>66000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>111000</v>
-      </c>
-      <c r="F26" s="3">
-        <v>105000</v>
       </c>
       <c r="G26" s="3">
         <v>105000</v>
       </c>
       <c r="H26" s="3">
+        <v>105000</v>
+      </c>
+      <c r="I26" s="3">
         <v>180000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>255000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-11000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>173000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>185000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>370000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>185000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>207000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>125000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-106000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>172000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>145000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>153000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>128000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>72000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>93000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>67000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>103000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-292000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>176000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>112000</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>88000</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>146000</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>230000</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>79000</v>
+      </c>
+      <c r="E27" s="3">
         <v>66000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>111000</v>
-      </c>
-      <c r="F27" s="3">
-        <v>105000</v>
       </c>
       <c r="G27" s="3">
         <v>105000</v>
       </c>
       <c r="H27" s="3">
+        <v>105000</v>
+      </c>
+      <c r="I27" s="3">
         <v>180000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>255000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-11000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>173000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>185000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>370000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>185000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>207000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>125000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-106000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>172000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>145000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>153000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>128000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>72000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>93000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>67000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>103000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-292000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>176000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>112000</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>88000</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>146000</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>230000</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2478,8 +2536,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2522,8 +2583,8 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
+      <c r="Q29" s="3">
+        <v>0</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>8</v>
@@ -2537,23 +2598,23 @@
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V29" s="3">
-        <v>0</v>
+      <c r="V29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
         <v>21000</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>16000</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>23000</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AA29" s="3">
         <v>208000</v>
-      </c>
-      <c r="AA29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AB29" s="3" t="s">
         <v>8</v>
@@ -2561,14 +2622,17 @@
       <c r="AC29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AD29" s="3">
-        <v>0</v>
+      <c r="AD29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AE29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2656,8 +2720,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2745,8 +2812,11 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2834,97 +2904,103 @@
       <c r="AE32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>79000</v>
+      </c>
+      <c r="E33" s="3">
         <v>66000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>111000</v>
-      </c>
-      <c r="F33" s="3">
-        <v>105000</v>
       </c>
       <c r="G33" s="3">
         <v>105000</v>
       </c>
       <c r="H33" s="3">
+        <v>105000</v>
+      </c>
+      <c r="I33" s="3">
         <v>180000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>255000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-11000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>173000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>185000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>370000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>185000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>207000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>125000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-106000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>172000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>145000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>153000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>128000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>72000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>114000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>83000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>126000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-84000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>176000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>112000</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>88000</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>146000</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>230000</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3012,191 +3088,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>79000</v>
+      </c>
+      <c r="E35" s="3">
         <v>66000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>111000</v>
-      </c>
-      <c r="F35" s="3">
-        <v>105000</v>
       </c>
       <c r="G35" s="3">
         <v>105000</v>
       </c>
       <c r="H35" s="3">
+        <v>105000</v>
+      </c>
+      <c r="I35" s="3">
         <v>180000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>255000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-11000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>173000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>185000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>370000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>185000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>207000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>125000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-106000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>172000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>145000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>153000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>128000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>72000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>114000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>83000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>126000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-84000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>176000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>112000</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>88000</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>146000</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>230000</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3228,8 +3313,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3261,97 +3347,101 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>977000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1317000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>570000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1535000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1364000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>976000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>708000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>905000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1050000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1453000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1497000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1183000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1775000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1632000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1084000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1233000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1583000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1746000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1206000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1286000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>2143000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1622000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>2398000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>1518000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>1248000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>1153000</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>1364000</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>1253000</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>1823000</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3439,97 +3529,103 @@
       <c r="AE42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2199000</v>
+      </c>
+      <c r="E43" s="3">
         <v>2194000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2121000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2114000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2024000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1974000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1943000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2040000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2029000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2018000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1990000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2051000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2059000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2096000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1969000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2071000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1985000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>2093000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>2032000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>2094000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>2132000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>2238000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>2078000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>2345000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>1939000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>1930000</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>1704000</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>1758000</v>
       </c>
-      <c r="AE43" s="3">
+      <c r="AF43" s="3">
         <v>1652000</v>
       </c>
     </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3617,8 +3713,11 @@
       <c r="AE44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3706,8 +3805,11 @@
       <c r="AE45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3795,150 +3897,156 @@
       <c r="AE46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>57148000</v>
+      </c>
+      <c r="E47" s="3">
         <v>58825000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>60687000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>62549000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>66363000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>69279000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>71566000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>73448000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>75009000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>75946000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>77243000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>80102000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>81620000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>83192000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>85681000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>87289000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>88468000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>90021000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>92560000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>95064000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>97556000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>100093000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>103054000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>105932000</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>108311000</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>111582000</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>108989000</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>112293000</v>
       </c>
-      <c r="AE47" s="3">
+      <c r="AF47" s="3">
         <v>115487000</v>
       </c>
     </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>67000</v>
+      </c>
+      <c r="E48" s="3">
         <v>68000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>69000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>74000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>77000</v>
-      </c>
-      <c r="H48" s="3">
-        <v>91000</v>
       </c>
       <c r="I48" s="3">
         <v>91000</v>
       </c>
       <c r="J48" s="3">
+        <v>91000</v>
+      </c>
+      <c r="K48" s="3">
         <v>95000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>114000</v>
-      </c>
-      <c r="L48" s="3">
-        <v>113000</v>
       </c>
       <c r="M48" s="3">
         <v>113000</v>
       </c>
       <c r="N48" s="3">
+        <v>113000</v>
+      </c>
+      <c r="O48" s="3">
         <v>116000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>127000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>129000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>132000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>135000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>134000</v>
-      </c>
-      <c r="T48" s="3">
-        <v>136000</v>
       </c>
       <c r="U48" s="3">
         <v>136000</v>
@@ -3947,123 +4055,129 @@
         <v>136000</v>
       </c>
       <c r="W48" s="3">
+        <v>136000</v>
+      </c>
+      <c r="X48" s="3">
         <v>107000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>104000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>150000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>108000</v>
-      </c>
-      <c r="AA48" s="3">
-        <v>152000</v>
       </c>
       <c r="AB48" s="3">
         <v>152000</v>
       </c>
       <c r="AC48" s="3">
+        <v>152000</v>
+      </c>
+      <c r="AD48" s="3">
         <v>157000</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>160000</v>
       </c>
-      <c r="AE48" s="3">
+      <c r="AF48" s="3">
         <v>156000</v>
       </c>
     </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>697000</v>
+      </c>
+      <c r="E49" s="3">
         <v>700000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>703000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>705000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>708000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>718000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>722000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>725000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>721000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>726000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>731000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>735000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>741000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>746000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>752000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>757000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>763000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>769000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>780000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>786000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>792000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>798000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>802000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>810000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>727000</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>658000</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>664000</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>670000</v>
       </c>
-      <c r="AE49" s="3">
+      <c r="AF49" s="3">
         <v>683000</v>
       </c>
     </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4151,8 +4265,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4240,97 +4357,103 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2280000</v>
+      </c>
+      <c r="E52" s="3">
         <v>2407000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2662000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>3724000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2998000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>2912000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>2962000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>3135000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2721000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2776000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>3072000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2823000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>2905000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>2820000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>3141000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>3007000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>3134000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>3140000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>3470000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>4446000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>3243000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>3530000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>3880000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>3402000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>3873000</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>4084000</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>4211000</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>4088000</v>
       </c>
-      <c r="AE52" s="3">
+      <c r="AF52" s="3">
         <v>4103000</v>
       </c>
     </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4418,97 +4541,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>63414000</v>
+      </c>
+      <c r="E54" s="3">
         <v>65598000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>66913000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>70795000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>73625000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>76065000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>78158000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>80605000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>81939000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>83348000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>84957000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>87412000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>89664000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>91045000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>93245000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>94903000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>96553000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>98320000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>100579000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>104176000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>106493000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>108949000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>113209000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>114991000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>117085000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>120354000</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>117890000</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>121136000</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>125312000</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4540,8 +4669,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4573,8 +4703,9 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4662,97 +4793,103 @@
       <c r="AE57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>4662000</v>
+      </c>
+      <c r="E58" s="3">
         <v>4838000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>5753000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>5870000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>5677000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>4609000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>3802000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>2490000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2781000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>4068000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>5684000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>6613000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>7078000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>7310000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>8452000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>8483000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>7004000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>6785000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>7505000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>5422000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>5007000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>4752000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>5131000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>4771000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>3281000</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>3918000</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>2160000</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>2334000</v>
       </c>
-      <c r="AE58" s="3">
+      <c r="AF58" s="3">
         <v>2637000</v>
       </c>
     </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4840,8 +4977,11 @@
       <c r="AE59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4929,97 +5069,103 @@
       <c r="AE60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>54907000</v>
+      </c>
+      <c r="E61" s="3">
         <v>56936000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>57388000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>61026000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>63998000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>67738000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>70825000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>74488000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>75629000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>75814000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>75674000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>77332000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>79137000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>80260000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>81297000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>81715000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>84769000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>86776000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>88140000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>93519000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>96089000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>98690000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>102797000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>105012000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>108557000</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>110778000</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>109586000</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>112368000</v>
       </c>
-      <c r="AE61" s="3">
+      <c r="AF61" s="3">
         <v>116540000</v>
       </c>
     </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -5107,8 +5253,11 @@
       <c r="AE62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5196,8 +5345,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5285,8 +5437,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5374,97 +5529,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>60516000</v>
+      </c>
+      <c r="E66" s="3">
         <v>62668000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>63955000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>67818000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>70652000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>73138000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>75334000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>78008000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>79216000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>80647000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>82234000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>84979000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>87410000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>88930000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>91210000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>91567000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>93313000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>95019000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>97149000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>100657000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>102769000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>105235000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>109572000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>111537000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>113559000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>116814000</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>114242000</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>117437000</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>121602000</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5496,8 +5657,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5585,8 +5747,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5674,8 +5839,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5763,8 +5931,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5852,97 +6023,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>4685000</v>
+      </c>
+      <c r="E72" s="3">
         <v>4625000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>4579000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>4490000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>4406000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>4323000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>4167000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>3939000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>3975000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>3828000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>3670000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>3331000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>3175000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2999000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2905000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>3664000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>3527000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>3418000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>3303000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>3218000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>3186000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>3114000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>3073000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>3004000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>3130000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>2997000</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>2930000</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>2890000</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>2858000</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6030,8 +6207,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6119,8 +6299,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6208,97 +6391,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2898000</v>
+      </c>
+      <c r="E76" s="3">
         <v>2930000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2958000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2977000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2973000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2927000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2824000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2597000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2723000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2701000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2723000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2433000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2254000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2115000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2035000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>3336000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>3240000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>3301000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>3430000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>3519000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>3724000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>3714000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>3637000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>3454000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>3526000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>3540000</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>3648000</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>3699000</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>3710000</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6386,191 +6575,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>79000</v>
+      </c>
+      <c r="E81" s="3">
         <v>66000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>111000</v>
-      </c>
-      <c r="F81" s="3">
-        <v>105000</v>
       </c>
       <c r="G81" s="3">
         <v>105000</v>
       </c>
       <c r="H81" s="3">
+        <v>105000</v>
+      </c>
+      <c r="I81" s="3">
         <v>180000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>255000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-11000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>173000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>185000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>370000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>185000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>207000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>125000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-106000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>172000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>145000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>153000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>128000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>72000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>114000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>83000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>126000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-84000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>176000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>112000</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>88000</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>146000</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>230000</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6602,8 +6800,9 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6691,8 +6890,11 @@
       <c r="AE83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6780,8 +6982,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6869,8 +7074,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6958,8 +7166,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7047,8 +7258,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7136,97 +7350,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>122000</v>
+      </c>
+      <c r="E89" s="3">
         <v>99000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>145000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>207000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>68000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>139000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-109000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>168000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>201000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>154000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>179000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>171000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>221000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>142000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>453000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>188000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>309000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>334000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>188000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>485000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>173000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>198000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>284000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>244000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>284000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>280000</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>350000</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>243000</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>343000</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7258,8 +7478,9 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -7347,8 +7568,11 @@
       <c r="AE91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7436,8 +7660,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7525,97 +7752,103 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>1659000</v>
+      </c>
+      <c r="E94" s="3">
         <v>1826000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>1848000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>3773000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>2856000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>2205000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>1751000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>1560000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>894000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>1334000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>2885000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>1530000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>1526000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>2407000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>985000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>1079000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>1525000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>2473000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>2408000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>2161000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>2443000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>3035000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>2721000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>2424000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>3194000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-1133000</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>3011000</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>2913000</v>
       </c>
-      <c r="AE94" s="3">
+      <c r="AF94" s="3">
         <v>3111000</v>
       </c>
     </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7647,8 +7880,9 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7656,37 +7890,37 @@
         <v>-19000</v>
       </c>
       <c r="E96" s="3">
+        <v>-19000</v>
+      </c>
+      <c r="F96" s="3">
         <v>-21000</v>
-      </c>
-      <c r="F96" s="3">
-        <v>-22000</v>
       </c>
       <c r="G96" s="3">
         <v>-22000</v>
       </c>
       <c r="H96" s="3">
+        <v>-22000</v>
+      </c>
+      <c r="I96" s="3">
         <v>-23000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-24000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-25000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-26000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-27000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-29000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-30000</v>
-      </c>
-      <c r="O96" s="3">
-        <v>-31000</v>
       </c>
       <c r="P96" s="3">
         <v>-31000</v>
@@ -7695,49 +7929,52 @@
         <v>-31000</v>
       </c>
       <c r="R96" s="3">
+        <v>-31000</v>
+      </c>
+      <c r="S96" s="3">
         <v>-35000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-36000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-37000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-39000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-40000</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-41000</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-43000</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-42000</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-43000</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-42000</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AC96" s="3">
         <v>-45000</v>
       </c>
-      <c r="AC96" s="3">
+      <c r="AD96" s="3">
         <v>-46000</v>
       </c>
-      <c r="AD96" s="3">
+      <c r="AE96" s="3">
         <v>-47000</v>
       </c>
-      <c r="AE96" s="3">
+      <c r="AF96" s="3">
         <v>-49000</v>
       </c>
     </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7825,8 +8062,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7914,8 +8154,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8003,97 +8246,103 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-2248000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1435000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-4022000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-3085000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-2448000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-2122000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-2006000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1461000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1546000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1828000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-2499000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-2378000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1522000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-2328000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1451000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1746000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-2000000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-2601000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-3638000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-2632000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-2376000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-4022000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-1854000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-2411000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-3330000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>649000</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-3250000</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-3726000</v>
       </c>
-      <c r="AE100" s="3">
+      <c r="AF100" s="3">
         <v>-3008000</v>
       </c>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -8181,93 +8430,99 @@
       <c r="AE101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-467000</v>
+      </c>
+      <c r="E102" s="3">
         <v>490000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-2029000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>895000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>476000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>222000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-364000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>267000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-451000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-340000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>565000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-677000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>225000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>221000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-13000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-479000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-166000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>206000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-1042000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>14000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>240000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-789000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>1151000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>270000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>91000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-207000</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>111000</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>-570000</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>446000</v>
       </c>
     </row>
